--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022_MS_PlanDetails_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022_MS_PlanDetails_PRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mratdd_New\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A63413-33BD-4D5C-A2D8-5193B0837D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EB9FF4-BA15-465D-9175-1B88DD45FB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
@@ -48,35 +48,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={CFD96B34-2085-45F7-AB57-4397B65AD613}</author>
-    <author>tc={6310827A-33F8-47AD-86FE-5B44075B43C7}</author>
-  </authors>
-  <commentList>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{CFD96B34-2085-45F7-AB57-4397B65AD613}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    † is superscript in Dental description</t>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{6310827A-33F8-47AD-86FE-5B44075B43C7}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Lats Digit mentioned in both Statement are superscript in Vision description</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16874" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15344" uniqueCount="1017">
   <si>
     <t>name</t>
   </si>
@@ -3112,6 +3085,54 @@
   </si>
   <si>
     <t>74.91*</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>MS337</t>
+  </si>
+  <si>
+    <t>MS338</t>
+  </si>
+  <si>
+    <t>MS339</t>
+  </si>
+  <si>
+    <t>MS340</t>
+  </si>
+  <si>
+    <t>MS341</t>
+  </si>
+  <si>
+    <t>MS342</t>
+  </si>
+  <si>
+    <t>MS343</t>
+  </si>
+  <si>
+    <t>186.50*</t>
+  </si>
+  <si>
+    <t>268.50*</t>
+  </si>
+  <si>
+    <t>318.00*</t>
+  </si>
+  <si>
+    <t>278.25*</t>
+  </si>
+  <si>
+    <t>86.00*</t>
+  </si>
+  <si>
+    <t>209.25*</t>
   </si>
 </sst>
 </file>
@@ -3412,9 +3433,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Palanisamy, Vinitha" id="{097F6C45-0939-4BA9-A4F6-09318BBDFAE5}" userId="S::vinitha.palanisamy@optum.com::4bc888fa-e54f-4db2-8d45-c4d25b77b265" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3712,17 +3731,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="J2" dT="2021-08-04T12:07:49.33" personId="{097F6C45-0939-4BA9-A4F6-09318BBDFAE5}" id="{CFD96B34-2085-45F7-AB57-4397B65AD613}">
-    <text>† is superscript in Dental description</text>
-  </threadedComment>
-  <threadedComment ref="K2" dT="2021-08-04T12:09:02.42" personId="{097F6C45-0939-4BA9-A4F6-09318BBDFAE5}" id="{6310827A-33F8-47AD-86FE-5B44075B43C7}">
-    <text>Lats Digit mentioned in both Statement are superscript in Vision description</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD85D2F0-BF0A-404A-9E03-C975182EED32}">
   <dimension ref="A1:D59"/>
@@ -5004,12 +5012,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075D2F52-651D-4DC7-9A3A-1A35D081C6D9}">
-  <dimension ref="A1:R337"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075D2F52-651D-4DC7-9A3A-1A35D081C6D9}">
+  <dimension ref="A1:R344"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A340" sqref="A340:Q344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23117,17 +23125,387 @@
       </c>
       <c r="R337" s="31"/>
     </row>
+    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A338" s="32" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B338" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C338" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D338" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E338" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F338" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G338" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H338" s="27" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I338" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J338" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K338" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L338" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M338" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N338" s="27" t="s">
+        <v>978</v>
+      </c>
+      <c r="O338" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="P338" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q338" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A339" s="32" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B339" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C339" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D339" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E339" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F339" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G339" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H339" s="27" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I339" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J339" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K339" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L339" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M339" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N339" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O339" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="P339" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q339" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A340" s="32" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B340" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C340" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D340" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E340" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F340" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G340" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H340" s="27" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I340" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J340" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K340" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L340" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M340" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N340" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O340" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="P340" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q340" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A341" s="32" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B341" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C341" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D341" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E341" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F341" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G341" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H341" s="27" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I341" s="28" t="s">
+        <v>957</v>
+      </c>
+      <c r="J341" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K341" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L341" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M341" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N341" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O341" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="P341" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q341" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A342" s="32" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B342" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C342" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D342" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E342" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F342" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G342" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H342" s="27" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I342" s="28" t="s">
+        <v>958</v>
+      </c>
+      <c r="J342" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K342" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L342" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M342" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N342" s="27" t="s">
+        <v>980</v>
+      </c>
+      <c r="O342" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P342" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q342" s="27" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A343" s="32" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B343" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C343" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D343" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E343" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F343" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G343" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H343" s="27" t="s">
+        <v>690</v>
+      </c>
+      <c r="I343" s="28" t="s">
+        <v>959</v>
+      </c>
+      <c r="J343" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K343" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L343" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M343" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N343" s="27" t="s">
+        <v>981</v>
+      </c>
+      <c r="O343" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P343" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q343" s="27" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A344" s="32" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B344" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C344" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D344" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E344" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F344" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G344" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H344" s="27" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I344" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J344" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K344" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L344" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M344" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N344" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O344" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P344" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q344" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A58EE3-C3E7-4BCE-95F4-8F8F3E204C34}">
-  <dimension ref="A1:R237"/>
+  <dimension ref="A1:R242"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -35954,6 +36332,271 @@
         <v>43</v>
       </c>
       <c r="R237" s="32"/>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A238" s="32" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B238" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D238" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E238" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F238" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G238" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H238" s="27" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I238" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J238" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K238" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L238" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M238" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N238" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O238" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="P238" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q238" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A239" s="32" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B239" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D239" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E239" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F239" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G239" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H239" s="27" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I239" s="28" t="s">
+        <v>957</v>
+      </c>
+      <c r="J239" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K239" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L239" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M239" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N239" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O239" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="P239" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q239" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A240" s="32" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B240" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C240" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D240" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E240" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F240" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G240" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H240" s="27" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I240" s="28" t="s">
+        <v>958</v>
+      </c>
+      <c r="J240" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K240" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L240" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M240" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N240" s="27" t="s">
+        <v>980</v>
+      </c>
+      <c r="O240" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P240" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q240" s="27" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A241" s="32" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B241" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C241" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D241" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E241" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F241" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G241" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H241" s="27" t="s">
+        <v>690</v>
+      </c>
+      <c r="I241" s="28" t="s">
+        <v>959</v>
+      </c>
+      <c r="J241" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K241" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L241" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M241" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N241" s="27" t="s">
+        <v>981</v>
+      </c>
+      <c r="O241" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P241" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q241" s="27" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A242" s="32" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B242" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C242" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D242" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E242" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F242" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G242" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H242" s="27" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I242" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J242" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K242" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L242" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M242" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N242" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O242" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P242" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q242" s="27" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41455,11 +42098,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B7E196-737A-4C1D-A863-84EBD325380C}">
-  <dimension ref="A1:R137"/>
+  <dimension ref="A1:R142"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48882,6 +49525,271 @@
         <v>43</v>
       </c>
       <c r="R137" s="32"/>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A138" s="32" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B138" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D138" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E138" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F138" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G138" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H138" s="27" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I138" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J138" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K138" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L138" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M138" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N138" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O138" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="P138" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q138" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A139" s="32" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B139" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D139" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E139" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F139" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G139" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H139" s="27" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I139" s="28" t="s">
+        <v>957</v>
+      </c>
+      <c r="J139" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K139" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L139" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M139" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N139" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O139" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="P139" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q139" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A140" s="32" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B140" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D140" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E140" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F140" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G140" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H140" s="27" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I140" s="28" t="s">
+        <v>958</v>
+      </c>
+      <c r="J140" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K140" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L140" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M140" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N140" s="27" t="s">
+        <v>980</v>
+      </c>
+      <c r="O140" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P140" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q140" s="27" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A141" s="32" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B141" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D141" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E141" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F141" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G141" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H141" s="27" t="s">
+        <v>690</v>
+      </c>
+      <c r="I141" s="28" t="s">
+        <v>959</v>
+      </c>
+      <c r="J141" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K141" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L141" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M141" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N141" s="27" t="s">
+        <v>981</v>
+      </c>
+      <c r="O141" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P141" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q141" s="27" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A142" s="32" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B142" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D142" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E142" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F142" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G142" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H142" s="27" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I142" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J142" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K142" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L142" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M142" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N142" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O142" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P142" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q142" s="27" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51245,7 +52153,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:R122"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -51331,7 +52239,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>267</v>
+        <v>945</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>8</v>
@@ -51340,34 +52248,34 @@
         <v>151</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>76</v>
+        <v>892</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>123</v>
+        <v>891</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>77</v>
+        <v>892</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>162</v>
+        <v>893</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>584</v>
+        <v>709</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>957</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>979</v>
@@ -51384,190 +52292,190 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>290</v>
+        <v>946</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>82</v>
+        <v>892</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>126</v>
+        <v>891</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>83</v>
+        <v>892</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>165</v>
+        <v>893</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>607</v>
+        <v>710</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P3" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>359</v>
+        <v>947</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>101</v>
+        <v>892</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>140</v>
+        <v>891</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>102</v>
+        <v>892</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>173</v>
+        <v>893</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>674</v>
+        <v>711</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P4" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>360</v>
+        <v>948</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>101</v>
+        <v>892</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>140</v>
+        <v>891</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>102</v>
+        <v>892</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>173</v>
+        <v>893</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>675</v>
+        <v>712</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>959</v>
+        <v>179</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P5" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>983</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>361</v>
+        <v>973</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>101</v>
+        <v>963</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>140</v>
+        <v>961</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>102</v>
+        <v>960</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>173</v>
+        <v>962</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>676</v>
+        <v>966</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="J6" s="27" t="s">
         <v>56</v>
@@ -51582,10 +52490,10 @@
         <v>42</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>979</v>
+        <v>45</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>184</v>
@@ -51596,31 +52504,31 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>364</v>
+        <v>974</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>103</v>
+        <v>963</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>142</v>
+        <v>961</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>104</v>
+        <v>960</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>174</v>
+        <v>962</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>678</v>
+        <v>967</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>176</v>
+        <v>957</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>56</v>
@@ -51635,10 +52543,10 @@
         <v>42</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>45</v>
+        <v>979</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="P7" s="27" t="s">
         <v>184</v>
@@ -51649,31 +52557,31 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>365</v>
+        <v>975</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>103</v>
+        <v>963</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>142</v>
+        <v>961</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>104</v>
+        <v>960</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>174</v>
+        <v>962</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>679</v>
+        <v>968</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="J8" s="27" t="s">
         <v>56</v>
@@ -51688,45 +52596,45 @@
         <v>42</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P8" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q8" s="27" t="s">
-        <v>43</v>
+        <v>982</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>366</v>
+        <v>976</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>103</v>
+        <v>963</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>142</v>
+        <v>961</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>104</v>
+        <v>960</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>174</v>
+        <v>962</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>680</v>
+        <v>969</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J9" s="27" t="s">
         <v>56</v>
@@ -51741,45 +52649,45 @@
         <v>42</v>
       </c>
       <c r="N9" s="27" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P9" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q9" s="27" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>367</v>
+        <v>977</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>103</v>
+        <v>963</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>142</v>
+        <v>961</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>104</v>
+        <v>960</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>174</v>
+        <v>962</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>681</v>
+        <v>970</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>959</v>
+        <v>179</v>
       </c>
       <c r="J10" s="27" t="s">
         <v>56</v>
@@ -51794,63 +52702,63 @@
         <v>42</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P10" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q10" s="27" t="s">
-        <v>983</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>368</v>
+        <v>1006</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>103</v>
+        <v>1002</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>142</v>
+        <v>1003</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>104</v>
+        <v>1002</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>174</v>
+        <v>1001</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>682</v>
+        <v>1013</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M11" s="27" t="s">
         <v>42</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>979</v>
+        <v>45</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="P11" s="27" t="s">
         <v>184</v>
@@ -51861,40 +52769,40 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>371</v>
+        <v>1007</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>134</v>
+        <v>1002</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>137</v>
+        <v>1003</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>38</v>
+        <v>1002</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>52</v>
+        <v>1001</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>694</v>
+        <v>1014</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>4</v>
+        <v>957</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M12" s="27" t="s">
         <v>42</v>
@@ -51914,5831 +52822,160 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>372</v>
+        <v>1008</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>134</v>
+        <v>1002</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>137</v>
+        <v>1003</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>38</v>
+        <v>1002</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>52</v>
+        <v>1001</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>984</v>
+        <v>1015</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>176</v>
+        <v>958</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M13" s="27" t="s">
         <v>42</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>45</v>
+        <v>980</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="P13" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q13" s="27" t="s">
-        <v>43</v>
+        <v>982</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>373</v>
+        <v>1009</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>134</v>
+        <v>1002</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>137</v>
+        <v>1003</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>38</v>
+        <v>1002</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>52</v>
+        <v>1001</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>985</v>
+        <v>690</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M14" s="27" t="s">
         <v>42</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P14" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q14" s="27" t="s">
-        <v>43</v>
+        <v>983</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>374</v>
+        <v>1010</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>134</v>
+        <v>1002</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>137</v>
+        <v>1003</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>38</v>
+        <v>1002</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>52</v>
+        <v>1001</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>987</v>
+        <v>1016</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>958</v>
+        <v>179</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K15" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M15" s="27" t="s">
         <v>42</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P15" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q15" s="27" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>375</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>986</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="O16" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P16" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q16" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>988</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M17" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O17" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P17" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q17" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>693</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O18" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P18" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q18" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>694</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M19" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N19" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O19" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P19" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q19" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>381</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>695</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L20" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O20" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P20" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q20" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>696</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L21" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N21" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="O21" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P21" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q21" s="27" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>697</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L22" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M22" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N22" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="O22" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P22" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q22" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>698</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L23" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M23" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N23" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O23" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P23" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q23" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>503</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>701</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L24" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M24" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N24" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O24" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P24" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q24" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
-        <v>416</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>503</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>702</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L25" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M25" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N25" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O25" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P25" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q25" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>503</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>703</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L26" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M26" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N26" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="O26" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P26" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q26" s="27" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
-        <v>418</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>503</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>704</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M27" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N27" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="O27" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P27" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q27" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>503</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>705</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K28" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L28" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M28" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N28" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O28" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P28" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q28" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
-        <v>435</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>708</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K29" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L29" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M29" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N29" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O29" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P29" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q29" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>709</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K30" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L30" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M30" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N30" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O30" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P30" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q30" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>710</v>
-      </c>
-      <c r="I31" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="J31" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K31" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L31" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M31" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N31" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="O31" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P31" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q31" s="27" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
-        <v>438</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H32" s="27" t="s">
-        <v>711</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K32" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L32" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M32" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N32" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="O32" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P32" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q32" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>712</v>
-      </c>
-      <c r="I33" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J33" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K33" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L33" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M33" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N33" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O33" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P33" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q33" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
-        <v>442</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H34" s="27" t="s">
-        <v>715</v>
-      </c>
-      <c r="I34" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J34" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K34" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L34" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M34" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N34" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O34" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P34" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q34" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
-        <v>443</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>716</v>
-      </c>
-      <c r="I35" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J35" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K35" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L35" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M35" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N35" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O35" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P35" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q35" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
-        <v>444</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H36" s="27" t="s">
-        <v>717</v>
-      </c>
-      <c r="I36" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="J36" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K36" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L36" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M36" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N36" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="O36" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P36" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q36" s="27" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
-        <v>445</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H37" s="27" t="s">
-        <v>718</v>
-      </c>
-      <c r="I37" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="J37" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K37" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L37" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M37" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N37" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="O37" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P37" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q37" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
-        <v>446</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="H38" s="27" t="s">
-        <v>695</v>
-      </c>
-      <c r="I38" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J38" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K38" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L38" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M38" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N38" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O38" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P38" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q38" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
-        <v>449</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="H39" s="27" t="s">
-        <v>721</v>
-      </c>
-      <c r="I39" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J39" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K39" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L39" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M39" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N39" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O39" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P39" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q39" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
-        <v>450</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="H40" s="27" t="s">
-        <v>722</v>
-      </c>
-      <c r="I40" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J40" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K40" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L40" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M40" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N40" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O40" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P40" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q40" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
-        <v>451</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="H41" s="27" t="s">
-        <v>723</v>
-      </c>
-      <c r="I41" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="J41" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K41" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L41" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M41" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N41" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="O41" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P41" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q41" s="27" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="H42" s="27" t="s">
-        <v>520</v>
-      </c>
-      <c r="I42" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="J42" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K42" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L42" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M42" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N42" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="O42" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P42" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q42" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="H43" s="27" t="s">
-        <v>724</v>
-      </c>
-      <c r="I43" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J43" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K43" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L43" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M43" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N43" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O43" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P43" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q43" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="32" t="s">
-        <v>456</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G44" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="H44" s="27" t="s">
-        <v>727</v>
-      </c>
-      <c r="I44" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J44" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K44" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L44" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M44" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N44" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O44" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P44" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q44" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
-        <v>457</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G45" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="H45" s="27" t="s">
-        <v>728</v>
-      </c>
-      <c r="I45" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J45" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K45" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L45" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M45" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N45" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O45" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P45" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q45" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
-        <v>458</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="H46" s="27" t="s">
-        <v>729</v>
-      </c>
-      <c r="I46" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="J46" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K46" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L46" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M46" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N46" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="O46" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P46" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q46" s="27" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
-        <v>459</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G47" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="H47" s="27" t="s">
-        <v>730</v>
-      </c>
-      <c r="I47" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="J47" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K47" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L47" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M47" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N47" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="O47" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P47" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q47" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="32" t="s">
-        <v>460</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="G48" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="H48" s="27" t="s">
-        <v>731</v>
-      </c>
-      <c r="I48" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J48" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K48" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L48" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M48" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N48" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O48" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P48" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q48" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="32" t="s">
-        <v>463</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G49" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H49" s="27" t="s">
-        <v>734</v>
-      </c>
-      <c r="I49" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J49" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K49" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L49" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M49" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N49" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O49" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P49" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q49" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
-        <v>464</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G50" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H50" s="27" t="s">
-        <v>735</v>
-      </c>
-      <c r="I50" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J50" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K50" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L50" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M50" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N50" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O50" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P50" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q50" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="32" t="s">
-        <v>465</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G51" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H51" s="27" t="s">
-        <v>736</v>
-      </c>
-      <c r="I51" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="J51" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K51" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L51" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M51" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N51" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="O51" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P51" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q51" s="27" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="32" t="s">
-        <v>466</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G52" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H52" s="27" t="s">
-        <v>737</v>
-      </c>
-      <c r="I52" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="J52" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K52" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L52" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M52" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N52" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="O52" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P52" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q52" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>400</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G53" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="H53" s="27" t="s">
-        <v>738</v>
-      </c>
-      <c r="I53" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J53" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K53" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L53" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M53" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N53" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O53" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P53" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q53" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="32" t="s">
-        <v>470</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>428</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>427</v>
-      </c>
-      <c r="H54" s="27" t="s">
-        <v>741</v>
-      </c>
-      <c r="I54" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J54" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K54" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L54" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M54" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N54" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O54" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P54" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q54" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>428</v>
-      </c>
-      <c r="G55" s="28" t="s">
-        <v>427</v>
-      </c>
-      <c r="H55" s="27" t="s">
-        <v>742</v>
-      </c>
-      <c r="I55" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J55" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K55" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L55" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M55" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N55" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O55" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P55" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q55" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
-        <v>472</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>428</v>
-      </c>
-      <c r="G56" s="28" t="s">
-        <v>427</v>
-      </c>
-      <c r="H56" s="27" t="s">
-        <v>743</v>
-      </c>
-      <c r="I56" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="J56" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K56" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L56" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M56" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N56" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="O56" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P56" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q56" s="27" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="32" t="s">
-        <v>473</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>428</v>
-      </c>
-      <c r="G57" s="28" t="s">
-        <v>427</v>
-      </c>
-      <c r="H57" s="27" t="s">
-        <v>744</v>
-      </c>
-      <c r="I57" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="J57" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K57" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L57" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M57" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N57" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="O57" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P57" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q57" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="32" t="s">
-        <v>474</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>428</v>
-      </c>
-      <c r="G58" s="28" t="s">
-        <v>427</v>
-      </c>
-      <c r="H58" s="27" t="s">
-        <v>745</v>
-      </c>
-      <c r="I58" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J58" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K58" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L58" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M58" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N58" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O58" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P58" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q58" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="F59" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G59" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H59" s="27" t="s">
-        <v>748</v>
-      </c>
-      <c r="I59" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J59" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K59" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L59" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M59" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N59" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O59" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P59" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q59" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
-        <v>478</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="E60" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="F60" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G60" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H60" s="27" t="s">
-        <v>749</v>
-      </c>
-      <c r="I60" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J60" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K60" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L60" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M60" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N60" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O60" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P60" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q60" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="F61" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G61" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H61" s="27" t="s">
-        <v>750</v>
-      </c>
-      <c r="I61" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="J61" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K61" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L61" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M61" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N61" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="O61" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P61" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q61" s="27" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="32" t="s">
-        <v>480</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G62" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H62" s="27" t="s">
-        <v>751</v>
-      </c>
-      <c r="I62" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="J62" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K62" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L62" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M62" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N62" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="O62" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P62" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q62" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="E63" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G63" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="H63" s="27" t="s">
-        <v>752</v>
-      </c>
-      <c r="I63" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J63" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K63" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L63" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M63" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N63" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O63" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P63" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q63" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E64" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="F64" s="27" t="s">
-        <v>431</v>
-      </c>
-      <c r="G64" s="28" t="s">
-        <v>430</v>
-      </c>
-      <c r="H64" s="27" t="s">
-        <v>989</v>
-      </c>
-      <c r="I64" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J64" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K64" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L64" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M64" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N64" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O64" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P64" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q64" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="32" t="s">
-        <v>485</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="F65" s="27" t="s">
-        <v>431</v>
-      </c>
-      <c r="G65" s="28" t="s">
-        <v>430</v>
-      </c>
-      <c r="H65" s="27" t="s">
-        <v>990</v>
-      </c>
-      <c r="I65" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J65" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K65" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L65" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M65" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N65" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O65" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P65" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q65" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="32" t="s">
-        <v>486</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E66" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="F66" s="27" t="s">
-        <v>431</v>
-      </c>
-      <c r="G66" s="28" t="s">
-        <v>430</v>
-      </c>
-      <c r="H66" s="27" t="s">
-        <v>991</v>
-      </c>
-      <c r="I66" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="J66" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K66" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L66" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M66" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N66" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="O66" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P66" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q66" s="27" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="32" t="s">
-        <v>487</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="F67" s="27" t="s">
-        <v>431</v>
-      </c>
-      <c r="G67" s="28" t="s">
-        <v>430</v>
-      </c>
-      <c r="H67" s="27" t="s">
-        <v>992</v>
-      </c>
-      <c r="I67" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="J67" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K67" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L67" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M67" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N67" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="O67" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P67" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q67" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E68" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="F68" s="27" t="s">
-        <v>431</v>
-      </c>
-      <c r="G68" s="28" t="s">
-        <v>430</v>
-      </c>
-      <c r="H68" s="27" t="s">
-        <v>758</v>
-      </c>
-      <c r="I68" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J68" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K68" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L68" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M68" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N68" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O68" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P68" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q68" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="32" t="s">
-        <v>491</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="E69" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F69" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G69" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H69" s="27" t="s">
-        <v>762</v>
-      </c>
-      <c r="I69" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J69" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="K69" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="L69" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="M69" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="N69" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O69" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P69" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q69" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="E70" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F70" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G70" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H70" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="I70" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J70" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="K70" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="L70" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="M70" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="N70" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O70" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P70" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q70" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="32" t="s">
-        <v>493</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="E71" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F71" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G71" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H71" s="27" t="s">
-        <v>764</v>
-      </c>
-      <c r="I71" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="J71" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="K71" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="L71" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="M71" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="N71" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="O71" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P71" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q71" s="27" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="32" t="s">
-        <v>494</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="E72" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F72" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G72" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H72" s="27" t="s">
-        <v>765</v>
-      </c>
-      <c r="I72" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="J72" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="K72" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="L72" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="M72" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="N72" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="O72" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P72" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q72" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="E73" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F73" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G73" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="H73" s="27" t="s">
-        <v>766</v>
-      </c>
-      <c r="I73" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J73" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="K73" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="L73" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="M73" s="27" t="s">
-        <v>774</v>
-      </c>
-      <c r="N73" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O73" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P73" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q73" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="32" t="s">
-        <v>498</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="E74" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="F74" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G74" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H74" s="27" t="s">
-        <v>993</v>
-      </c>
-      <c r="I74" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J74" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K74" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L74" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M74" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N74" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O74" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P74" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q74" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="32" t="s">
-        <v>499</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="F75" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G75" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H75" s="27" t="s">
-        <v>994</v>
-      </c>
-      <c r="I75" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J75" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K75" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L75" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M75" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N75" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O75" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P75" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q75" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="32" t="s">
-        <v>500</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="E76" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="F76" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G76" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H76" s="27" t="s">
-        <v>995</v>
-      </c>
-      <c r="I76" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="J76" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K76" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L76" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M76" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N76" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="O76" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P76" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q76" s="27" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="32" t="s">
-        <v>501</v>
-      </c>
-      <c r="B77" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D77" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="E77" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="F77" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G77" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H77" s="27" t="s">
-        <v>996</v>
-      </c>
-      <c r="I77" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="J77" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K77" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L77" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M77" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N77" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="O77" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P77" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q77" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="32" t="s">
-        <v>502</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="F78" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="G78" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="H78" s="27" t="s">
-        <v>997</v>
-      </c>
-      <c r="I78" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J78" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K78" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L78" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M78" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N78" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O78" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P78" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q78" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="32" t="s">
-        <v>796</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>783</v>
-      </c>
-      <c r="C79" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D79" s="29" t="s">
-        <v>780</v>
-      </c>
-      <c r="E79" s="32" t="s">
-        <v>779</v>
-      </c>
-      <c r="F79" s="29" t="s">
-        <v>781</v>
-      </c>
-      <c r="G79" s="28" t="s">
-        <v>817</v>
-      </c>
-      <c r="H79" s="27" t="s">
-        <v>809</v>
-      </c>
-      <c r="I79" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J79" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K79" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L79" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M79" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N79" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O79" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P79" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q79" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="32" t="s">
-        <v>797</v>
-      </c>
-      <c r="B80" s="26" t="s">
-        <v>784</v>
-      </c>
-      <c r="C80" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D80" s="29" t="s">
-        <v>780</v>
-      </c>
-      <c r="E80" s="32" t="s">
-        <v>779</v>
-      </c>
-      <c r="F80" s="29" t="s">
-        <v>781</v>
-      </c>
-      <c r="G80" s="28" t="s">
-        <v>817</v>
-      </c>
-      <c r="H80" s="27" t="s">
-        <v>807</v>
-      </c>
-      <c r="I80" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J80" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K80" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L80" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M80" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N80" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O80" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P80" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q80" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="32" t="s">
-        <v>798</v>
-      </c>
-      <c r="B81" s="26" t="s">
-        <v>785</v>
-      </c>
-      <c r="C81" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D81" s="29" t="s">
-        <v>780</v>
-      </c>
-      <c r="E81" s="32" t="s">
-        <v>779</v>
-      </c>
-      <c r="F81" s="29" t="s">
-        <v>781</v>
-      </c>
-      <c r="G81" s="28" t="s">
-        <v>817</v>
-      </c>
-      <c r="H81" s="27" t="s">
-        <v>811</v>
-      </c>
-      <c r="I81" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J81" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K81" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L81" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M81" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N81" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O81" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P81" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q81" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="32" t="s">
-        <v>801</v>
-      </c>
-      <c r="B82" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="27" t="s">
-        <v>786</v>
-      </c>
-      <c r="D82" s="29" t="s">
-        <v>780</v>
-      </c>
-      <c r="E82" s="32" t="s">
-        <v>779</v>
-      </c>
-      <c r="F82" s="29" t="s">
-        <v>781</v>
-      </c>
-      <c r="G82" s="28" t="s">
-        <v>817</v>
-      </c>
-      <c r="H82" s="27" t="s">
-        <v>808</v>
-      </c>
-      <c r="I82" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J82" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K82" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L82" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M82" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N82" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O82" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P82" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q82" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="32" t="s">
-        <v>802</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="27" t="s">
-        <v>787</v>
-      </c>
-      <c r="D83" s="29" t="s">
-        <v>780</v>
-      </c>
-      <c r="E83" s="32" t="s">
-        <v>779</v>
-      </c>
-      <c r="F83" s="29" t="s">
-        <v>781</v>
-      </c>
-      <c r="G83" s="28" t="s">
-        <v>817</v>
-      </c>
-      <c r="H83" s="27" t="s">
-        <v>806</v>
-      </c>
-      <c r="I83" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J83" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K83" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L83" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M83" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N83" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O83" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P83" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q83" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="32" t="s">
-        <v>803</v>
-      </c>
-      <c r="B84" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="27" t="s">
-        <v>790</v>
-      </c>
-      <c r="D84" s="29" t="s">
-        <v>780</v>
-      </c>
-      <c r="E84" s="32" t="s">
-        <v>779</v>
-      </c>
-      <c r="F84" s="29" t="s">
-        <v>781</v>
-      </c>
-      <c r="G84" s="28" t="s">
-        <v>817</v>
-      </c>
-      <c r="H84" s="27" t="s">
-        <v>812</v>
-      </c>
-      <c r="I84" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="J84" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K84" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L84" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M84" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N84" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="O84" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P84" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q84" s="27" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="32" t="s">
-        <v>804</v>
-      </c>
-      <c r="B85" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" s="27" t="s">
-        <v>791</v>
-      </c>
-      <c r="D85" s="29" t="s">
-        <v>780</v>
-      </c>
-      <c r="E85" s="32" t="s">
-        <v>779</v>
-      </c>
-      <c r="F85" s="29" t="s">
-        <v>781</v>
-      </c>
-      <c r="G85" s="28" t="s">
-        <v>817</v>
-      </c>
-      <c r="H85" s="27" t="s">
-        <v>813</v>
-      </c>
-      <c r="I85" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="J85" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K85" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L85" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M85" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N85" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="O85" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P85" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q85" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="32" t="s">
-        <v>805</v>
-      </c>
-      <c r="B86" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="27" t="s">
-        <v>788</v>
-      </c>
-      <c r="D86" s="29" t="s">
-        <v>780</v>
-      </c>
-      <c r="E86" s="32" t="s">
-        <v>779</v>
-      </c>
-      <c r="F86" s="29" t="s">
-        <v>781</v>
-      </c>
-      <c r="G86" s="28" t="s">
-        <v>817</v>
-      </c>
-      <c r="H86" s="27" t="s">
-        <v>810</v>
-      </c>
-      <c r="I86" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J86" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K86" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L86" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M86" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N86" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O86" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P86" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q86" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="32" t="s">
-        <v>848</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>783</v>
-      </c>
-      <c r="C87" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E87" s="32" t="s">
-        <v>819</v>
-      </c>
-      <c r="F87" s="29" t="s">
-        <v>821</v>
-      </c>
-      <c r="G87" s="28" t="s">
-        <v>818</v>
-      </c>
-      <c r="H87" s="27" t="s">
-        <v>998</v>
-      </c>
-      <c r="I87" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J87" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K87" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L87" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M87" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N87" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O87" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P87" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q87" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="32" t="s">
-        <v>849</v>
-      </c>
-      <c r="B88" s="26" t="s">
-        <v>784</v>
-      </c>
-      <c r="C88" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D88" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E88" s="32" t="s">
-        <v>819</v>
-      </c>
-      <c r="F88" s="29" t="s">
-        <v>821</v>
-      </c>
-      <c r="G88" s="28" t="s">
-        <v>818</v>
-      </c>
-      <c r="H88" s="27" t="s">
-        <v>999</v>
-      </c>
-      <c r="I88" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J88" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K88" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L88" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M88" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N88" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O88" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P88" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q88" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="32" t="s">
-        <v>850</v>
-      </c>
-      <c r="B89" s="26" t="s">
-        <v>785</v>
-      </c>
-      <c r="C89" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D89" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E89" s="32" t="s">
-        <v>819</v>
-      </c>
-      <c r="F89" s="29" t="s">
-        <v>821</v>
-      </c>
-      <c r="G89" s="28" t="s">
-        <v>818</v>
-      </c>
-      <c r="H89" s="27" t="s">
-        <v>1000</v>
-      </c>
-      <c r="I89" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J89" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K89" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L89" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M89" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N89" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O89" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P89" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q89" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="32" t="s">
-        <v>853</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" s="27" t="s">
-        <v>786</v>
-      </c>
-      <c r="D90" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E90" s="32" t="s">
-        <v>819</v>
-      </c>
-      <c r="F90" s="29" t="s">
-        <v>821</v>
-      </c>
-      <c r="G90" s="28" t="s">
-        <v>818</v>
-      </c>
-      <c r="H90" s="27" t="s">
-        <v>826</v>
-      </c>
-      <c r="I90" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J90" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K90" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L90" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M90" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N90" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O90" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P90" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q90" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="32" t="s">
-        <v>854</v>
-      </c>
-      <c r="B91" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="27" t="s">
-        <v>787</v>
-      </c>
-      <c r="D91" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E91" s="32" t="s">
-        <v>819</v>
-      </c>
-      <c r="F91" s="29" t="s">
-        <v>821</v>
-      </c>
-      <c r="G91" s="28" t="s">
-        <v>818</v>
-      </c>
-      <c r="H91" s="27" t="s">
-        <v>827</v>
-      </c>
-      <c r="I91" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J91" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K91" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L91" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M91" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N91" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O91" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P91" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q91" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="32" t="s">
-        <v>855</v>
-      </c>
-      <c r="B92" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="27" t="s">
-        <v>790</v>
-      </c>
-      <c r="D92" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E92" s="32" t="s">
-        <v>819</v>
-      </c>
-      <c r="F92" s="29" t="s">
-        <v>821</v>
-      </c>
-      <c r="G92" s="28" t="s">
-        <v>818</v>
-      </c>
-      <c r="H92" s="27" t="s">
-        <v>828</v>
-      </c>
-      <c r="I92" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="J92" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K92" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L92" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M92" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N92" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="O92" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P92" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q92" s="27" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="32" t="s">
-        <v>856</v>
-      </c>
-      <c r="B93" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C93" s="27" t="s">
-        <v>791</v>
-      </c>
-      <c r="D93" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E93" s="32" t="s">
-        <v>819</v>
-      </c>
-      <c r="F93" s="29" t="s">
-        <v>821</v>
-      </c>
-      <c r="G93" s="28" t="s">
-        <v>818</v>
-      </c>
-      <c r="H93" s="27" t="s">
-        <v>829</v>
-      </c>
-      <c r="I93" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="J93" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K93" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L93" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M93" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N93" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="O93" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P93" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q93" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="32" t="s">
-        <v>857</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="27" t="s">
-        <v>788</v>
-      </c>
-      <c r="D94" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E94" s="32" t="s">
-        <v>819</v>
-      </c>
-      <c r="F94" s="29" t="s">
-        <v>821</v>
-      </c>
-      <c r="G94" s="28" t="s">
-        <v>818</v>
-      </c>
-      <c r="H94" s="27" t="s">
-        <v>830</v>
-      </c>
-      <c r="I94" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J94" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K94" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L94" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M94" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N94" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O94" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P94" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q94" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="32" t="s">
-        <v>859</v>
-      </c>
-      <c r="B95" s="26" t="s">
-        <v>783</v>
-      </c>
-      <c r="C95" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D95" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E95" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F95" s="29" t="s">
-        <v>832</v>
-      </c>
-      <c r="G95" s="28" t="s">
-        <v>833</v>
-      </c>
-      <c r="H95" s="27" t="s">
-        <v>836</v>
-      </c>
-      <c r="I95" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J95" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K95" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L95" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M95" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N95" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O95" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P95" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q95" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="32" t="s">
-        <v>860</v>
-      </c>
-      <c r="B96" s="26" t="s">
-        <v>784</v>
-      </c>
-      <c r="C96" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D96" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E96" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F96" s="29" t="s">
-        <v>832</v>
-      </c>
-      <c r="G96" s="28" t="s">
-        <v>833</v>
-      </c>
-      <c r="H96" s="27" t="s">
-        <v>837</v>
-      </c>
-      <c r="I96" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J96" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K96" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L96" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M96" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N96" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O96" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P96" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q96" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A97" s="32" t="s">
-        <v>861</v>
-      </c>
-      <c r="B97" s="26" t="s">
-        <v>845</v>
-      </c>
-      <c r="C97" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="D97" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E97" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F97" s="29" t="s">
-        <v>832</v>
-      </c>
-      <c r="G97" s="28" t="s">
-        <v>833</v>
-      </c>
-      <c r="H97" s="27" t="s">
-        <v>846</v>
-      </c>
-      <c r="I97" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="J97" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K97" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L97" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M97" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N97" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O97" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P97" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q97" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A98" s="32" t="s">
-        <v>862</v>
-      </c>
-      <c r="B98" s="26" t="s">
-        <v>785</v>
-      </c>
-      <c r="C98" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D98" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E98" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F98" s="29" t="s">
-        <v>832</v>
-      </c>
-      <c r="G98" s="28" t="s">
-        <v>833</v>
-      </c>
-      <c r="H98" s="27" t="s">
-        <v>838</v>
-      </c>
-      <c r="I98" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J98" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K98" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L98" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M98" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N98" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O98" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P98" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q98" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A99" s="32" t="s">
-        <v>865</v>
-      </c>
-      <c r="B99" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="27" t="s">
-        <v>786</v>
-      </c>
-      <c r="D99" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E99" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F99" s="29" t="s">
-        <v>832</v>
-      </c>
-      <c r="G99" s="28" t="s">
-        <v>833</v>
-      </c>
-      <c r="H99" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="I99" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J99" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K99" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L99" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M99" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N99" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O99" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P99" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q99" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A100" s="32" t="s">
-        <v>866</v>
-      </c>
-      <c r="B100" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="27" t="s">
-        <v>787</v>
-      </c>
-      <c r="D100" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E100" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F100" s="29" t="s">
-        <v>832</v>
-      </c>
-      <c r="G100" s="28" t="s">
-        <v>833</v>
-      </c>
-      <c r="H100" s="27" t="s">
-        <v>839</v>
-      </c>
-      <c r="I100" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J100" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K100" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L100" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M100" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N100" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O100" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P100" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q100" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A101" s="32" t="s">
-        <v>867</v>
-      </c>
-      <c r="B101" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="27" t="s">
-        <v>790</v>
-      </c>
-      <c r="D101" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E101" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F101" s="29" t="s">
-        <v>832</v>
-      </c>
-      <c r="G101" s="28" t="s">
-        <v>833</v>
-      </c>
-      <c r="H101" s="27" t="s">
-        <v>840</v>
-      </c>
-      <c r="I101" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="J101" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K101" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L101" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M101" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N101" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="O101" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P101" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q101" s="27" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A102" s="32" t="s">
-        <v>868</v>
-      </c>
-      <c r="B102" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102" s="27" t="s">
-        <v>791</v>
-      </c>
-      <c r="D102" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E102" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F102" s="29" t="s">
-        <v>832</v>
-      </c>
-      <c r="G102" s="28" t="s">
-        <v>833</v>
-      </c>
-      <c r="H102" s="27" t="s">
-        <v>841</v>
-      </c>
-      <c r="I102" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="J102" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K102" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L102" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M102" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N102" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="O102" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P102" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q102" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A103" s="32" t="s">
-        <v>869</v>
-      </c>
-      <c r="B103" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="27" t="s">
-        <v>788</v>
-      </c>
-      <c r="D103" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E103" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F103" s="29" t="s">
-        <v>832</v>
-      </c>
-      <c r="G103" s="28" t="s">
-        <v>833</v>
-      </c>
-      <c r="H103" s="27" t="s">
-        <v>842</v>
-      </c>
-      <c r="I103" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J103" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K103" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L103" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M103" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N103" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O103" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P103" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q103" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A104" s="32" t="s">
-        <v>870</v>
-      </c>
-      <c r="B104" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104" s="27" t="s">
-        <v>843</v>
-      </c>
-      <c r="D104" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E104" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F104" s="29" t="s">
-        <v>832</v>
-      </c>
-      <c r="G104" s="28" t="s">
-        <v>833</v>
-      </c>
-      <c r="H104" s="27" t="s">
-        <v>844</v>
-      </c>
-      <c r="I104" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="J104" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K104" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L104" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M104" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N104" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O104" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P104" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q104" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A105" s="32" t="s">
-        <v>932</v>
-      </c>
-      <c r="B105" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D105" s="27" t="s">
-        <v>875</v>
-      </c>
-      <c r="E105" s="27" t="s">
-        <v>872</v>
-      </c>
-      <c r="F105" s="27" t="s">
-        <v>873</v>
-      </c>
-      <c r="G105" s="28" t="s">
-        <v>874</v>
-      </c>
-      <c r="H105" s="27" t="s">
-        <v>877</v>
-      </c>
-      <c r="I105" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J105" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K105" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L105" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M105" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N105" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O105" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P105" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q105" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A106" s="32" t="s">
-        <v>933</v>
-      </c>
-      <c r="B106" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D106" s="27" t="s">
-        <v>875</v>
-      </c>
-      <c r="E106" s="27" t="s">
-        <v>872</v>
-      </c>
-      <c r="F106" s="27" t="s">
-        <v>873</v>
-      </c>
-      <c r="G106" s="28" t="s">
-        <v>874</v>
-      </c>
-      <c r="H106" s="27" t="s">
-        <v>878</v>
-      </c>
-      <c r="I106" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J106" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K106" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L106" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M106" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N106" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O106" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P106" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q106" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A107" s="32" t="s">
-        <v>934</v>
-      </c>
-      <c r="B107" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D107" s="27" t="s">
-        <v>875</v>
-      </c>
-      <c r="E107" s="27" t="s">
-        <v>872</v>
-      </c>
-      <c r="F107" s="27" t="s">
-        <v>873</v>
-      </c>
-      <c r="G107" s="28" t="s">
-        <v>874</v>
-      </c>
-      <c r="H107" s="27" t="s">
-        <v>879</v>
-      </c>
-      <c r="I107" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J107" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K107" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L107" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M107" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N107" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O107" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P107" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q107" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A108" s="32" t="s">
-        <v>937</v>
-      </c>
-      <c r="B108" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D108" s="27" t="s">
-        <v>883</v>
-      </c>
-      <c r="E108" s="27" t="s">
-        <v>880</v>
-      </c>
-      <c r="F108" s="27" t="s">
-        <v>882</v>
-      </c>
-      <c r="G108" s="28" t="s">
-        <v>881</v>
-      </c>
-      <c r="H108" s="27" t="s">
-        <v>886</v>
-      </c>
-      <c r="I108" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J108" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K108" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L108" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M108" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N108" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O108" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P108" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q108" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A109" s="32" t="s">
-        <v>938</v>
-      </c>
-      <c r="B109" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D109" s="27" t="s">
-        <v>883</v>
-      </c>
-      <c r="E109" s="27" t="s">
-        <v>880</v>
-      </c>
-      <c r="F109" s="27" t="s">
-        <v>882</v>
-      </c>
-      <c r="G109" s="28" t="s">
-        <v>881</v>
-      </c>
-      <c r="H109" s="27" t="s">
-        <v>887</v>
-      </c>
-      <c r="I109" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J109" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K109" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L109" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M109" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N109" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O109" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P109" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q109" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A110" s="32" t="s">
-        <v>939</v>
-      </c>
-      <c r="B110" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D110" s="27" t="s">
-        <v>883</v>
-      </c>
-      <c r="E110" s="27" t="s">
-        <v>880</v>
-      </c>
-      <c r="F110" s="27" t="s">
-        <v>882</v>
-      </c>
-      <c r="G110" s="28" t="s">
-        <v>881</v>
-      </c>
-      <c r="H110" s="27" t="s">
-        <v>888</v>
-      </c>
-      <c r="I110" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="J110" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K110" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L110" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M110" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N110" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="O110" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P110" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q110" s="27" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A111" s="32" t="s">
-        <v>940</v>
-      </c>
-      <c r="B111" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C111" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D111" s="27" t="s">
-        <v>883</v>
-      </c>
-      <c r="E111" s="27" t="s">
-        <v>880</v>
-      </c>
-      <c r="F111" s="27" t="s">
-        <v>882</v>
-      </c>
-      <c r="G111" s="28" t="s">
-        <v>881</v>
-      </c>
-      <c r="H111" s="27" t="s">
-        <v>889</v>
-      </c>
-      <c r="I111" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="J111" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K111" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L111" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M111" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N111" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="O111" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P111" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q111" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A112" s="32" t="s">
-        <v>941</v>
-      </c>
-      <c r="B112" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C112" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D112" s="27" t="s">
-        <v>883</v>
-      </c>
-      <c r="E112" s="27" t="s">
-        <v>880</v>
-      </c>
-      <c r="F112" s="27" t="s">
-        <v>882</v>
-      </c>
-      <c r="G112" s="28" t="s">
-        <v>881</v>
-      </c>
-      <c r="H112" s="27" t="s">
-        <v>890</v>
-      </c>
-      <c r="I112" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J112" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K112" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L112" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M112" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N112" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O112" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P112" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q112" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A113" s="32" t="s">
-        <v>944</v>
-      </c>
-      <c r="B113" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D113" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="E113" s="27" t="s">
-        <v>891</v>
-      </c>
-      <c r="F113" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="G113" s="28" t="s">
-        <v>893</v>
-      </c>
-      <c r="H113" s="27" t="s">
-        <v>708</v>
-      </c>
-      <c r="I113" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J113" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K113" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L113" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M113" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N113" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O113" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P113" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q113" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A114" s="32" t="s">
-        <v>945</v>
-      </c>
-      <c r="B114" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D114" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="E114" s="27" t="s">
-        <v>891</v>
-      </c>
-      <c r="F114" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="G114" s="28" t="s">
-        <v>893</v>
-      </c>
-      <c r="H114" s="27" t="s">
-        <v>709</v>
-      </c>
-      <c r="I114" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J114" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K114" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L114" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M114" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N114" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O114" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P114" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q114" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="32" t="s">
-        <v>946</v>
-      </c>
-      <c r="B115" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D115" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="E115" s="27" t="s">
-        <v>891</v>
-      </c>
-      <c r="F115" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="G115" s="28" t="s">
-        <v>893</v>
-      </c>
-      <c r="H115" s="27" t="s">
-        <v>710</v>
-      </c>
-      <c r="I115" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="J115" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K115" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L115" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M115" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N115" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="O115" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P115" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q115" s="27" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A116" s="32" t="s">
-        <v>947</v>
-      </c>
-      <c r="B116" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C116" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D116" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="E116" s="27" t="s">
-        <v>891</v>
-      </c>
-      <c r="F116" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="G116" s="28" t="s">
-        <v>893</v>
-      </c>
-      <c r="H116" s="27" t="s">
-        <v>711</v>
-      </c>
-      <c r="I116" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="J116" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K116" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L116" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M116" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N116" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="O116" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P116" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q116" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A117" s="32" t="s">
-        <v>948</v>
-      </c>
-      <c r="B117" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D117" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="E117" s="27" t="s">
-        <v>891</v>
-      </c>
-      <c r="F117" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="G117" s="28" t="s">
-        <v>893</v>
-      </c>
-      <c r="H117" s="27" t="s">
-        <v>712</v>
-      </c>
-      <c r="I117" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J117" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K117" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L117" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M117" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N117" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O117" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P117" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q117" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="32" t="s">
-        <v>973</v>
-      </c>
-      <c r="B118" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D118" s="27" t="s">
-        <v>963</v>
-      </c>
-      <c r="E118" s="27" t="s">
-        <v>961</v>
-      </c>
-      <c r="F118" s="27" t="s">
-        <v>960</v>
-      </c>
-      <c r="G118" s="28" t="s">
-        <v>962</v>
-      </c>
-      <c r="H118" s="27" t="s">
-        <v>966</v>
-      </c>
-      <c r="I118" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="J118" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K118" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L118" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M118" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N118" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O118" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P118" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q118" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="32" t="s">
-        <v>974</v>
-      </c>
-      <c r="B119" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D119" s="27" t="s">
-        <v>963</v>
-      </c>
-      <c r="E119" s="27" t="s">
-        <v>961</v>
-      </c>
-      <c r="F119" s="27" t="s">
-        <v>960</v>
-      </c>
-      <c r="G119" s="28" t="s">
-        <v>962</v>
-      </c>
-      <c r="H119" s="27" t="s">
-        <v>967</v>
-      </c>
-      <c r="I119" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J119" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K119" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L119" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M119" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N119" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O119" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P119" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q119" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120" s="32" t="s">
-        <v>975</v>
-      </c>
-      <c r="B120" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D120" s="27" t="s">
-        <v>963</v>
-      </c>
-      <c r="E120" s="27" t="s">
-        <v>961</v>
-      </c>
-      <c r="F120" s="27" t="s">
-        <v>960</v>
-      </c>
-      <c r="G120" s="28" t="s">
-        <v>962</v>
-      </c>
-      <c r="H120" s="27" t="s">
-        <v>968</v>
-      </c>
-      <c r="I120" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="J120" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K120" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L120" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M120" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N120" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="O120" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P120" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q120" s="27" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" s="32" t="s">
-        <v>976</v>
-      </c>
-      <c r="B121" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C121" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D121" s="27" t="s">
-        <v>963</v>
-      </c>
-      <c r="E121" s="27" t="s">
-        <v>961</v>
-      </c>
-      <c r="F121" s="27" t="s">
-        <v>960</v>
-      </c>
-      <c r="G121" s="28" t="s">
-        <v>962</v>
-      </c>
-      <c r="H121" s="27" t="s">
-        <v>969</v>
-      </c>
-      <c r="I121" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="J121" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K121" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L121" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M121" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N121" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="O121" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P121" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q121" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A122" s="32" t="s">
-        <v>977</v>
-      </c>
-      <c r="B122" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D122" s="27" t="s">
-        <v>963</v>
-      </c>
-      <c r="E122" s="27" t="s">
-        <v>961</v>
-      </c>
-      <c r="F122" s="27" t="s">
-        <v>960</v>
-      </c>
-      <c r="G122" s="28" t="s">
-        <v>962</v>
-      </c>
-      <c r="H122" s="27" t="s">
-        <v>970</v>
-      </c>
-      <c r="I122" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J122" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K122" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L122" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M122" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N122" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O122" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P122" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q122" s="27" t="s">
         <v>43</v>
       </c>
     </row>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022_MS_PlanDetails_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022_MS_PlanDetails_PRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mratdd_New\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EB9FF4-BA15-465D-9175-1B88DD45FB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B135CFC0-B4EF-413F-8612-67E9913E8F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Unique list" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15344" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15293" uniqueCount="1022">
   <si>
     <t>name</t>
   </si>
@@ -3133,6 +3133,21 @@
   </si>
   <si>
     <t>209.25*</t>
+  </si>
+  <si>
+    <t>220.25*</t>
+  </si>
+  <si>
+    <t>175.00*</t>
+  </si>
+  <si>
+    <t>134.25*</t>
+  </si>
+  <si>
+    <t>125.50*</t>
+  </si>
+  <si>
+    <t>64.75*</t>
   </si>
 </sst>
 </file>
@@ -3430,10 +3445,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23508,8 +23519,8 @@
   <dimension ref="A1:R242"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H160" sqref="H160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32090,7 +32101,7 @@
         <v>506</v>
       </c>
       <c r="H159" s="27" t="s">
-        <v>727</v>
+        <v>1017</v>
       </c>
       <c r="I159" s="28" t="s">
         <v>176</v>
@@ -32144,7 +32155,7 @@
         <v>506</v>
       </c>
       <c r="H160" s="27" t="s">
-        <v>728</v>
+        <v>1018</v>
       </c>
       <c r="I160" s="28" t="s">
         <v>957</v>
@@ -32198,7 +32209,7 @@
         <v>506</v>
       </c>
       <c r="H161" s="27" t="s">
-        <v>729</v>
+        <v>1021</v>
       </c>
       <c r="I161" s="28" t="s">
         <v>958</v>
@@ -32252,7 +32263,7 @@
         <v>506</v>
       </c>
       <c r="H162" s="27" t="s">
-        <v>730</v>
+        <v>1020</v>
       </c>
       <c r="I162" s="28" t="s">
         <v>959</v>
@@ -32306,7 +32317,7 @@
         <v>506</v>
       </c>
       <c r="H163" s="27" t="s">
-        <v>731</v>
+        <v>1019</v>
       </c>
       <c r="I163" s="28" t="s">
         <v>179</v>
@@ -42100,9 +42111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B7E196-737A-4C1D-A863-84EBD325380C}">
   <dimension ref="A1:R142"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A138" sqref="A138"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45283,7 +45294,7 @@
         <v>506</v>
       </c>
       <c r="H59" s="27" t="s">
-        <v>727</v>
+        <v>1017</v>
       </c>
       <c r="I59" s="28" t="s">
         <v>176</v>
@@ -45337,7 +45348,7 @@
         <v>506</v>
       </c>
       <c r="H60" s="27" t="s">
-        <v>728</v>
+        <v>1018</v>
       </c>
       <c r="I60" s="28" t="s">
         <v>957</v>
@@ -45391,7 +45402,7 @@
         <v>506</v>
       </c>
       <c r="H61" s="27" t="s">
-        <v>729</v>
+        <v>1021</v>
       </c>
       <c r="I61" s="28" t="s">
         <v>958</v>
@@ -45445,7 +45456,7 @@
         <v>506</v>
       </c>
       <c r="H62" s="27" t="s">
-        <v>730</v>
+        <v>1020</v>
       </c>
       <c r="I62" s="28" t="s">
         <v>959</v>
@@ -45499,7 +45510,7 @@
         <v>506</v>
       </c>
       <c r="H63" s="27" t="s">
-        <v>731</v>
+        <v>1019</v>
       </c>
       <c r="I63" s="28" t="s">
         <v>179</v>
@@ -52153,9 +52164,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -52239,13 +52250,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>892</v>
@@ -52260,10 +52271,10 @@
         <v>893</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>957</v>
+        <v>179</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>192</v>
@@ -52281,7 +52292,7 @@
         <v>979</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P2" s="27" t="s">
         <v>184</v>
@@ -52292,172 +52303,172 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>946</v>
+        <v>973</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>892</v>
+        <v>963</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>891</v>
+        <v>961</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>892</v>
+        <v>960</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>710</v>
+        <v>966</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>958</v>
+        <v>153</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>980</v>
+        <v>45</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="P3" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>982</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>947</v>
+        <v>974</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>892</v>
+        <v>963</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>891</v>
+        <v>961</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>892</v>
+        <v>960</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>711</v>
+        <v>967</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P4" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>983</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>948</v>
+        <v>975</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>892</v>
+        <v>963</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>891</v>
+        <v>961</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>892</v>
+        <v>960</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>893</v>
+        <v>962</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>712</v>
+        <v>968</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>179</v>
+        <v>958</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P5" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>43</v>
+        <v>982</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>963</v>
@@ -52472,10 +52483,10 @@
         <v>962</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>153</v>
+        <v>959</v>
       </c>
       <c r="J6" s="27" t="s">
         <v>56</v>
@@ -52490,27 +52501,27 @@
         <v>42</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>45</v>
+        <v>981</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q6" s="27" t="s">
-        <v>43</v>
+        <v>983</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>963</v>
@@ -52525,10 +52536,10 @@
         <v>962</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>957</v>
+        <v>179</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>56</v>
@@ -52546,7 +52557,7 @@
         <v>979</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P7" s="27" t="s">
         <v>184</v>
@@ -52557,172 +52568,172 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>975</v>
+        <v>1006</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>963</v>
+        <v>1002</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>961</v>
+        <v>1003</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>960</v>
+        <v>1002</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>962</v>
+        <v>1001</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>968</v>
+        <v>1013</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>958</v>
+        <v>176</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M8" s="27" t="s">
         <v>42</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>980</v>
+        <v>45</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="P8" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q8" s="27" t="s">
-        <v>982</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>976</v>
+        <v>1007</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>963</v>
+        <v>1002</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>961</v>
+        <v>1003</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>960</v>
+        <v>1002</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>962</v>
+        <v>1001</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>969</v>
+        <v>1014</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M9" s="27" t="s">
         <v>42</v>
       </c>
       <c r="N9" s="27" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P9" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q9" s="27" t="s">
-        <v>983</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>977</v>
+        <v>1008</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>963</v>
+        <v>1002</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>961</v>
+        <v>1003</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>960</v>
+        <v>1002</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>962</v>
+        <v>1001</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>970</v>
+        <v>1015</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>179</v>
+        <v>958</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M10" s="27" t="s">
         <v>42</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P10" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q10" s="27" t="s">
-        <v>43</v>
+        <v>982</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>1002</v>
@@ -52737,10 +52748,10 @@
         <v>1001</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>1013</v>
+        <v>690</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>176</v>
+        <v>959</v>
       </c>
       <c r="J11" s="27" t="s">
         <v>192</v>
@@ -52755,27 +52766,27 @@
         <v>42</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>45</v>
+        <v>981</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="P11" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q11" s="27" t="s">
-        <v>43</v>
+        <v>983</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>1002</v>
@@ -52790,10 +52801,10 @@
         <v>1001</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>957</v>
+        <v>179</v>
       </c>
       <c r="J12" s="27" t="s">
         <v>192</v>
@@ -52811,171 +52822,12 @@
         <v>979</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P12" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q12" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M13" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="O13" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P13" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q13" s="27" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>690</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="O14" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P14" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q14" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M15" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O15" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q15" s="27" t="s">
         <v>43</v>
       </c>
     </row>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022_MS_PlanDetails_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022_MS_PlanDetails_PRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mratdd_New\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B135CFC0-B4EF-413F-8612-67E9913E8F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1E9714-5FA3-4E0E-AAD9-1AB32A3F9EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Unique list" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15293" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15820" uniqueCount="1022">
   <si>
     <t>name</t>
   </si>
@@ -36620,8 +36620,8 @@
   <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42111,9 +42111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B7E196-737A-4C1D-A863-84EBD325380C}">
   <dimension ref="A1:R142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102:Q142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52164,9 +52164,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -52250,49 +52250,49 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>948</v>
+        <v>210</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>892</v>
+        <v>60</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>891</v>
+        <v>115</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>892</v>
+        <v>61</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>893</v>
+        <v>155</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>712</v>
+        <v>529</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>979</v>
+        <v>45</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="P2" s="27" t="s">
         <v>184</v>
@@ -52300,46 +52300,47 @@
       <c r="Q2" s="27" t="s">
         <v>43</v>
       </c>
+      <c r="R2" s="32"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>973</v>
+        <v>848</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>7</v>
+        <v>783</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>963</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>961</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>960</v>
+      <c r="D3" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>819</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>821</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>962</v>
+        <v>818</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>966</v>
+        <v>998</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N3" s="27" t="s">
         <v>45</v>
@@ -52356,43 +52357,43 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>974</v>
+        <v>849</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>8</v>
+        <v>784</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>963</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>961</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>960</v>
+      <c r="D4" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>819</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>821</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>962</v>
+        <v>818</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>967</v>
+        <v>999</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>957</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N4" s="27" t="s">
         <v>979</v>
@@ -52409,84 +52410,84 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>975</v>
+        <v>850</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>9</v>
+        <v>785</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>963</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>961</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>960</v>
+        <v>144</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>819</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>821</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>962</v>
+        <v>818</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>968</v>
+        <v>1000</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>958</v>
+        <v>179</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P5" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>982</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>976</v>
+        <v>853</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>963</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>961</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>960</v>
+        <v>786</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>819</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>821</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>962</v>
+        <v>818</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>969</v>
+        <v>826</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>959</v>
+        <v>176</v>
       </c>
       <c r="J6" s="27" t="s">
         <v>56</v>
@@ -52501,45 +52502,45 @@
         <v>42</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>981</v>
+        <v>45</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q6" s="27" t="s">
-        <v>983</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>977</v>
+        <v>854</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>963</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>961</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>960</v>
+        <v>787</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>819</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>821</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>962</v>
+        <v>818</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>970</v>
+        <v>827</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>179</v>
+        <v>957</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>56</v>
@@ -52557,7 +52558,7 @@
         <v>979</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P7" s="27" t="s">
         <v>184</v>
@@ -52568,190 +52569,190 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>1006</v>
+        <v>855</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>1002</v>
+        <v>790</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>819</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>821</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>1001</v>
+        <v>818</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>1013</v>
+        <v>828</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>176</v>
+        <v>958</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M8" s="27" t="s">
         <v>42</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>45</v>
+        <v>980</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="P8" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q8" s="27" t="s">
-        <v>43</v>
+        <v>982</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>1007</v>
+        <v>856</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>1002</v>
+        <v>791</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>819</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>821</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>1001</v>
+        <v>818</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>1014</v>
+        <v>829</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M9" s="27" t="s">
         <v>42</v>
       </c>
       <c r="N9" s="27" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P9" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q9" s="27" t="s">
-        <v>43</v>
+        <v>983</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>1008</v>
+        <v>857</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>1002</v>
+        <v>788</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>819</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>821</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>1001</v>
+        <v>818</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>1015</v>
+        <v>830</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>958</v>
+        <v>179</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M10" s="27" t="s">
         <v>42</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P10" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q10" s="27" t="s">
-        <v>982</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>1009</v>
+        <v>859</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>10</v>
+        <v>783</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>1002</v>
+        <v>150</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>1001</v>
+        <v>833</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>690</v>
+        <v>836</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>959</v>
+        <v>176</v>
       </c>
       <c r="J11" s="27" t="s">
         <v>192</v>
@@ -52763,48 +52764,48 @@
         <v>192</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>981</v>
+        <v>45</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="P11" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q11" s="27" t="s">
-        <v>983</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>1010</v>
+        <v>860</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>11</v>
+        <v>784</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>1002</v>
+        <v>151</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>1001</v>
+        <v>833</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>1016</v>
+        <v>837</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>179</v>
+        <v>957</v>
       </c>
       <c r="J12" s="27" t="s">
         <v>192</v>
@@ -52816,18 +52817,1661 @@
         <v>192</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N12" s="27" t="s">
         <v>979</v>
       </c>
       <c r="O12" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q12" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>861</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>845</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>832</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>833</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>846</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O13" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="P13" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>862</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>785</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>832</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>833</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>838</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N14" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O14" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="P12" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q12" s="27" t="s">
+      <c r="P14" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q14" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>865</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>786</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>832</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>833</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>866</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>787</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>832</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>833</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>839</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>957</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O16" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q16" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>867</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>790</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>832</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>833</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>840</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>958</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="27" t="s">
+        <v>980</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P17" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q17" s="27" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>868</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>791</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>832</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>833</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>841</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>959</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="27" t="s">
+        <v>981</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P18" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>869</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>788</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>832</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>833</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>842</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>870</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>843</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>832</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>833</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>844</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="P20" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q20" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>932</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>875</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>872</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>873</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>874</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>877</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>933</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>875</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>872</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>873</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>874</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>878</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>957</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O22" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q22" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>934</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>875</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>872</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>873</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>874</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>879</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O23" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q23" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>937</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>883</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>880</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>882</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>881</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>886</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N24" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="P24" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q24" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="32" t="s">
+        <v>938</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>883</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>880</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>882</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>881</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>887</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>957</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N25" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O25" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="P25" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q25" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
+        <v>939</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>883</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>880</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>882</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>881</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>888</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>958</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L26" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N26" s="27" t="s">
+        <v>980</v>
+      </c>
+      <c r="O26" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P26" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q26" s="27" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="32" t="s">
+        <v>940</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>883</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>880</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>882</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>881</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>889</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>959</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N27" s="27" t="s">
+        <v>981</v>
+      </c>
+      <c r="O27" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P27" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q27" s="27" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
+        <v>941</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>883</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>880</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>882</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>881</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>890</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N28" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O28" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P28" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q28" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
+        <v>944</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>891</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>893</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>708</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L29" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M29" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N29" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="P29" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q29" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
+        <v>945</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>891</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>893</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>709</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>957</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L30" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M30" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N30" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O30" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="P30" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q30" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="32" t="s">
+        <v>946</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>891</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>893</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>710</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>958</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L31" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M31" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N31" s="27" t="s">
+        <v>980</v>
+      </c>
+      <c r="O31" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P31" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q31" s="27" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
+        <v>947</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>891</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>893</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>711</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>959</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L32" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M32" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N32" s="27" t="s">
+        <v>981</v>
+      </c>
+      <c r="O32" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P32" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q32" s="27" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
+        <v>948</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>891</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>893</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>712</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L33" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M33" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N33" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O33" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P33" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q33" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>963</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>961</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>960</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>962</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>966</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="J34" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L34" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M34" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N34" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O34" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="P34" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q34" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="32" t="s">
+        <v>974</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>963</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>961</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>960</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>962</v>
+      </c>
+      <c r="H35" s="27" t="s">
+        <v>967</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>957</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N35" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O35" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="P35" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q35" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>963</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>961</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>960</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>962</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>968</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>958</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L36" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M36" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N36" s="27" t="s">
+        <v>980</v>
+      </c>
+      <c r="O36" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P36" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q36" s="27" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="32" t="s">
+        <v>976</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>963</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>961</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>960</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>962</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>969</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>959</v>
+      </c>
+      <c r="J37" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K37" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L37" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M37" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N37" s="27" t="s">
+        <v>981</v>
+      </c>
+      <c r="O37" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P37" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q37" s="27" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="32" t="s">
+        <v>977</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>963</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>961</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>960</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>962</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>970</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K38" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L38" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M38" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N38" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O38" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P38" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q38" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="32" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J39" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K39" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L39" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M39" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N39" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O39" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="P39" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q39" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="32" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>957</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K40" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L40" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M40" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N40" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O40" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="P40" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q40" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="32" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>958</v>
+      </c>
+      <c r="J41" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K41" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L41" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M41" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N41" s="27" t="s">
+        <v>980</v>
+      </c>
+      <c r="O41" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P41" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q41" s="27" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="32" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>690</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>959</v>
+      </c>
+      <c r="J42" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K42" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L42" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M42" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N42" s="27" t="s">
+        <v>981</v>
+      </c>
+      <c r="O42" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P42" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q42" s="27" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="32" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G43" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K43" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L43" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M43" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N43" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O43" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P43" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q43" s="27" t="s">
         <v>43</v>
       </c>
     </row>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022_MS_PlanDetails_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022_MS_PlanDetails_PRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mratdd_New\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1E9714-5FA3-4E0E-AAD9-1AB32A3F9EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F138A8-7CFE-48B4-B37F-8D34A5D25F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
@@ -22,8 +22,11 @@
     <sheet name="PREBENEFITS_UAT" sheetId="11" r:id="rId7"/>
     <sheet name="PREBENEFITS_Temp" sheetId="10" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PREBENEFITS!$A$1:$R$237</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PREBENEFITS!$A$1:$S$242</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PREBENEFITS_Source!$A$1:$R$337</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">PREBENEFITS_UAT!$B$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PREBENEFITS1!$A$1:$R$101</definedName>
@@ -49,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15820" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16161" uniqueCount="1023">
   <si>
     <t>name</t>
   </si>
@@ -3148,6 +3151,9 @@
   </si>
   <si>
     <t>64.75*</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -3316,7 +3322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3339,12 +3345,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -3429,6 +3446,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3445,6 +3465,915 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="PREPlanBenefitsResults"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>MS3</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>MS4</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>MS5</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>MS6</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>MS7</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>MS10</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>MS11</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>MS12</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>MS13</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>MS14</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>MS17</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>MS18</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>MS19</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>MS20</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>MS21</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>MS24</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>MS25</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>MS26</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>MS27</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>MS28</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>MS31</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>MS32</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>MS33</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>MS34</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>MS35</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>MS38</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>MS39</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>MS40</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>MS41</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>MS42</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>MS45</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>MS46</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>MS47</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>MS48</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>MS49</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>MS52</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>MS53</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>MS54</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>MS55</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>MS56</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>MS59</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>MS60</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>MS61</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>MS62</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>MS63</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>MS66</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>MS67</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>MS68</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>MS69</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>MS70</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>MS73</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>MS74</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>MS75</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>MS76</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>MS77</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>MS80</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>MS81</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>MS82</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>MS83</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>MS84</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>MS87</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>MS88</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>MS89</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>MS90</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>MS91</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>MS94</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>MS95</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>MS96</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>MS97</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>MS98</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>MS101</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>MS102</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>MS103</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>MS104</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>MS105</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>MS108</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>MS109</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>MS110</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>MS111</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>MS144</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>MS145</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>MS146</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>MS147</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>MS150</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>MS151</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>MS152</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>MS153</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>MS154</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v>MS157</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v>MS158</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v>MS159</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>MS160</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v>MS161</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>MS164</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>MS165</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v>MS166</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98" t="str">
+            <v>MS167</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v>MS168</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100" t="str">
+            <v>MS171</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v>MS172</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102" t="str">
+            <v>MS173</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
+            <v>MS174</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104" t="str">
+            <v>MS175</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
+            <v>MS178</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106" t="str">
+            <v>MS179</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107" t="str">
+            <v>MS180</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108" t="str">
+            <v>MS181</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109" t="str">
+            <v>MS182</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110" t="str">
+            <v>MS183</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111" t="str">
+            <v>MS186</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112" t="str">
+            <v>MS187</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113" t="str">
+            <v>MS188</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114" t="str">
+            <v>MS189</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115" t="str">
+            <v>MS190</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116" t="str">
+            <v>MS191</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117" t="str">
+            <v>MS194</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118" t="str">
+            <v>MS195</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119" t="str">
+            <v>MS196</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120" t="str">
+            <v>MS197</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121" t="str">
+            <v>MS198</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122" t="str">
+            <v>MS201</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
+            <v>MS202</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
+            <v>MS203</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
+            <v>MS204</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126" t="str">
+            <v>MS205</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127" t="str">
+            <v>MS208</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128" t="str">
+            <v>MS209</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129" t="str">
+            <v>MS210</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130" t="str">
+            <v>MS211</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131" t="str">
+            <v>MS212</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132" t="str">
+            <v>MS215</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133" t="str">
+            <v>MS216</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134" t="str">
+            <v>MS217</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135" t="str">
+            <v>MS218</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="A136" t="str">
+            <v>MS219</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137" t="str">
+            <v>MS222</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="A138" t="str">
+            <v>MS223</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="A139" t="str">
+            <v>MS224</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="A140" t="str">
+            <v>MS225</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="A141" t="str">
+            <v>MS226</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="A142" t="str">
+            <v>MS229</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="A143" t="str">
+            <v>MS230</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="A144" t="str">
+            <v>MS231</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="A145" t="str">
+            <v>MS232</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="A146" t="str">
+            <v>MS233</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="A147" t="str">
+            <v>MS236</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="A148" t="str">
+            <v>MS237</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="A149" t="str">
+            <v>MS238</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="A150" t="str">
+            <v>MS239</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="A151" t="str">
+            <v>MS240</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="A152" t="str">
+            <v>MS243</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="A153" t="str">
+            <v>MS244</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="A154" t="str">
+            <v>MS245</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="A155" t="str">
+            <v>MS246</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="A156" t="str">
+            <v>MS247</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="A157" t="str">
+            <v>MS250</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="A158" t="str">
+            <v>MS251</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="A159" t="str">
+            <v>MS252</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160" t="str">
+            <v>MS253</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="A161" t="str">
+            <v>MS254</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="A162" t="str">
+            <v>MS257</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="A163" t="str">
+            <v>MS258</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="A164" t="str">
+            <v>MS259</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="A165" t="str">
+            <v>MS260</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="A166" t="str">
+            <v>MS261</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="A167" t="str">
+            <v>MS264</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="A168" t="str">
+            <v>MS265</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="A169" t="str">
+            <v>MS266</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="A170" t="str">
+            <v>MS267</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="A171" t="str">
+            <v>MS268</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="A172" t="str">
+            <v>MS270</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="A173" t="str">
+            <v>MS271</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="A174" t="str">
+            <v>MS272</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="A175" t="str">
+            <v>MS275</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="A176" t="str">
+            <v>MS276</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="A177" t="str">
+            <v>MS277</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="A178" t="str">
+            <v>MS278</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="A179" t="str">
+            <v>MS279</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="A180" t="str">
+            <v>MS281</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23516,11 +24445,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A58EE3-C3E7-4BCE-95F4-8F8F3E204C34}">
-  <dimension ref="A1:R242"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:S242"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H160" sqref="H160"/>
+    <sheetView topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81:Q242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23544,7 +24474,7 @@
     <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>193</v>
       </c>
@@ -23599,8 +24529,11 @@
       <c r="R1" s="24" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="34" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>196</v>
       </c>
@@ -23653,8 +24586,12 @@
         <v>43</v>
       </c>
       <c r="R2" s="32"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" t="str">
+        <f>VLOOKUP(A2,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>197</v>
       </c>
@@ -23707,8 +24644,12 @@
         <v>43</v>
       </c>
       <c r="R3" s="32"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" t="str">
+        <f>VLOOKUP(A3,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>198</v>
       </c>
@@ -23761,8 +24702,12 @@
         <v>982</v>
       </c>
       <c r="R4" s="32"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" t="str">
+        <f>VLOOKUP(A4,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>199</v>
       </c>
@@ -23815,8 +24760,12 @@
         <v>983</v>
       </c>
       <c r="R5" s="32"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" t="str">
+        <f>VLOOKUP(A5,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>200</v>
       </c>
@@ -23869,8 +24818,12 @@
         <v>43</v>
       </c>
       <c r="R6" s="32"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" t="str">
+        <f>VLOOKUP(A6,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>203</v>
       </c>
@@ -23923,8 +24876,12 @@
         <v>43</v>
       </c>
       <c r="R7" s="32"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" t="str">
+        <f>VLOOKUP(A7,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>204</v>
       </c>
@@ -23977,8 +24934,12 @@
         <v>43</v>
       </c>
       <c r="R8" s="32"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" t="str">
+        <f>VLOOKUP(A8,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>205</v>
       </c>
@@ -24031,8 +24992,12 @@
         <v>982</v>
       </c>
       <c r="R9" s="32"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" t="str">
+        <f>VLOOKUP(A9,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>206</v>
       </c>
@@ -24085,8 +25050,12 @@
         <v>983</v>
       </c>
       <c r="R10" s="32"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" t="str">
+        <f>VLOOKUP(A10,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>207</v>
       </c>
@@ -24139,8 +25108,12 @@
         <v>43</v>
       </c>
       <c r="R11" s="32"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" t="str">
+        <f>VLOOKUP(A11,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>210</v>
       </c>
@@ -24193,8 +25166,12 @@
         <v>43</v>
       </c>
       <c r="R12" s="32"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" t="str">
+        <f>VLOOKUP(A12,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>211</v>
       </c>
@@ -24247,8 +25224,12 @@
         <v>43</v>
       </c>
       <c r="R13" s="32"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" t="str">
+        <f>VLOOKUP(A13,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>212</v>
       </c>
@@ -24301,8 +25282,12 @@
         <v>982</v>
       </c>
       <c r="R14" s="32"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" t="str">
+        <f>VLOOKUP(A14,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>213</v>
       </c>
@@ -24355,8 +25340,12 @@
         <v>983</v>
       </c>
       <c r="R15" s="32"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" t="str">
+        <f>VLOOKUP(A15,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>214</v>
       </c>
@@ -24409,8 +25398,12 @@
         <v>43</v>
       </c>
       <c r="R16" s="32"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" t="str">
+        <f>VLOOKUP(A16,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>217</v>
       </c>
@@ -24463,8 +25456,12 @@
         <v>43</v>
       </c>
       <c r="R17" s="32"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" t="str">
+        <f>VLOOKUP(A17,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>218</v>
       </c>
@@ -24517,8 +25514,12 @@
         <v>43</v>
       </c>
       <c r="R18" s="32"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" t="str">
+        <f>VLOOKUP(A18,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>219</v>
       </c>
@@ -24571,8 +25572,12 @@
         <v>982</v>
       </c>
       <c r="R19" s="32"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" t="str">
+        <f>VLOOKUP(A19,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>220</v>
       </c>
@@ -24625,8 +25630,12 @@
         <v>983</v>
       </c>
       <c r="R20" s="32"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" t="str">
+        <f>VLOOKUP(A20,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>221</v>
       </c>
@@ -24679,8 +25688,12 @@
         <v>43</v>
       </c>
       <c r="R21" s="32"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" t="str">
+        <f>VLOOKUP(A21,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>224</v>
       </c>
@@ -24733,8 +25746,12 @@
         <v>43</v>
       </c>
       <c r="R22" s="32"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" t="str">
+        <f>VLOOKUP(A22,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>225</v>
       </c>
@@ -24787,8 +25804,12 @@
         <v>43</v>
       </c>
       <c r="R23" s="32"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" t="str">
+        <f>VLOOKUP(A23,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>226</v>
       </c>
@@ -24841,8 +25862,12 @@
         <v>982</v>
       </c>
       <c r="R24" s="32"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" t="str">
+        <f>VLOOKUP(A24,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>227</v>
       </c>
@@ -24895,8 +25920,12 @@
         <v>983</v>
       </c>
       <c r="R25" s="32"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" t="str">
+        <f>VLOOKUP(A25,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>228</v>
       </c>
@@ -24949,8 +25978,12 @@
         <v>43</v>
       </c>
       <c r="R26" s="32"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" t="str">
+        <f>VLOOKUP(A26,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>231</v>
       </c>
@@ -25003,8 +26036,12 @@
         <v>43</v>
       </c>
       <c r="R27" s="32"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" t="str">
+        <f>VLOOKUP(A27,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>232</v>
       </c>
@@ -25057,8 +26094,12 @@
         <v>43</v>
       </c>
       <c r="R28" s="32"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28" t="str">
+        <f>VLOOKUP(A28,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>233</v>
       </c>
@@ -25111,8 +26152,12 @@
         <v>982</v>
       </c>
       <c r="R29" s="32"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29" t="str">
+        <f>VLOOKUP(A29,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>234</v>
       </c>
@@ -25165,8 +26210,12 @@
         <v>983</v>
       </c>
       <c r="R30" s="32"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30" t="str">
+        <f>VLOOKUP(A30,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>235</v>
       </c>
@@ -25219,8 +26268,12 @@
         <v>43</v>
       </c>
       <c r="R31" s="32"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31" t="str">
+        <f>VLOOKUP(A31,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>238</v>
       </c>
@@ -25273,8 +26326,12 @@
         <v>43</v>
       </c>
       <c r="R32" s="32"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32" t="str">
+        <f>VLOOKUP(A32,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>239</v>
       </c>
@@ -25327,8 +26384,12 @@
         <v>43</v>
       </c>
       <c r="R33" s="32"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33" t="str">
+        <f>VLOOKUP(A33,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>240</v>
       </c>
@@ -25381,8 +26442,12 @@
         <v>982</v>
       </c>
       <c r="R34" s="32"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34" t="str">
+        <f>VLOOKUP(A34,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>241</v>
       </c>
@@ -25435,8 +26500,12 @@
         <v>983</v>
       </c>
       <c r="R35" s="32"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35" t="str">
+        <f>VLOOKUP(A35,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>242</v>
       </c>
@@ -25489,8 +26558,12 @@
         <v>43</v>
       </c>
       <c r="R36" s="32"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36" t="str">
+        <f>VLOOKUP(A36,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>245</v>
       </c>
@@ -25543,8 +26616,12 @@
         <v>43</v>
       </c>
       <c r="R37" s="32"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37" t="str">
+        <f>VLOOKUP(A37,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>246</v>
       </c>
@@ -25597,8 +26674,12 @@
         <v>43</v>
       </c>
       <c r="R38" s="32"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38" t="str">
+        <f>VLOOKUP(A38,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>247</v>
       </c>
@@ -25651,8 +26732,12 @@
         <v>982</v>
       </c>
       <c r="R39" s="32"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39" t="str">
+        <f>VLOOKUP(A39,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>248</v>
       </c>
@@ -25705,8 +26790,12 @@
         <v>983</v>
       </c>
       <c r="R40" s="32"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40" t="str">
+        <f>VLOOKUP(A40,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>249</v>
       </c>
@@ -25759,8 +26848,12 @@
         <v>43</v>
       </c>
       <c r="R41" s="32"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S41" t="str">
+        <f>VLOOKUP(A41,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>252</v>
       </c>
@@ -25813,8 +26906,12 @@
         <v>43</v>
       </c>
       <c r="R42" s="32"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42" t="str">
+        <f>VLOOKUP(A42,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
         <v>253</v>
       </c>
@@ -25867,8 +26964,12 @@
         <v>43</v>
       </c>
       <c r="R43" s="32"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S43" t="str">
+        <f>VLOOKUP(A43,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
         <v>254</v>
       </c>
@@ -25921,8 +27022,12 @@
         <v>982</v>
       </c>
       <c r="R44" s="32"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44" t="str">
+        <f>VLOOKUP(A44,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>255</v>
       </c>
@@ -25975,8 +27080,12 @@
         <v>983</v>
       </c>
       <c r="R45" s="32"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45" t="str">
+        <f>VLOOKUP(A45,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>256</v>
       </c>
@@ -26029,8 +27138,12 @@
         <v>43</v>
       </c>
       <c r="R46" s="32"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46" t="str">
+        <f>VLOOKUP(A46,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
         <v>259</v>
       </c>
@@ -26083,8 +27196,12 @@
         <v>43</v>
       </c>
       <c r="R47" s="32"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47" t="str">
+        <f>VLOOKUP(A47,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
         <v>260</v>
       </c>
@@ -26137,8 +27254,12 @@
         <v>43</v>
       </c>
       <c r="R48" s="32"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48" t="str">
+        <f>VLOOKUP(A48,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
         <v>261</v>
       </c>
@@ -26191,8 +27312,12 @@
         <v>982</v>
       </c>
       <c r="R49" s="32"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S49" t="str">
+        <f>VLOOKUP(A49,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
         <v>262</v>
       </c>
@@ -26245,8 +27370,12 @@
         <v>983</v>
       </c>
       <c r="R50" s="32"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S50" t="str">
+        <f>VLOOKUP(A50,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
         <v>263</v>
       </c>
@@ -26299,8 +27428,12 @@
         <v>43</v>
       </c>
       <c r="R51" s="32"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S51" t="str">
+        <f>VLOOKUP(A51,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
         <v>266</v>
       </c>
@@ -26353,8 +27486,12 @@
         <v>43</v>
       </c>
       <c r="R52" s="32"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S52" t="str">
+        <f>VLOOKUP(A52,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
         <v>267</v>
       </c>
@@ -26407,8 +27544,12 @@
         <v>43</v>
       </c>
       <c r="R53" s="32"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S53" t="str">
+        <f>VLOOKUP(A53,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>268</v>
       </c>
@@ -26461,8 +27602,12 @@
         <v>982</v>
       </c>
       <c r="R54" s="32"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S54" t="str">
+        <f>VLOOKUP(A54,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
         <v>269</v>
       </c>
@@ -26515,8 +27660,12 @@
         <v>983</v>
       </c>
       <c r="R55" s="32"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S55" t="str">
+        <f>VLOOKUP(A55,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
         <v>270</v>
       </c>
@@ -26569,8 +27718,12 @@
         <v>43</v>
       </c>
       <c r="R56" s="32"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56" t="str">
+        <f>VLOOKUP(A56,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
         <v>273</v>
       </c>
@@ -26623,8 +27776,12 @@
         <v>43</v>
       </c>
       <c r="R57" s="32"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S57" t="str">
+        <f>VLOOKUP(A57,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
         <v>274</v>
       </c>
@@ -26677,8 +27834,12 @@
         <v>43</v>
       </c>
       <c r="R58" s="32"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S58" t="str">
+        <f>VLOOKUP(A58,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
         <v>275</v>
       </c>
@@ -26731,8 +27892,12 @@
         <v>982</v>
       </c>
       <c r="R59" s="32"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S59" t="str">
+        <f>VLOOKUP(A59,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
         <v>276</v>
       </c>
@@ -26785,8 +27950,12 @@
         <v>983</v>
       </c>
       <c r="R60" s="32"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S60" t="str">
+        <f>VLOOKUP(A60,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
         <v>277</v>
       </c>
@@ -26839,8 +28008,12 @@
         <v>43</v>
       </c>
       <c r="R61" s="32"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S61" t="str">
+        <f>VLOOKUP(A61,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
         <v>280</v>
       </c>
@@ -26893,8 +28066,12 @@
         <v>43</v>
       </c>
       <c r="R62" s="32"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S62" t="str">
+        <f>VLOOKUP(A62,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="32" t="s">
         <v>281</v>
       </c>
@@ -26947,8 +28124,12 @@
         <v>43</v>
       </c>
       <c r="R63" s="32"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S63" t="str">
+        <f>VLOOKUP(A63,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
         <v>282</v>
       </c>
@@ -27001,8 +28182,12 @@
         <v>982</v>
       </c>
       <c r="R64" s="32"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S64" t="str">
+        <f>VLOOKUP(A64,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="32" t="s">
         <v>283</v>
       </c>
@@ -27055,8 +28240,12 @@
         <v>983</v>
       </c>
       <c r="R65" s="32"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S65" t="str">
+        <f>VLOOKUP(A65,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
         <v>284</v>
       </c>
@@ -27109,8 +28298,12 @@
         <v>43</v>
       </c>
       <c r="R66" s="32"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S66" t="str">
+        <f>VLOOKUP(A66,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="32" t="s">
         <v>287</v>
       </c>
@@ -27163,8 +28356,12 @@
         <v>43</v>
       </c>
       <c r="R67" s="32"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S67" t="str">
+        <f>VLOOKUP(A67,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
         <v>288</v>
       </c>
@@ -27217,8 +28414,12 @@
         <v>43</v>
       </c>
       <c r="R68" s="32"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S68" t="str">
+        <f>VLOOKUP(A68,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="32" t="s">
         <v>289</v>
       </c>
@@ -27271,8 +28472,12 @@
         <v>982</v>
       </c>
       <c r="R69" s="32"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S69" t="str">
+        <f>VLOOKUP(A69,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
         <v>290</v>
       </c>
@@ -27325,8 +28530,12 @@
         <v>983</v>
       </c>
       <c r="R70" s="32"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S70" t="str">
+        <f>VLOOKUP(A70,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
         <v>291</v>
       </c>
@@ -27379,8 +28588,12 @@
         <v>43</v>
       </c>
       <c r="R71" s="32"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S71" t="str">
+        <f>VLOOKUP(A71,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="32" t="s">
         <v>294</v>
       </c>
@@ -27433,8 +28646,12 @@
         <v>43</v>
       </c>
       <c r="R72" s="32"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S72" t="str">
+        <f>VLOOKUP(A72,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="32" t="s">
         <v>295</v>
       </c>
@@ -27487,8 +28704,12 @@
         <v>43</v>
       </c>
       <c r="R73" s="32"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S73" t="str">
+        <f>VLOOKUP(A73,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="32" t="s">
         <v>296</v>
       </c>
@@ -27541,8 +28762,12 @@
         <v>982</v>
       </c>
       <c r="R74" s="32"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S74" t="str">
+        <f>VLOOKUP(A74,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="32" t="s">
         <v>297</v>
       </c>
@@ -27595,8 +28820,12 @@
         <v>983</v>
       </c>
       <c r="R75" s="32"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S75" t="str">
+        <f>VLOOKUP(A75,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="32" t="s">
         <v>298</v>
       </c>
@@ -27649,8 +28878,12 @@
         <v>43</v>
       </c>
       <c r="R76" s="32"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S76" t="str">
+        <f>VLOOKUP(A76,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="32" t="s">
         <v>301</v>
       </c>
@@ -27703,8 +28936,12 @@
         <v>43</v>
       </c>
       <c r="R77" s="32"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S77" t="str">
+        <f>VLOOKUP(A77,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="32" t="s">
         <v>302</v>
       </c>
@@ -27757,8 +28994,12 @@
         <v>43</v>
       </c>
       <c r="R78" s="32"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S78" t="str">
+        <f>VLOOKUP(A78,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="32" t="s">
         <v>303</v>
       </c>
@@ -27811,8 +29052,12 @@
         <v>982</v>
       </c>
       <c r="R79" s="32"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S79" t="str">
+        <f>VLOOKUP(A79,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
         <v>304</v>
       </c>
@@ -27865,8 +29110,12 @@
         <v>983</v>
       </c>
       <c r="R80" s="32"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S80" t="str">
+        <f>VLOOKUP(A80,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="32" t="s">
         <v>305</v>
       </c>
@@ -27919,8 +29168,12 @@
         <v>43</v>
       </c>
       <c r="R81" s="32"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S81" t="e">
+        <f>VLOOKUP(A81,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="32" t="s">
         <v>308</v>
       </c>
@@ -27973,8 +29226,12 @@
         <v>43</v>
       </c>
       <c r="R82" s="32"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S82" t="e">
+        <f>VLOOKUP(A82,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="32" t="s">
         <v>309</v>
       </c>
@@ -28027,8 +29284,12 @@
         <v>43</v>
       </c>
       <c r="R83" s="32"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S83" t="e">
+        <f>VLOOKUP(A83,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="32" t="s">
         <v>310</v>
       </c>
@@ -28081,8 +29342,12 @@
         <v>982</v>
       </c>
       <c r="R84" s="32"/>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S84" t="e">
+        <f>VLOOKUP(A84,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="32" t="s">
         <v>311</v>
       </c>
@@ -28135,8 +29400,12 @@
         <v>983</v>
       </c>
       <c r="R85" s="32"/>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S85" t="e">
+        <f>VLOOKUP(A85,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="32" t="s">
         <v>312</v>
       </c>
@@ -28189,8 +29458,12 @@
         <v>43</v>
       </c>
       <c r="R86" s="32"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S86" t="e">
+        <f>VLOOKUP(A86,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="32" t="s">
         <v>315</v>
       </c>
@@ -28243,8 +29516,12 @@
         <v>43</v>
       </c>
       <c r="R87" s="32"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S87" t="e">
+        <f>VLOOKUP(A87,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="32" t="s">
         <v>316</v>
       </c>
@@ -28297,8 +29574,12 @@
         <v>43</v>
       </c>
       <c r="R88" s="32"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S88" t="e">
+        <f>VLOOKUP(A88,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="32" t="s">
         <v>317</v>
       </c>
@@ -28351,8 +29632,12 @@
         <v>982</v>
       </c>
       <c r="R89" s="32"/>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S89" t="e">
+        <f>VLOOKUP(A89,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="32" t="s">
         <v>318</v>
       </c>
@@ -28405,8 +29690,12 @@
         <v>983</v>
       </c>
       <c r="R90" s="32"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S90" t="e">
+        <f>VLOOKUP(A90,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
         <v>319</v>
       </c>
@@ -28459,8 +29748,12 @@
         <v>43</v>
       </c>
       <c r="R91" s="32"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S91" t="e">
+        <f>VLOOKUP(A91,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="32" t="s">
         <v>322</v>
       </c>
@@ -28513,8 +29806,12 @@
         <v>43</v>
       </c>
       <c r="R92" s="32"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S92" t="e">
+        <f>VLOOKUP(A92,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="32" t="s">
         <v>323</v>
       </c>
@@ -28567,8 +29864,12 @@
         <v>43</v>
       </c>
       <c r="R93" s="32"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S93" t="e">
+        <f>VLOOKUP(A93,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="32" t="s">
         <v>324</v>
       </c>
@@ -28621,8 +29922,12 @@
         <v>982</v>
       </c>
       <c r="R94" s="32"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S94" t="e">
+        <f>VLOOKUP(A94,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="32" t="s">
         <v>325</v>
       </c>
@@ -28675,8 +29980,12 @@
         <v>983</v>
       </c>
       <c r="R95" s="32"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S95" t="e">
+        <f>VLOOKUP(A95,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="32" t="s">
         <v>326</v>
       </c>
@@ -28729,8 +30038,12 @@
         <v>43</v>
       </c>
       <c r="R96" s="32"/>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S96" t="e">
+        <f>VLOOKUP(A96,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="32" t="s">
         <v>329</v>
       </c>
@@ -28783,8 +30096,12 @@
         <v>43</v>
       </c>
       <c r="R97" s="32"/>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S97" t="e">
+        <f>VLOOKUP(A97,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="32" t="s">
         <v>330</v>
       </c>
@@ -28837,8 +30154,12 @@
         <v>43</v>
       </c>
       <c r="R98" s="32"/>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S98" t="e">
+        <f>VLOOKUP(A98,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="32" t="s">
         <v>331</v>
       </c>
@@ -28891,8 +30212,12 @@
         <v>982</v>
       </c>
       <c r="R99" s="32"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S99" t="e">
+        <f>VLOOKUP(A99,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="32" t="s">
         <v>332</v>
       </c>
@@ -28945,8 +30270,12 @@
         <v>983</v>
       </c>
       <c r="R100" s="32"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S100" t="e">
+        <f>VLOOKUP(A100,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="32" t="s">
         <v>333</v>
       </c>
@@ -28999,8 +30328,12 @@
         <v>43</v>
       </c>
       <c r="R101" s="32"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S101" t="e">
+        <f>VLOOKUP(A101,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="32" t="s">
         <v>336</v>
       </c>
@@ -29053,8 +30386,12 @@
         <v>43</v>
       </c>
       <c r="R102" s="32"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S102" t="e">
+        <f>VLOOKUP(A102,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="32" t="s">
         <v>337</v>
       </c>
@@ -29107,8 +30444,12 @@
         <v>43</v>
       </c>
       <c r="R103" s="32"/>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S103" t="str">
+        <f>VLOOKUP(A103,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="32" t="s">
         <v>338</v>
       </c>
@@ -29161,8 +30502,12 @@
         <v>982</v>
       </c>
       <c r="R104" s="32"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S104" t="str">
+        <f>VLOOKUP(A104,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="32" t="s">
         <v>339</v>
       </c>
@@ -29215,8 +30560,12 @@
         <v>983</v>
       </c>
       <c r="R105" s="32"/>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S105" t="str">
+        <f>VLOOKUP(A105,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="32" t="s">
         <v>340</v>
       </c>
@@ -29269,8 +30618,12 @@
         <v>43</v>
       </c>
       <c r="R106" s="32"/>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S106" t="str">
+        <f>VLOOKUP(A106,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="32" t="s">
         <v>343</v>
       </c>
@@ -29323,8 +30676,12 @@
         <v>43</v>
       </c>
       <c r="R107" s="32"/>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S107" t="str">
+        <f>VLOOKUP(A107,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="32" t="s">
         <v>344</v>
       </c>
@@ -29377,8 +30734,12 @@
         <v>43</v>
       </c>
       <c r="R108" s="32"/>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S108" t="str">
+        <f>VLOOKUP(A108,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="32" t="s">
         <v>345</v>
       </c>
@@ -29431,8 +30792,12 @@
         <v>982</v>
       </c>
       <c r="R109" s="32"/>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S109" t="str">
+        <f>VLOOKUP(A109,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="32" t="s">
         <v>346</v>
       </c>
@@ -29485,8 +30850,12 @@
         <v>983</v>
       </c>
       <c r="R110" s="32"/>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S110" t="str">
+        <f>VLOOKUP(A110,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="32" t="s">
         <v>347</v>
       </c>
@@ -29539,8 +30908,12 @@
         <v>43</v>
       </c>
       <c r="R111" s="32"/>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S111" t="str">
+        <f>VLOOKUP(A111,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS154</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="32" t="s">
         <v>350</v>
       </c>
@@ -29593,8 +30966,12 @@
         <v>43</v>
       </c>
       <c r="R112" s="32"/>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S112" t="str">
+        <f>VLOOKUP(A112,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS157</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="32" t="s">
         <v>351</v>
       </c>
@@ -29647,8 +31024,12 @@
         <v>43</v>
       </c>
       <c r="R113" s="32"/>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S113" t="str">
+        <f>VLOOKUP(A113,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS158</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="32" t="s">
         <v>352</v>
       </c>
@@ -29701,8 +31082,12 @@
         <v>982</v>
       </c>
       <c r="R114" s="32"/>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S114" t="str">
+        <f>VLOOKUP(A114,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="32" t="s">
         <v>353</v>
       </c>
@@ -29755,8 +31140,12 @@
         <v>983</v>
       </c>
       <c r="R115" s="32"/>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S115" t="str">
+        <f>VLOOKUP(A115,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS160</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="32" t="s">
         <v>354</v>
       </c>
@@ -29809,8 +31198,12 @@
         <v>43</v>
       </c>
       <c r="R116" s="32"/>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S116" t="str">
+        <f>VLOOKUP(A116,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="32" t="s">
         <v>357</v>
       </c>
@@ -29863,8 +31256,12 @@
         <v>43</v>
       </c>
       <c r="R117" s="32"/>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S117" t="str">
+        <f>VLOOKUP(A117,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="32" t="s">
         <v>358</v>
       </c>
@@ -29917,8 +31314,12 @@
         <v>43</v>
       </c>
       <c r="R118" s="32"/>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S118" t="str">
+        <f>VLOOKUP(A118,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS165</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="32" t="s">
         <v>359</v>
       </c>
@@ -29971,8 +31372,12 @@
         <v>982</v>
       </c>
       <c r="R119" s="32"/>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S119" t="str">
+        <f>VLOOKUP(A119,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="32" t="s">
         <v>360</v>
       </c>
@@ -30025,8 +31430,12 @@
         <v>983</v>
       </c>
       <c r="R120" s="32"/>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S120" t="str">
+        <f>VLOOKUP(A120,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="32" t="s">
         <v>361</v>
       </c>
@@ -30079,8 +31488,12 @@
         <v>43</v>
       </c>
       <c r="R121" s="32"/>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S121" t="str">
+        <f>VLOOKUP(A121,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS168</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="32" t="s">
         <v>364</v>
       </c>
@@ -30133,8 +31546,12 @@
         <v>43</v>
       </c>
       <c r="R122" s="32"/>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S122" t="str">
+        <f>VLOOKUP(A122,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS171</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="32" t="s">
         <v>365</v>
       </c>
@@ -30187,8 +31604,12 @@
         <v>43</v>
       </c>
       <c r="R123" s="32"/>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S123" t="str">
+        <f>VLOOKUP(A123,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS172</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="32" t="s">
         <v>366</v>
       </c>
@@ -30241,8 +31662,12 @@
         <v>982</v>
       </c>
       <c r="R124" s="32"/>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S124" t="str">
+        <f>VLOOKUP(A124,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS173</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="32" t="s">
         <v>367</v>
       </c>
@@ -30295,8 +31720,12 @@
         <v>983</v>
       </c>
       <c r="R125" s="32"/>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S125" t="str">
+        <f>VLOOKUP(A125,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS174</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="32" t="s">
         <v>368</v>
       </c>
@@ -30349,8 +31778,12 @@
         <v>43</v>
       </c>
       <c r="R126" s="32"/>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S126" t="str">
+        <f>VLOOKUP(A126,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS175</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
         <v>371</v>
       </c>
@@ -30403,8 +31836,12 @@
         <v>43</v>
       </c>
       <c r="R127" s="32"/>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S127" t="str">
+        <f>VLOOKUP(A127,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS178</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="32" t="s">
         <v>372</v>
       </c>
@@ -30457,8 +31894,12 @@
         <v>43</v>
       </c>
       <c r="R128" s="32"/>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S128" t="str">
+        <f>VLOOKUP(A128,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS179</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="32" t="s">
         <v>373</v>
       </c>
@@ -30511,8 +31952,12 @@
         <v>43</v>
       </c>
       <c r="R129" s="32"/>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S129" t="str">
+        <f>VLOOKUP(A129,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS180</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="32" t="s">
         <v>374</v>
       </c>
@@ -30565,8 +32010,12 @@
         <v>982</v>
       </c>
       <c r="R130" s="32"/>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S130" t="str">
+        <f>VLOOKUP(A130,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS181</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="32" t="s">
         <v>375</v>
       </c>
@@ -30619,8 +32068,12 @@
         <v>983</v>
       </c>
       <c r="R131" s="32"/>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S131" t="str">
+        <f>VLOOKUP(A131,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS182</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="32" t="s">
         <v>376</v>
       </c>
@@ -30673,8 +32126,12 @@
         <v>43</v>
       </c>
       <c r="R132" s="32"/>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S132" t="str">
+        <f>VLOOKUP(A132,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS183</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="32" t="s">
         <v>379</v>
       </c>
@@ -30727,8 +32184,12 @@
         <v>43</v>
       </c>
       <c r="R133" s="32"/>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S133" t="str">
+        <f>VLOOKUP(A133,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS186</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="32" t="s">
         <v>380</v>
       </c>
@@ -30781,8 +32242,12 @@
         <v>43</v>
       </c>
       <c r="R134" s="32"/>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S134" t="str">
+        <f>VLOOKUP(A134,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS187</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="32" t="s">
         <v>381</v>
       </c>
@@ -30835,8 +32300,12 @@
         <v>43</v>
       </c>
       <c r="R135" s="32"/>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S135" t="str">
+        <f>VLOOKUP(A135,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS188</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="32" t="s">
         <v>382</v>
       </c>
@@ -30889,8 +32358,12 @@
         <v>982</v>
       </c>
       <c r="R136" s="32"/>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S136" t="str">
+        <f>VLOOKUP(A136,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS189</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="32" t="s">
         <v>383</v>
       </c>
@@ -30943,8 +32416,12 @@
         <v>983</v>
       </c>
       <c r="R137" s="32"/>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S137" t="str">
+        <f>VLOOKUP(A137,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS190</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="32" t="s">
         <v>384</v>
       </c>
@@ -30997,8 +32474,12 @@
         <v>43</v>
       </c>
       <c r="R138" s="32"/>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S138" t="str">
+        <f>VLOOKUP(A138,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS191</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="32" t="s">
         <v>415</v>
       </c>
@@ -31051,8 +32532,12 @@
         <v>43</v>
       </c>
       <c r="R139" s="33"/>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S139" t="str">
+        <f>VLOOKUP(A139,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS194</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="32" t="s">
         <v>416</v>
       </c>
@@ -31105,8 +32590,12 @@
         <v>43</v>
       </c>
       <c r="R140" s="33"/>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S140" t="str">
+        <f>VLOOKUP(A140,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS195</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="32" t="s">
         <v>417</v>
       </c>
@@ -31159,8 +32648,12 @@
         <v>982</v>
       </c>
       <c r="R141" s="33"/>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S141" t="str">
+        <f>VLOOKUP(A141,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS196</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="32" t="s">
         <v>418</v>
       </c>
@@ -31213,8 +32706,12 @@
         <v>983</v>
       </c>
       <c r="R142" s="33"/>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S142" t="str">
+        <f>VLOOKUP(A142,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS197</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="32" t="s">
         <v>419</v>
       </c>
@@ -31267,8 +32764,12 @@
         <v>43</v>
       </c>
       <c r="R143" s="33"/>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S143" t="str">
+        <f>VLOOKUP(A143,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS198</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="32" t="s">
         <v>435</v>
       </c>
@@ -31321,8 +32822,12 @@
         <v>43</v>
       </c>
       <c r="R144" s="33"/>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S144" t="str">
+        <f>VLOOKUP(A144,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS201</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="32" t="s">
         <v>436</v>
       </c>
@@ -31375,8 +32880,12 @@
         <v>43</v>
       </c>
       <c r="R145" s="33"/>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S145" t="str">
+        <f>VLOOKUP(A145,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS202</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="32" t="s">
         <v>437</v>
       </c>
@@ -31429,8 +32938,12 @@
         <v>982</v>
       </c>
       <c r="R146" s="33"/>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S146" t="str">
+        <f>VLOOKUP(A146,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS203</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="32" t="s">
         <v>438</v>
       </c>
@@ -31483,8 +32996,12 @@
         <v>983</v>
       </c>
       <c r="R147" s="33"/>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S147" t="str">
+        <f>VLOOKUP(A147,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS204</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="32" t="s">
         <v>439</v>
       </c>
@@ -31537,8 +33054,12 @@
         <v>43</v>
       </c>
       <c r="R148" s="33"/>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S148" t="str">
+        <f>VLOOKUP(A148,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS205</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="32" t="s">
         <v>442</v>
       </c>
@@ -31591,8 +33112,12 @@
         <v>43</v>
       </c>
       <c r="R149" s="33"/>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S149" t="str">
+        <f>VLOOKUP(A149,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS208</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="32" t="s">
         <v>443</v>
       </c>
@@ -31645,8 +33170,12 @@
         <v>43</v>
       </c>
       <c r="R150" s="33"/>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S150" t="str">
+        <f>VLOOKUP(A150,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS209</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="32" t="s">
         <v>444</v>
       </c>
@@ -31699,8 +33228,12 @@
         <v>982</v>
       </c>
       <c r="R151" s="33"/>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S151" t="str">
+        <f>VLOOKUP(A151,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS210</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="32" t="s">
         <v>445</v>
       </c>
@@ -31753,8 +33286,12 @@
         <v>983</v>
       </c>
       <c r="R152" s="33"/>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S152" t="str">
+        <f>VLOOKUP(A152,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS211</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="32" t="s">
         <v>446</v>
       </c>
@@ -31807,8 +33344,12 @@
         <v>43</v>
       </c>
       <c r="R153" s="33"/>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S153" t="str">
+        <f>VLOOKUP(A153,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS212</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="32" t="s">
         <v>449</v>
       </c>
@@ -31861,8 +33402,12 @@
         <v>43</v>
       </c>
       <c r="R154" s="33"/>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S154" t="str">
+        <f>VLOOKUP(A154,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS215</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="32" t="s">
         <v>450</v>
       </c>
@@ -31915,8 +33460,12 @@
         <v>43</v>
       </c>
       <c r="R155" s="33"/>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S155" t="str">
+        <f>VLOOKUP(A155,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS216</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="32" t="s">
         <v>451</v>
       </c>
@@ -31969,8 +33518,12 @@
         <v>982</v>
       </c>
       <c r="R156" s="33"/>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S156" t="str">
+        <f>VLOOKUP(A156,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS217</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="32" t="s">
         <v>452</v>
       </c>
@@ -32023,8 +33576,12 @@
         <v>983</v>
       </c>
       <c r="R157" s="33"/>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S157" t="str">
+        <f>VLOOKUP(A157,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS218</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="32" t="s">
         <v>453</v>
       </c>
@@ -32077,8 +33634,12 @@
         <v>43</v>
       </c>
       <c r="R158" s="33"/>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S158" t="str">
+        <f>VLOOKUP(A158,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS219</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="32" t="s">
         <v>456</v>
       </c>
@@ -32131,8 +33692,12 @@
         <v>43</v>
       </c>
       <c r="R159" s="33"/>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S159" t="str">
+        <f>VLOOKUP(A159,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS222</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="32" t="s">
         <v>457</v>
       </c>
@@ -32185,8 +33750,12 @@
         <v>43</v>
       </c>
       <c r="R160" s="33"/>
-    </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S160" t="str">
+        <f>VLOOKUP(A160,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS223</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
         <v>458</v>
       </c>
@@ -32239,8 +33808,12 @@
         <v>982</v>
       </c>
       <c r="R161" s="33"/>
-    </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S161" t="str">
+        <f>VLOOKUP(A161,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS224</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="32" t="s">
         <v>459</v>
       </c>
@@ -32293,8 +33866,12 @@
         <v>983</v>
       </c>
       <c r="R162" s="33"/>
-    </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S162" t="str">
+        <f>VLOOKUP(A162,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS225</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="32" t="s">
         <v>460</v>
       </c>
@@ -32347,8 +33924,12 @@
         <v>43</v>
       </c>
       <c r="R163" s="33"/>
-    </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S163" t="str">
+        <f>VLOOKUP(A163,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS226</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="32" t="s">
         <v>463</v>
       </c>
@@ -32401,8 +33982,12 @@
         <v>43</v>
       </c>
       <c r="R164" s="33"/>
-    </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S164" t="str">
+        <f>VLOOKUP(A164,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS229</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="32" t="s">
         <v>464</v>
       </c>
@@ -32455,8 +34040,12 @@
         <v>43</v>
       </c>
       <c r="R165" s="33"/>
-    </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S165" t="str">
+        <f>VLOOKUP(A165,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS230</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="32" t="s">
         <v>465</v>
       </c>
@@ -32509,8 +34098,12 @@
         <v>982</v>
       </c>
       <c r="R166" s="33"/>
-    </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S166" t="str">
+        <f>VLOOKUP(A166,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS231</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="32" t="s">
         <v>466</v>
       </c>
@@ -32563,8 +34156,12 @@
         <v>983</v>
       </c>
       <c r="R167" s="33"/>
-    </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S167" t="str">
+        <f>VLOOKUP(A167,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS232</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="32" t="s">
         <v>467</v>
       </c>
@@ -32617,8 +34214,12 @@
         <v>43</v>
       </c>
       <c r="R168" s="33"/>
-    </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S168" t="str">
+        <f>VLOOKUP(A168,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS233</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="32" t="s">
         <v>470</v>
       </c>
@@ -32671,8 +34272,12 @@
         <v>43</v>
       </c>
       <c r="R169" s="33"/>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S169" t="str">
+        <f>VLOOKUP(A169,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS236</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="32" t="s">
         <v>471</v>
       </c>
@@ -32725,8 +34330,12 @@
         <v>43</v>
       </c>
       <c r="R170" s="33"/>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S170" t="str">
+        <f>VLOOKUP(A170,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS237</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="32" t="s">
         <v>472</v>
       </c>
@@ -32779,8 +34388,12 @@
         <v>982</v>
       </c>
       <c r="R171" s="33"/>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S171" t="str">
+        <f>VLOOKUP(A171,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS238</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="32" t="s">
         <v>473</v>
       </c>
@@ -32833,8 +34446,12 @@
         <v>983</v>
       </c>
       <c r="R172" s="33"/>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S172" t="str">
+        <f>VLOOKUP(A172,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS239</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="32" t="s">
         <v>474</v>
       </c>
@@ -32887,8 +34504,12 @@
         <v>43</v>
       </c>
       <c r="R173" s="33"/>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S173" t="str">
+        <f>VLOOKUP(A173,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS240</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="32" t="s">
         <v>477</v>
       </c>
@@ -32941,8 +34562,12 @@
         <v>43</v>
       </c>
       <c r="R174" s="33"/>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S174" t="str">
+        <f>VLOOKUP(A174,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS243</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="32" t="s">
         <v>478</v>
       </c>
@@ -32995,8 +34620,12 @@
         <v>43</v>
       </c>
       <c r="R175" s="33"/>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S175" t="str">
+        <f>VLOOKUP(A175,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS244</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="32" t="s">
         <v>479</v>
       </c>
@@ -33049,8 +34678,12 @@
         <v>982</v>
       </c>
       <c r="R176" s="33"/>
-    </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S176" t="str">
+        <f>VLOOKUP(A176,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS245</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="32" t="s">
         <v>480</v>
       </c>
@@ -33103,8 +34736,12 @@
         <v>983</v>
       </c>
       <c r="R177" s="33"/>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S177" t="str">
+        <f>VLOOKUP(A177,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS246</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="32" t="s">
         <v>481</v>
       </c>
@@ -33157,8 +34794,12 @@
         <v>43</v>
       </c>
       <c r="R178" s="33"/>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S178" t="str">
+        <f>VLOOKUP(A178,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS247</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="32" t="s">
         <v>484</v>
       </c>
@@ -33211,8 +34852,12 @@
         <v>43</v>
       </c>
       <c r="R179" s="33"/>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S179" t="str">
+        <f>VLOOKUP(A179,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS250</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="32" t="s">
         <v>485</v>
       </c>
@@ -33265,8 +34910,12 @@
         <v>43</v>
       </c>
       <c r="R180" s="33"/>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S180" t="str">
+        <f>VLOOKUP(A180,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS251</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="32" t="s">
         <v>486</v>
       </c>
@@ -33319,8 +34968,12 @@
         <v>982</v>
       </c>
       <c r="R181" s="33"/>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S181" t="str">
+        <f>VLOOKUP(A181,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS252</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="32" t="s">
         <v>487</v>
       </c>
@@ -33373,8 +35026,12 @@
         <v>983</v>
       </c>
       <c r="R182" s="33"/>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S182" t="str">
+        <f>VLOOKUP(A182,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS253</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="32" t="s">
         <v>488</v>
       </c>
@@ -33427,8 +35084,12 @@
         <v>43</v>
       </c>
       <c r="R183" s="33"/>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S183" t="str">
+        <f>VLOOKUP(A183,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS254</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="32" t="s">
         <v>491</v>
       </c>
@@ -33481,8 +35142,12 @@
         <v>43</v>
       </c>
       <c r="R184" s="33"/>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S184" t="str">
+        <f>VLOOKUP(A184,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS257</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="32" t="s">
         <v>492</v>
       </c>
@@ -33535,8 +35200,12 @@
         <v>43</v>
       </c>
       <c r="R185" s="33"/>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S185" t="str">
+        <f>VLOOKUP(A185,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS258</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="32" t="s">
         <v>493</v>
       </c>
@@ -33589,8 +35258,12 @@
         <v>982</v>
       </c>
       <c r="R186" s="33"/>
-    </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S186" t="str">
+        <f>VLOOKUP(A186,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS259</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="32" t="s">
         <v>494</v>
       </c>
@@ -33643,8 +35316,12 @@
         <v>983</v>
       </c>
       <c r="R187" s="33"/>
-    </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S187" t="str">
+        <f>VLOOKUP(A187,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS260</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="32" t="s">
         <v>495</v>
       </c>
@@ -33697,8 +35374,12 @@
         <v>43</v>
       </c>
       <c r="R188" s="33"/>
-    </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S188" t="str">
+        <f>VLOOKUP(A188,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS261</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="32" t="s">
         <v>498</v>
       </c>
@@ -33751,8 +35432,12 @@
         <v>43</v>
       </c>
       <c r="R189" s="33"/>
-    </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S189" t="str">
+        <f>VLOOKUP(A189,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS264</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="32" t="s">
         <v>499</v>
       </c>
@@ -33805,8 +35490,12 @@
         <v>43</v>
       </c>
       <c r="R190" s="33"/>
-    </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S190" t="str">
+        <f>VLOOKUP(A190,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS265</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="32" t="s">
         <v>500</v>
       </c>
@@ -33859,8 +35548,12 @@
         <v>982</v>
       </c>
       <c r="R191" s="33"/>
-    </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S191" t="str">
+        <f>VLOOKUP(A191,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS266</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="32" t="s">
         <v>501</v>
       </c>
@@ -33913,8 +35606,12 @@
         <v>983</v>
       </c>
       <c r="R192" s="33"/>
-    </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S192" t="str">
+        <f>VLOOKUP(A192,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS267</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="32" t="s">
         <v>502</v>
       </c>
@@ -33967,8 +35664,12 @@
         <v>43</v>
       </c>
       <c r="R193" s="33"/>
-    </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S193" t="str">
+        <f>VLOOKUP(A193,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS268</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="32" t="s">
         <v>796</v>
       </c>
@@ -34021,8 +35722,12 @@
         <v>43</v>
       </c>
       <c r="R194" s="33"/>
-    </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S194" t="str">
+        <f>VLOOKUP(A194,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS270</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="32" t="s">
         <v>797</v>
       </c>
@@ -34075,8 +35780,12 @@
         <v>43</v>
       </c>
       <c r="R195" s="33"/>
-    </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S195" t="str">
+        <f>VLOOKUP(A195,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS271</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="32" t="s">
         <v>798</v>
       </c>
@@ -34129,8 +35838,12 @@
         <v>43</v>
       </c>
       <c r="R196" s="33"/>
-    </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S196" t="str">
+        <f>VLOOKUP(A196,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS272</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="32" t="s">
         <v>801</v>
       </c>
@@ -34183,8 +35896,12 @@
         <v>43</v>
       </c>
       <c r="R197" s="33"/>
-    </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S197" t="str">
+        <f>VLOOKUP(A197,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS275</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="32" t="s">
         <v>802</v>
       </c>
@@ -34237,8 +35954,12 @@
         <v>43</v>
       </c>
       <c r="R198" s="33"/>
-    </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S198" t="str">
+        <f>VLOOKUP(A198,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS276</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="32" t="s">
         <v>803</v>
       </c>
@@ -34291,8 +36012,12 @@
         <v>982</v>
       </c>
       <c r="R199" s="33"/>
-    </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S199" t="str">
+        <f>VLOOKUP(A199,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS277</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="32" t="s">
         <v>804</v>
       </c>
@@ -34345,8 +36070,12 @@
         <v>983</v>
       </c>
       <c r="R200" s="33"/>
-    </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S200" t="str">
+        <f>VLOOKUP(A200,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS278</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="32" t="s">
         <v>805</v>
       </c>
@@ -34399,8 +36128,12 @@
         <v>43</v>
       </c>
       <c r="R201" s="33"/>
-    </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S201" t="str">
+        <f>VLOOKUP(A201,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS279</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="32" t="s">
         <v>848</v>
       </c>
@@ -34453,8 +36186,12 @@
         <v>43</v>
       </c>
       <c r="R202" s="33"/>
-    </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S202" t="str">
+        <f>VLOOKUP(A202,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>MS281</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="32" t="s">
         <v>849</v>
       </c>
@@ -34507,8 +36244,12 @@
         <v>43</v>
       </c>
       <c r="R203" s="33"/>
-    </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S203" t="e">
+        <f>VLOOKUP(A203,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" s="32" t="s">
         <v>850</v>
       </c>
@@ -34561,8 +36302,12 @@
         <v>43</v>
       </c>
       <c r="R204" s="33"/>
-    </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S204" t="e">
+        <f>VLOOKUP(A204,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="32" t="s">
         <v>853</v>
       </c>
@@ -34615,8 +36360,12 @@
         <v>43</v>
       </c>
       <c r="R205" s="33"/>
-    </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S205" t="e">
+        <f>VLOOKUP(A205,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" s="32" t="s">
         <v>854</v>
       </c>
@@ -34669,8 +36418,12 @@
         <v>43</v>
       </c>
       <c r="R206" s="33"/>
-    </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S206" t="e">
+        <f>VLOOKUP(A206,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" s="32" t="s">
         <v>855</v>
       </c>
@@ -34723,8 +36476,12 @@
         <v>982</v>
       </c>
       <c r="R207" s="33"/>
-    </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S207" t="e">
+        <f>VLOOKUP(A207,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" s="32" t="s">
         <v>856</v>
       </c>
@@ -34777,8 +36534,12 @@
         <v>983</v>
       </c>
       <c r="R208" s="33"/>
-    </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S208" t="e">
+        <f>VLOOKUP(A208,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" s="32" t="s">
         <v>857</v>
       </c>
@@ -34831,8 +36592,12 @@
         <v>43</v>
       </c>
       <c r="R209" s="33"/>
-    </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S209" t="e">
+        <f>VLOOKUP(A209,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" s="32" t="s">
         <v>859</v>
       </c>
@@ -34885,8 +36650,12 @@
         <v>43</v>
       </c>
       <c r="R210" s="33"/>
-    </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S210" t="e">
+        <f>VLOOKUP(A210,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" s="32" t="s">
         <v>860</v>
       </c>
@@ -34939,8 +36708,12 @@
         <v>43</v>
       </c>
       <c r="R211" s="33"/>
-    </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S211" t="e">
+        <f>VLOOKUP(A211,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" s="32" t="s">
         <v>861</v>
       </c>
@@ -34993,8 +36766,12 @@
         <v>43</v>
       </c>
       <c r="R212" s="32"/>
-    </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S212" t="e">
+        <f>VLOOKUP(A212,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" s="32" t="s">
         <v>862</v>
       </c>
@@ -35047,8 +36824,12 @@
         <v>43</v>
       </c>
       <c r="R213" s="33"/>
-    </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S213" t="e">
+        <f>VLOOKUP(A213,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" s="32" t="s">
         <v>865</v>
       </c>
@@ -35101,8 +36882,12 @@
         <v>43</v>
       </c>
       <c r="R214" s="33"/>
-    </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S214" t="e">
+        <f>VLOOKUP(A214,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="32" t="s">
         <v>866</v>
       </c>
@@ -35155,8 +36940,12 @@
         <v>43</v>
       </c>
       <c r="R215" s="33"/>
-    </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S215" t="e">
+        <f>VLOOKUP(A215,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="32" t="s">
         <v>867</v>
       </c>
@@ -35209,8 +36998,12 @@
         <v>982</v>
       </c>
       <c r="R216" s="33"/>
-    </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S216" t="e">
+        <f>VLOOKUP(A216,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="32" t="s">
         <v>868</v>
       </c>
@@ -35263,8 +37056,12 @@
         <v>983</v>
       </c>
       <c r="R217" s="33"/>
-    </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S217" t="e">
+        <f>VLOOKUP(A217,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="32" t="s">
         <v>869</v>
       </c>
@@ -35317,8 +37114,12 @@
         <v>43</v>
       </c>
       <c r="R218" s="33"/>
-    </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S218" t="e">
+        <f>VLOOKUP(A218,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="32" t="s">
         <v>870</v>
       </c>
@@ -35371,8 +37172,12 @@
         <v>43</v>
       </c>
       <c r="R219" s="32"/>
-    </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S219" t="e">
+        <f>VLOOKUP(A219,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" s="32" t="s">
         <v>932</v>
       </c>
@@ -35425,8 +37230,12 @@
         <v>43</v>
       </c>
       <c r="R220" s="32"/>
-    </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S220" t="e">
+        <f>VLOOKUP(A220,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="32" t="s">
         <v>933</v>
       </c>
@@ -35479,8 +37288,12 @@
         <v>43</v>
       </c>
       <c r="R221" s="32"/>
-    </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S221" t="e">
+        <f>VLOOKUP(A221,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="32" t="s">
         <v>934</v>
       </c>
@@ -35533,8 +37346,12 @@
         <v>43</v>
       </c>
       <c r="R222" s="32"/>
-    </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S222" t="e">
+        <f>VLOOKUP(A222,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="32" t="s">
         <v>937</v>
       </c>
@@ -35587,8 +37404,12 @@
         <v>43</v>
       </c>
       <c r="R223" s="32"/>
-    </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S223" t="e">
+        <f>VLOOKUP(A223,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="32" t="s">
         <v>938</v>
       </c>
@@ -35641,8 +37462,12 @@
         <v>43</v>
       </c>
       <c r="R224" s="32"/>
-    </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S224" t="e">
+        <f>VLOOKUP(A224,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="32" t="s">
         <v>939</v>
       </c>
@@ -35695,8 +37520,12 @@
         <v>982</v>
       </c>
       <c r="R225" s="32"/>
-    </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S225" t="e">
+        <f>VLOOKUP(A225,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="32" t="s">
         <v>940</v>
       </c>
@@ -35749,8 +37578,12 @@
         <v>983</v>
       </c>
       <c r="R226" s="32"/>
-    </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S226" t="e">
+        <f>VLOOKUP(A226,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="32" t="s">
         <v>941</v>
       </c>
@@ -35803,8 +37636,12 @@
         <v>43</v>
       </c>
       <c r="R227" s="32"/>
-    </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S227" t="e">
+        <f>VLOOKUP(A227,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" s="32" t="s">
         <v>944</v>
       </c>
@@ -35857,8 +37694,12 @@
         <v>43</v>
       </c>
       <c r="R228" s="33"/>
-    </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S228" t="e">
+        <f>VLOOKUP(A228,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="32" t="s">
         <v>945</v>
       </c>
@@ -35911,8 +37752,12 @@
         <v>43</v>
       </c>
       <c r="R229" s="33"/>
-    </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S229" t="e">
+        <f>VLOOKUP(A229,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="32" t="s">
         <v>946</v>
       </c>
@@ -35965,8 +37810,12 @@
         <v>982</v>
       </c>
       <c r="R230" s="33"/>
-    </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S230" t="e">
+        <f>VLOOKUP(A230,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" s="32" t="s">
         <v>947</v>
       </c>
@@ -36019,8 +37868,12 @@
         <v>983</v>
       </c>
       <c r="R231" s="33"/>
-    </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S231" t="e">
+        <f>VLOOKUP(A231,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" s="32" t="s">
         <v>948</v>
       </c>
@@ -36073,8 +37926,12 @@
         <v>43</v>
       </c>
       <c r="R232" s="33"/>
-    </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S232" t="e">
+        <f>VLOOKUP(A232,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" s="32" t="s">
         <v>973</v>
       </c>
@@ -36127,8 +37984,12 @@
         <v>43</v>
       </c>
       <c r="R233" s="32"/>
-    </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S233" t="e">
+        <f>VLOOKUP(A233,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" s="32" t="s">
         <v>974</v>
       </c>
@@ -36181,8 +38042,12 @@
         <v>43</v>
       </c>
       <c r="R234" s="32"/>
-    </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S234" t="e">
+        <f>VLOOKUP(A234,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" s="32" t="s">
         <v>975</v>
       </c>
@@ -36235,8 +38100,12 @@
         <v>982</v>
       </c>
       <c r="R235" s="32"/>
-    </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S235" t="e">
+        <f>VLOOKUP(A235,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" s="32" t="s">
         <v>976</v>
       </c>
@@ -36289,8 +38158,12 @@
         <v>983</v>
       </c>
       <c r="R236" s="32"/>
-    </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S236" t="e">
+        <f>VLOOKUP(A236,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="32" t="s">
         <v>977</v>
       </c>
@@ -36343,8 +38216,12 @@
         <v>43</v>
       </c>
       <c r="R237" s="32"/>
-    </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S237" t="e">
+        <f>VLOOKUP(A237,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" s="32" t="s">
         <v>1006</v>
       </c>
@@ -36396,8 +38273,12 @@
       <c r="Q238" s="27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S238" t="e">
+        <f>VLOOKUP(A238,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" s="32" t="s">
         <v>1007</v>
       </c>
@@ -36449,8 +38330,12 @@
       <c r="Q239" s="27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S239" t="e">
+        <f>VLOOKUP(A239,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" s="32" t="s">
         <v>1008</v>
       </c>
@@ -36502,8 +38387,12 @@
       <c r="Q240" s="27" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S240" t="e">
+        <f>VLOOKUP(A240,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="32" t="s">
         <v>1009</v>
       </c>
@@ -36555,8 +38444,12 @@
       <c r="Q241" s="27" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S241" t="e">
+        <f>VLOOKUP(A241,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="32" t="s">
         <v>1010</v>
       </c>
@@ -36608,8 +38501,19 @@
       <c r="Q242" s="27" t="s">
         <v>43</v>
       </c>
+      <c r="S242" t="e">
+        <f>VLOOKUP(A242,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S242" xr:uid="{C8A58EE3-C3E7-4BCE-95F4-8F8F3E204C34}">
+    <filterColumn colId="18">
+      <filters>
+        <filter val="#N/A"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -52164,7 +54068,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -52250,31 +54154,31 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>210</v>
+        <v>305</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>529</v>
+        <v>622</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>56</v>
@@ -52285,14 +54189,14 @@
       <c r="L2" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="27" t="s">
-        <v>42</v>
+      <c r="M2" s="29" t="s">
+        <v>192</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>45</v>
+        <v>979</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="P2" s="27" t="s">
         <v>184</v>
@@ -52304,43 +54208,43 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>848</v>
+        <v>308</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>783</v>
+        <v>7</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>819</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>821</v>
+      <c r="D3" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>818</v>
+        <v>166</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>998</v>
+        <v>625</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>176</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N3" s="27" t="s">
         <v>45</v>
@@ -52357,43 +54261,43 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>849</v>
+        <v>309</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>784</v>
+        <v>8</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>819</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>821</v>
+      <c r="D4" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>818</v>
+        <v>166</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>999</v>
+        <v>626</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>957</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N4" s="27" t="s">
         <v>979</v>
@@ -52410,84 +54314,84 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>850</v>
+        <v>310</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>785</v>
+        <v>9</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>819</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>821</v>
+        <v>148</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>818</v>
+        <v>166</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>1000</v>
+        <v>627</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>179</v>
+        <v>958</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P5" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>43</v>
+        <v>982</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>853</v>
+        <v>311</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>786</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>819</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>821</v>
+        <v>149</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>818</v>
+        <v>166</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>826</v>
+        <v>628</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>176</v>
+        <v>959</v>
       </c>
       <c r="J6" s="27" t="s">
         <v>56</v>
@@ -52502,45 +54406,45 @@
         <v>42</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>45</v>
+        <v>981</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q6" s="27" t="s">
-        <v>43</v>
+        <v>983</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>854</v>
+        <v>312</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>787</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>819</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>821</v>
+        <v>144</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>818</v>
+        <v>166</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>827</v>
+        <v>629</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>957</v>
+        <v>179</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>56</v>
@@ -52558,7 +54462,7 @@
         <v>979</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P7" s="27" t="s">
         <v>184</v>
@@ -52569,31 +54473,31 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>855</v>
+        <v>315</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>790</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>819</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>821</v>
+        <v>150</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>90</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>818</v>
+        <v>167</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>828</v>
+        <v>632</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>958</v>
+        <v>176</v>
       </c>
       <c r="J8" s="27" t="s">
         <v>56</v>
@@ -52608,45 +54512,45 @@
         <v>42</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>980</v>
+        <v>45</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="P8" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q8" s="27" t="s">
-        <v>982</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>856</v>
+        <v>316</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>791</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>819</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>821</v>
+        <v>151</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>90</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>818</v>
+        <v>167</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>829</v>
+        <v>633</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J9" s="27" t="s">
         <v>56</v>
@@ -52661,45 +54565,45 @@
         <v>42</v>
       </c>
       <c r="N9" s="27" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P9" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q9" s="27" t="s">
-        <v>983</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>857</v>
+        <v>317</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>788</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>819</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>821</v>
+        <v>148</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>90</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>818</v>
+        <v>167</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>830</v>
+        <v>634</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>179</v>
+        <v>958</v>
       </c>
       <c r="J10" s="27" t="s">
         <v>56</v>
@@ -52714,116 +54618,116 @@
         <v>42</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P10" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q10" s="27" t="s">
-        <v>43</v>
+        <v>982</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>859</v>
+        <v>318</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>783</v>
+        <v>10</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>832</v>
+        <v>149</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>90</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>833</v>
+        <v>167</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>836</v>
+        <v>635</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>176</v>
+        <v>959</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>45</v>
+        <v>981</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="P11" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q11" s="27" t="s">
-        <v>43</v>
+        <v>983</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>860</v>
+        <v>319</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>784</v>
+        <v>11</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>832</v>
+        <v>144</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>90</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>833</v>
+        <v>167</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>837</v>
+        <v>636</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>957</v>
+        <v>179</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N12" s="27" t="s">
         <v>979</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P12" s="27" t="s">
         <v>184</v>
@@ -52834,49 +54738,49 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>861</v>
+        <v>322</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>845</v>
+        <v>7</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>832</v>
+        <v>150</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>92</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>833</v>
+        <v>168</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>846</v>
+        <v>639</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>979</v>
+        <v>45</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="P13" s="27" t="s">
         <v>184</v>
@@ -52887,49 +54791,49 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>862</v>
+        <v>323</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>785</v>
+        <v>8</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>832</v>
+        <v>151</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>92</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>833</v>
+        <v>168</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>838</v>
+        <v>640</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>179</v>
+        <v>957</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M14" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N14" s="27" t="s">
         <v>979</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P14" s="27" t="s">
         <v>184</v>
@@ -52940,31 +54844,31 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>865</v>
+        <v>324</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>786</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>832</v>
+        <v>148</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>92</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>833</v>
+        <v>168</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>672</v>
+        <v>641</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>176</v>
+        <v>958</v>
       </c>
       <c r="J15" s="27" t="s">
         <v>56</v>
@@ -52979,45 +54883,45 @@
         <v>42</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>45</v>
+        <v>980</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="P15" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q15" s="27" t="s">
-        <v>43</v>
+        <v>982</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>866</v>
+        <v>325</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>787</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>832</v>
+        <v>149</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>92</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>833</v>
+        <v>168</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>839</v>
+        <v>518</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="J16" s="27" t="s">
         <v>56</v>
@@ -53032,45 +54936,45 @@
         <v>42</v>
       </c>
       <c r="N16" s="27" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P16" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q16" s="27" t="s">
-        <v>43</v>
+        <v>983</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>867</v>
+        <v>326</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>790</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>832</v>
+        <v>144</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>92</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>833</v>
+        <v>168</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>840</v>
+        <v>642</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>958</v>
+        <v>179</v>
       </c>
       <c r="J17" s="27" t="s">
         <v>56</v>
@@ -53085,45 +54989,45 @@
         <v>42</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P17" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q17" s="27" t="s">
-        <v>982</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>868</v>
+        <v>329</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>791</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>832</v>
+        <v>150</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>94</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>833</v>
+        <v>169</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>841</v>
+        <v>645</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>959</v>
+        <v>176</v>
       </c>
       <c r="J18" s="27" t="s">
         <v>56</v>
@@ -53138,45 +55042,45 @@
         <v>42</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>981</v>
+        <v>45</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="P18" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q18" s="27" t="s">
-        <v>983</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>869</v>
+        <v>330</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>788</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>832</v>
+        <v>151</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>94</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>833</v>
+        <v>169</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>842</v>
+        <v>646</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>179</v>
+        <v>957</v>
       </c>
       <c r="J19" s="27" t="s">
         <v>56</v>
@@ -53194,7 +55098,7 @@
         <v>979</v>
       </c>
       <c r="O19" s="27" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P19" s="27" t="s">
         <v>184</v>
@@ -53205,31 +55109,31 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>870</v>
+        <v>331</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>843</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>832</v>
+        <v>148</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>94</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>833</v>
+        <v>169</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>844</v>
+        <v>647</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>4</v>
+        <v>958</v>
       </c>
       <c r="J20" s="27" t="s">
         <v>56</v>
@@ -53244,45 +55148,45 @@
         <v>42</v>
       </c>
       <c r="N20" s="27" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O20" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P20" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q20" s="27" t="s">
-        <v>43</v>
+        <v>982</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>932</v>
+        <v>332</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>875</v>
+        <v>93</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>872</v>
+        <v>135</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>873</v>
+        <v>94</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>874</v>
+        <v>169</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>877</v>
+        <v>648</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>176</v>
+        <v>959</v>
       </c>
       <c r="J21" s="27" t="s">
         <v>56</v>
@@ -53297,45 +55201,45 @@
         <v>42</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>45</v>
+        <v>981</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="P21" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q21" s="27" t="s">
-        <v>43</v>
+        <v>983</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>933</v>
+        <v>333</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>875</v>
+        <v>93</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>872</v>
+        <v>135</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>873</v>
+        <v>94</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>874</v>
+        <v>169</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>878</v>
+        <v>649</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>957</v>
+        <v>179</v>
       </c>
       <c r="J22" s="27" t="s">
         <v>56</v>
@@ -53353,7 +55257,7 @@
         <v>979</v>
       </c>
       <c r="O22" s="27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P22" s="27" t="s">
         <v>184</v>
@@ -53364,31 +55268,31 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>934</v>
+        <v>336</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>875</v>
+        <v>95</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>872</v>
+        <v>136</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>873</v>
+        <v>96</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>874</v>
+        <v>170</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>879</v>
+        <v>652</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J23" s="27" t="s">
         <v>56</v>
@@ -53403,10 +55307,10 @@
         <v>42</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>979</v>
+        <v>45</v>
       </c>
       <c r="O23" s="27" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="P23" s="27" t="s">
         <v>184</v>
@@ -53417,49 +55321,49 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>937</v>
+        <v>849</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>7</v>
+        <v>784</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>883</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>880</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>882</v>
+        <v>151</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>819</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>821</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>881</v>
+        <v>818</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>886</v>
+        <v>999</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>176</v>
+        <v>957</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L24" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M24" s="27" t="s">
         <v>192</v>
       </c>
       <c r="N24" s="27" t="s">
-        <v>45</v>
+        <v>979</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="P24" s="27" t="s">
         <v>184</v>
@@ -53470,40 +55374,40 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>938</v>
+        <v>850</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>8</v>
+        <v>785</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>883</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>880</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>882</v>
+        <v>144</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>819</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>821</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>881</v>
+        <v>818</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>887</v>
+        <v>1000</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>957</v>
+        <v>179</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L25" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M25" s="27" t="s">
         <v>192</v>
@@ -53512,7 +55416,7 @@
         <v>979</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P25" s="27" t="s">
         <v>184</v>
@@ -53523,31 +55427,31 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>939</v>
+        <v>853</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>883</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>880</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>882</v>
+        <v>786</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>819</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>821</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>881</v>
+        <v>818</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>888</v>
+        <v>826</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>958</v>
+        <v>176</v>
       </c>
       <c r="J26" s="27" t="s">
         <v>56</v>
@@ -53559,48 +55463,48 @@
         <v>41</v>
       </c>
       <c r="M26" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N26" s="27" t="s">
-        <v>980</v>
+        <v>45</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="P26" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q26" s="27" t="s">
-        <v>982</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>940</v>
+        <v>854</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>883</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>880</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>882</v>
+        <v>787</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>819</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>821</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>881</v>
+        <v>818</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>889</v>
+        <v>827</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J27" s="27" t="s">
         <v>56</v>
@@ -53612,48 +55516,48 @@
         <v>41</v>
       </c>
       <c r="M27" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N27" s="27" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="O27" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P27" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q27" s="27" t="s">
-        <v>983</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>941</v>
+        <v>855</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>883</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>880</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>882</v>
+        <v>790</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>819</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>821</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>881</v>
+        <v>818</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>890</v>
+        <v>828</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>179</v>
+        <v>958</v>
       </c>
       <c r="J28" s="27" t="s">
         <v>56</v>
@@ -53665,119 +55569,119 @@
         <v>41</v>
       </c>
       <c r="M28" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N28" s="27" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O28" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P28" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q28" s="27" t="s">
-        <v>43</v>
+        <v>982</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>944</v>
+        <v>856</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>891</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>892</v>
+        <v>791</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>819</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>821</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>893</v>
+        <v>818</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>708</v>
+        <v>829</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>176</v>
+        <v>959</v>
       </c>
       <c r="J29" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L29" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N29" s="27" t="s">
-        <v>45</v>
+        <v>981</v>
       </c>
       <c r="O29" s="27" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="P29" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q29" s="27" t="s">
-        <v>43</v>
+        <v>983</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>945</v>
+        <v>857</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>891</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>892</v>
+        <v>788</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>819</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>821</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>893</v>
+        <v>818</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>709</v>
+        <v>830</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>957</v>
+        <v>179</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L30" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M30" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N30" s="27" t="s">
         <v>979</v>
       </c>
       <c r="O30" s="27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P30" s="27" t="s">
         <v>184</v>
@@ -53788,31 +55692,31 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
-        <v>946</v>
+        <v>859</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>9</v>
+        <v>783</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>891</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>892</v>
+        <v>150</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>893</v>
+        <v>833</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>710</v>
+        <v>836</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>958</v>
+        <v>176</v>
       </c>
       <c r="J31" s="27" t="s">
         <v>192</v>
@@ -53827,45 +55731,45 @@
         <v>192</v>
       </c>
       <c r="N31" s="27" t="s">
-        <v>980</v>
+        <v>45</v>
       </c>
       <c r="O31" s="27" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="P31" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q31" s="27" t="s">
-        <v>982</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>947</v>
+        <v>860</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>10</v>
+        <v>784</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>891</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>892</v>
+        <v>151</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>893</v>
+        <v>833</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>711</v>
+        <v>837</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J32" s="27" t="s">
         <v>192</v>
@@ -53880,45 +55784,45 @@
         <v>192</v>
       </c>
       <c r="N32" s="27" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="O32" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P32" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q32" s="27" t="s">
-        <v>983</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
-        <v>948</v>
+        <v>861</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>11</v>
+        <v>845</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>891</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>892</v>
+        <v>147</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>893</v>
+        <v>833</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>712</v>
+        <v>846</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>179</v>
+        <v>4</v>
       </c>
       <c r="J33" s="27" t="s">
         <v>192</v>
@@ -53936,7 +55840,7 @@
         <v>979</v>
       </c>
       <c r="O33" s="27" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P33" s="27" t="s">
         <v>184</v>
@@ -53947,49 +55851,49 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
-        <v>973</v>
+        <v>862</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>7</v>
+        <v>785</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>963</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>961</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>960</v>
+        <v>144</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>962</v>
+        <v>833</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>966</v>
+        <v>838</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="J34" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L34" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M34" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N34" s="27" t="s">
-        <v>45</v>
+        <v>979</v>
       </c>
       <c r="O34" s="27" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="P34" s="27" t="s">
         <v>184</v>
@@ -54000,31 +55904,31 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
-        <v>974</v>
+        <v>865</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>963</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>961</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>960</v>
+        <v>786</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>962</v>
+        <v>833</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>967</v>
+        <v>672</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>957</v>
+        <v>176</v>
       </c>
       <c r="J35" s="27" t="s">
         <v>56</v>
@@ -54039,10 +55943,10 @@
         <v>42</v>
       </c>
       <c r="N35" s="27" t="s">
-        <v>979</v>
+        <v>45</v>
       </c>
       <c r="O35" s="27" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="P35" s="27" t="s">
         <v>184</v>
@@ -54053,31 +55957,31 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
-        <v>975</v>
+        <v>866</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>963</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>961</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>960</v>
+        <v>787</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>962</v>
+        <v>833</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>968</v>
+        <v>839</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J36" s="27" t="s">
         <v>56</v>
@@ -54092,45 +55996,45 @@
         <v>42</v>
       </c>
       <c r="N36" s="27" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O36" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P36" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q36" s="27" t="s">
-        <v>982</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
-        <v>976</v>
+        <v>867</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>963</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>961</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>960</v>
+        <v>790</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>962</v>
+        <v>833</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>969</v>
+        <v>840</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J37" s="27" t="s">
         <v>56</v>
@@ -54145,45 +56049,45 @@
         <v>42</v>
       </c>
       <c r="N37" s="27" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O37" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P37" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q37" s="27" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
-        <v>977</v>
+        <v>868</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>963</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>961</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>960</v>
+        <v>791</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>962</v>
+        <v>833</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>970</v>
+        <v>841</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>179</v>
+        <v>959</v>
       </c>
       <c r="J38" s="27" t="s">
         <v>56</v>
@@ -54198,63 +56102,63 @@
         <v>42</v>
       </c>
       <c r="N38" s="27" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="O38" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P38" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q38" s="27" t="s">
-        <v>43</v>
+        <v>983</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
-        <v>1006</v>
+        <v>869</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>1002</v>
+        <v>788</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>1001</v>
+        <v>833</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>1013</v>
+        <v>842</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J39" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L39" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M39" s="27" t="s">
         <v>42</v>
       </c>
       <c r="N39" s="27" t="s">
-        <v>45</v>
+        <v>979</v>
       </c>
       <c r="O39" s="27" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="P39" s="27" t="s">
         <v>184</v>
@@ -54265,40 +56169,40 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
-        <v>1007</v>
+        <v>870</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>1002</v>
+        <v>843</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>1001</v>
+        <v>833</v>
       </c>
       <c r="H40" s="27" t="s">
-        <v>1014</v>
+        <v>844</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>957</v>
+        <v>4</v>
       </c>
       <c r="J40" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K40" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L40" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M40" s="27" t="s">
         <v>42</v>
@@ -54318,113 +56222,113 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
-        <v>1008</v>
+        <v>932</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>1002</v>
+        <v>875</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>1003</v>
+        <v>872</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>1002</v>
+        <v>873</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>1001</v>
+        <v>874</v>
       </c>
       <c r="H41" s="27" t="s">
-        <v>1015</v>
+        <v>877</v>
       </c>
       <c r="I41" s="28" t="s">
-        <v>958</v>
+        <v>176</v>
       </c>
       <c r="J41" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K41" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L41" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M41" s="27" t="s">
         <v>42</v>
       </c>
       <c r="N41" s="27" t="s">
-        <v>980</v>
+        <v>45</v>
       </c>
       <c r="O41" s="27" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="P41" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q41" s="27" t="s">
-        <v>982</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
-        <v>1009</v>
+        <v>933</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>1002</v>
+        <v>875</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>1003</v>
+        <v>872</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>1002</v>
+        <v>873</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>1001</v>
+        <v>874</v>
       </c>
       <c r="H42" s="27" t="s">
-        <v>690</v>
+        <v>878</v>
       </c>
       <c r="I42" s="28" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J42" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K42" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L42" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M42" s="27" t="s">
         <v>42</v>
       </c>
       <c r="N42" s="27" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="O42" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P42" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q42" s="27" t="s">
-        <v>983</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
-        <v>1010</v>
+        <v>934</v>
       </c>
       <c r="B43" s="26" t="s">
         <v>11</v>
@@ -54433,31 +56337,31 @@
         <v>144</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>1002</v>
+        <v>875</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>1003</v>
+        <v>872</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>1002</v>
+        <v>873</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>1001</v>
+        <v>874</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>1016</v>
+        <v>879</v>
       </c>
       <c r="I43" s="28" t="s">
         <v>179</v>
       </c>
       <c r="J43" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K43" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L43" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M43" s="27" t="s">
         <v>42</v>
@@ -54472,6 +56376,1066 @@
         <v>184</v>
       </c>
       <c r="Q43" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="32" t="s">
+        <v>937</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>883</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>880</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>882</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>881</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>886</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K44" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L44" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M44" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N44" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O44" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="P44" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q44" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="32" t="s">
+        <v>938</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>883</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>880</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>882</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>881</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>887</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>957</v>
+      </c>
+      <c r="J45" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L45" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M45" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N45" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O45" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="P45" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q45" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="32" t="s">
+        <v>939</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>883</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>880</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>882</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>881</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>888</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>958</v>
+      </c>
+      <c r="J46" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L46" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M46" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N46" s="27" t="s">
+        <v>980</v>
+      </c>
+      <c r="O46" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P46" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q46" s="27" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="32" t="s">
+        <v>940</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>883</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>880</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>882</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>881</v>
+      </c>
+      <c r="H47" s="27" t="s">
+        <v>889</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>959</v>
+      </c>
+      <c r="J47" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K47" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L47" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M47" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N47" s="27" t="s">
+        <v>981</v>
+      </c>
+      <c r="O47" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P47" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q47" s="27" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="32" t="s">
+        <v>941</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>883</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>880</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>882</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>881</v>
+      </c>
+      <c r="H48" s="27" t="s">
+        <v>890</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J48" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K48" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L48" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M48" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N48" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O48" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P48" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q48" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="32" t="s">
+        <v>944</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>891</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>893</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>708</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J49" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K49" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L49" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M49" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N49" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O49" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="P49" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q49" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="32" t="s">
+        <v>945</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>891</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>893</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>709</v>
+      </c>
+      <c r="I50" s="28" t="s">
+        <v>957</v>
+      </c>
+      <c r="J50" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K50" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L50" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M50" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N50" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O50" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="P50" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q50" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="32" t="s">
+        <v>946</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>891</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>893</v>
+      </c>
+      <c r="H51" s="27" t="s">
+        <v>710</v>
+      </c>
+      <c r="I51" s="28" t="s">
+        <v>958</v>
+      </c>
+      <c r="J51" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K51" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L51" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M51" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N51" s="27" t="s">
+        <v>980</v>
+      </c>
+      <c r="O51" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P51" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q51" s="27" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="32" t="s">
+        <v>947</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>891</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>893</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>711</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>959</v>
+      </c>
+      <c r="J52" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K52" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L52" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M52" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N52" s="27" t="s">
+        <v>981</v>
+      </c>
+      <c r="O52" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P52" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q52" s="27" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="32" t="s">
+        <v>948</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>891</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>893</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>712</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J53" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K53" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L53" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M53" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N53" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O53" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P53" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q53" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="32" t="s">
+        <v>973</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>963</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>961</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>960</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>962</v>
+      </c>
+      <c r="H54" s="27" t="s">
+        <v>966</v>
+      </c>
+      <c r="I54" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="J54" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K54" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L54" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M54" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N54" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O54" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="P54" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q54" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="32" t="s">
+        <v>974</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>963</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>961</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>960</v>
+      </c>
+      <c r="G55" s="28" t="s">
+        <v>962</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>967</v>
+      </c>
+      <c r="I55" s="28" t="s">
+        <v>957</v>
+      </c>
+      <c r="J55" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K55" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L55" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M55" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N55" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O55" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="P55" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q55" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="32" t="s">
+        <v>975</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>963</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>961</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>960</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>962</v>
+      </c>
+      <c r="H56" s="27" t="s">
+        <v>968</v>
+      </c>
+      <c r="I56" s="28" t="s">
+        <v>958</v>
+      </c>
+      <c r="J56" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K56" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L56" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M56" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N56" s="27" t="s">
+        <v>980</v>
+      </c>
+      <c r="O56" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P56" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q56" s="27" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="32" t="s">
+        <v>976</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>963</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>961</v>
+      </c>
+      <c r="F57" s="27" t="s">
+        <v>960</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>962</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>969</v>
+      </c>
+      <c r="I57" s="28" t="s">
+        <v>959</v>
+      </c>
+      <c r="J57" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K57" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L57" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M57" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N57" s="27" t="s">
+        <v>981</v>
+      </c>
+      <c r="O57" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P57" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q57" s="27" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="32" t="s">
+        <v>977</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>963</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>961</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>960</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>962</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>970</v>
+      </c>
+      <c r="I58" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J58" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K58" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L58" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M58" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N58" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O58" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P58" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q58" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="32" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H59" s="27" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I59" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J59" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K59" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L59" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M59" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N59" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O59" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="P59" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q59" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="32" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H60" s="27" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I60" s="28" t="s">
+        <v>957</v>
+      </c>
+      <c r="J60" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K60" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L60" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M60" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N60" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O60" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="P60" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q60" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="32" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I61" s="28" t="s">
+        <v>958</v>
+      </c>
+      <c r="J61" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K61" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L61" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M61" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N61" s="27" t="s">
+        <v>980</v>
+      </c>
+      <c r="O61" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P61" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q61" s="27" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="32" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H62" s="27" t="s">
+        <v>690</v>
+      </c>
+      <c r="I62" s="28" t="s">
+        <v>959</v>
+      </c>
+      <c r="J62" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K62" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L62" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M62" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N62" s="27" t="s">
+        <v>981</v>
+      </c>
+      <c r="O62" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P62" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q62" s="27" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="32" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I63" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J63" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K63" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L63" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M63" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N63" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O63" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P63" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q63" s="27" t="s">
         <v>43</v>
       </c>
     </row>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022_MS_PlanDetails_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022_MS_PlanDetails_PRE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mratdd_New\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F138A8-7CFE-48B4-B37F-8D34A5D25F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ED129C-B0C5-4EDE-B909-524326269EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Unique list" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,8 @@
     <sheet name="PREBENEFITS_UAT" sheetId="11" r:id="rId7"/>
     <sheet name="PREBENEFITS_Temp" sheetId="10" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PREBENEFITS!$A$1:$S$242</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PREBENEFITS!$A$1:$R$242</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PREBENEFITS_Source!$A$1:$R$337</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">PREBENEFITS_UAT!$B$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PREBENEFITS1!$A$1:$R$101</definedName>
@@ -52,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16161" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16245" uniqueCount="1022">
   <si>
     <t>name</t>
   </si>
@@ -3151,9 +3148,6 @@
   </si>
   <si>
     <t>64.75*</t>
-  </si>
-  <si>
-    <t>L</t>
   </si>
 </sst>
 </file>
@@ -3322,7 +3316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3345,23 +3339,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -3446,9 +3429,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3465,915 +3445,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="PREPlanBenefitsResults"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>MS3</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>MS4</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>MS5</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>MS6</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>MS7</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>MS10</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>MS11</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>MS12</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>MS13</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>MS14</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>MS17</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>MS18</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>MS19</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>MS20</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>MS21</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>MS24</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>MS25</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>MS26</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>MS27</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>MS28</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>MS31</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>MS32</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>MS33</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>MS34</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>MS35</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>MS38</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>MS39</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>MS40</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>MS41</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>MS42</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>MS45</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>MS46</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>MS47</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>MS48</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>MS49</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>MS52</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>MS53</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>MS54</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>MS55</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>MS56</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>MS59</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>MS60</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>MS61</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>MS62</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>MS63</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>MS66</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>MS67</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>MS68</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>MS69</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>MS70</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>MS73</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>MS74</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>MS75</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>MS76</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56" t="str">
-            <v>MS77</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>MS80</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>MS81</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>MS82</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
-            <v>MS83</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>MS84</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v>MS87</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>MS88</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>MS89</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>MS90</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v>MS91</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
-            <v>MS94</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>MS95</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69" t="str">
-            <v>MS96</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70" t="str">
-            <v>MS97</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71" t="str">
-            <v>MS98</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72" t="str">
-            <v>MS101</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73" t="str">
-            <v>MS102</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74" t="str">
-            <v>MS103</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75" t="str">
-            <v>MS104</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76" t="str">
-            <v>MS105</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77" t="str">
-            <v>MS108</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78" t="str">
-            <v>MS109</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79" t="str">
-            <v>MS110</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80" t="str">
-            <v>MS111</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81" t="str">
-            <v>MS144</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82" t="str">
-            <v>MS145</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83" t="str">
-            <v>MS146</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84" t="str">
-            <v>MS147</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85" t="str">
-            <v>MS150</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86" t="str">
-            <v>MS151</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87" t="str">
-            <v>MS152</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88" t="str">
-            <v>MS153</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89" t="str">
-            <v>MS154</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90" t="str">
-            <v>MS157</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91" t="str">
-            <v>MS158</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92" t="str">
-            <v>MS159</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93" t="str">
-            <v>MS160</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94" t="str">
-            <v>MS161</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95" t="str">
-            <v>MS164</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96" t="str">
-            <v>MS165</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97" t="str">
-            <v>MS166</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98" t="str">
-            <v>MS167</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99" t="str">
-            <v>MS168</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100" t="str">
-            <v>MS171</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101" t="str">
-            <v>MS172</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102" t="str">
-            <v>MS173</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103" t="str">
-            <v>MS174</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104" t="str">
-            <v>MS175</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105" t="str">
-            <v>MS178</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106" t="str">
-            <v>MS179</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107" t="str">
-            <v>MS180</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108" t="str">
-            <v>MS181</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109" t="str">
-            <v>MS182</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110" t="str">
-            <v>MS183</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111" t="str">
-            <v>MS186</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112" t="str">
-            <v>MS187</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113" t="str">
-            <v>MS188</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114" t="str">
-            <v>MS189</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115" t="str">
-            <v>MS190</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116" t="str">
-            <v>MS191</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117" t="str">
-            <v>MS194</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118" t="str">
-            <v>MS195</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119" t="str">
-            <v>MS196</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120" t="str">
-            <v>MS197</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121" t="str">
-            <v>MS198</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122" t="str">
-            <v>MS201</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123" t="str">
-            <v>MS202</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124" t="str">
-            <v>MS203</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125" t="str">
-            <v>MS204</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126" t="str">
-            <v>MS205</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127" t="str">
-            <v>MS208</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128" t="str">
-            <v>MS209</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129" t="str">
-            <v>MS210</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130" t="str">
-            <v>MS211</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131" t="str">
-            <v>MS212</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132" t="str">
-            <v>MS215</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133" t="str">
-            <v>MS216</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134" t="str">
-            <v>MS217</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135" t="str">
-            <v>MS218</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136" t="str">
-            <v>MS219</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137" t="str">
-            <v>MS222</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138" t="str">
-            <v>MS223</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139" t="str">
-            <v>MS224</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140" t="str">
-            <v>MS225</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141" t="str">
-            <v>MS226</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142" t="str">
-            <v>MS229</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143" t="str">
-            <v>MS230</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144" t="str">
-            <v>MS231</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145" t="str">
-            <v>MS232</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146" t="str">
-            <v>MS233</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147" t="str">
-            <v>MS236</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148" t="str">
-            <v>MS237</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="A149" t="str">
-            <v>MS238</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="A150" t="str">
-            <v>MS239</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="A151" t="str">
-            <v>MS240</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152" t="str">
-            <v>MS243</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="A153" t="str">
-            <v>MS244</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="A154" t="str">
-            <v>MS245</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="A155" t="str">
-            <v>MS246</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="A156" t="str">
-            <v>MS247</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="A157" t="str">
-            <v>MS250</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="A158" t="str">
-            <v>MS251</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="A159" t="str">
-            <v>MS252</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="A160" t="str">
-            <v>MS253</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="A161" t="str">
-            <v>MS254</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="A162" t="str">
-            <v>MS257</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="A163" t="str">
-            <v>MS258</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="A164" t="str">
-            <v>MS259</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="A165" t="str">
-            <v>MS260</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="A166" t="str">
-            <v>MS261</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="A167" t="str">
-            <v>MS264</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="A168" t="str">
-            <v>MS265</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="A169" t="str">
-            <v>MS266</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="A170" t="str">
-            <v>MS267</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="A171" t="str">
-            <v>MS268</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="A172" t="str">
-            <v>MS270</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="A173" t="str">
-            <v>MS271</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="A174" t="str">
-            <v>MS272</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="A175" t="str">
-            <v>MS275</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="A176" t="str">
-            <v>MS276</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="A177" t="str">
-            <v>MS277</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="A178" t="str">
-            <v>MS278</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="A179" t="str">
-            <v>MS279</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="A180" t="str">
-            <v>MS281</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5955,9 +5026,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075D2F52-651D-4DC7-9A3A-1A35D081C6D9}">
   <dimension ref="A1:R344"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A340" sqref="A340:Q344"/>
+    <sheetView topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24445,12 +23516,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A58EE3-C3E7-4BCE-95F4-8F8F3E204C34}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:S242"/>
+  <dimension ref="A1:R242"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81:Q242"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24474,7 +23544,7 @@
     <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>193</v>
       </c>
@@ -24529,11 +23599,8 @@
       <c r="R1" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="S1" s="34" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>196</v>
       </c>
@@ -24586,12 +23653,8 @@
         <v>43</v>
       </c>
       <c r="R2" s="32"/>
-      <c r="S2" t="str">
-        <f>VLOOKUP(A2,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>197</v>
       </c>
@@ -24644,12 +23707,8 @@
         <v>43</v>
       </c>
       <c r="R3" s="32"/>
-      <c r="S3" t="str">
-        <f>VLOOKUP(A3,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>198</v>
       </c>
@@ -24702,12 +23761,8 @@
         <v>982</v>
       </c>
       <c r="R4" s="32"/>
-      <c r="S4" t="str">
-        <f>VLOOKUP(A4,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>199</v>
       </c>
@@ -24760,12 +23815,8 @@
         <v>983</v>
       </c>
       <c r="R5" s="32"/>
-      <c r="S5" t="str">
-        <f>VLOOKUP(A5,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>200</v>
       </c>
@@ -24818,12 +23869,8 @@
         <v>43</v>
       </c>
       <c r="R6" s="32"/>
-      <c r="S6" t="str">
-        <f>VLOOKUP(A6,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>203</v>
       </c>
@@ -24876,12 +23923,8 @@
         <v>43</v>
       </c>
       <c r="R7" s="32"/>
-      <c r="S7" t="str">
-        <f>VLOOKUP(A7,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>204</v>
       </c>
@@ -24934,12 +23977,8 @@
         <v>43</v>
       </c>
       <c r="R8" s="32"/>
-      <c r="S8" t="str">
-        <f>VLOOKUP(A8,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>205</v>
       </c>
@@ -24992,12 +24031,8 @@
         <v>982</v>
       </c>
       <c r="R9" s="32"/>
-      <c r="S9" t="str">
-        <f>VLOOKUP(A9,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>206</v>
       </c>
@@ -25050,12 +24085,8 @@
         <v>983</v>
       </c>
       <c r="R10" s="32"/>
-      <c r="S10" t="str">
-        <f>VLOOKUP(A10,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>207</v>
       </c>
@@ -25108,12 +24139,8 @@
         <v>43</v>
       </c>
       <c r="R11" s="32"/>
-      <c r="S11" t="str">
-        <f>VLOOKUP(A11,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>210</v>
       </c>
@@ -25166,12 +24193,8 @@
         <v>43</v>
       </c>
       <c r="R12" s="32"/>
-      <c r="S12" t="str">
-        <f>VLOOKUP(A12,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>211</v>
       </c>
@@ -25224,12 +24247,8 @@
         <v>43</v>
       </c>
       <c r="R13" s="32"/>
-      <c r="S13" t="str">
-        <f>VLOOKUP(A13,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>212</v>
       </c>
@@ -25282,12 +24301,8 @@
         <v>982</v>
       </c>
       <c r="R14" s="32"/>
-      <c r="S14" t="str">
-        <f>VLOOKUP(A14,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>213</v>
       </c>
@@ -25340,12 +24355,8 @@
         <v>983</v>
       </c>
       <c r="R15" s="32"/>
-      <c r="S15" t="str">
-        <f>VLOOKUP(A15,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>214</v>
       </c>
@@ -25398,12 +24409,8 @@
         <v>43</v>
       </c>
       <c r="R16" s="32"/>
-      <c r="S16" t="str">
-        <f>VLOOKUP(A16,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>217</v>
       </c>
@@ -25456,12 +24463,8 @@
         <v>43</v>
       </c>
       <c r="R17" s="32"/>
-      <c r="S17" t="str">
-        <f>VLOOKUP(A17,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>218</v>
       </c>
@@ -25514,12 +24517,8 @@
         <v>43</v>
       </c>
       <c r="R18" s="32"/>
-      <c r="S18" t="str">
-        <f>VLOOKUP(A18,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>219</v>
       </c>
@@ -25572,12 +24571,8 @@
         <v>982</v>
       </c>
       <c r="R19" s="32"/>
-      <c r="S19" t="str">
-        <f>VLOOKUP(A19,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>220</v>
       </c>
@@ -25630,12 +24625,8 @@
         <v>983</v>
       </c>
       <c r="R20" s="32"/>
-      <c r="S20" t="str">
-        <f>VLOOKUP(A20,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>221</v>
       </c>
@@ -25688,12 +24679,8 @@
         <v>43</v>
       </c>
       <c r="R21" s="32"/>
-      <c r="S21" t="str">
-        <f>VLOOKUP(A21,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>224</v>
       </c>
@@ -25746,12 +24733,8 @@
         <v>43</v>
       </c>
       <c r="R22" s="32"/>
-      <c r="S22" t="str">
-        <f>VLOOKUP(A22,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>225</v>
       </c>
@@ -25804,12 +24787,8 @@
         <v>43</v>
       </c>
       <c r="R23" s="32"/>
-      <c r="S23" t="str">
-        <f>VLOOKUP(A23,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>226</v>
       </c>
@@ -25862,12 +24841,8 @@
         <v>982</v>
       </c>
       <c r="R24" s="32"/>
-      <c r="S24" t="str">
-        <f>VLOOKUP(A24,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>227</v>
       </c>
@@ -25920,12 +24895,8 @@
         <v>983</v>
       </c>
       <c r="R25" s="32"/>
-      <c r="S25" t="str">
-        <f>VLOOKUP(A25,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>228</v>
       </c>
@@ -25978,12 +24949,8 @@
         <v>43</v>
       </c>
       <c r="R26" s="32"/>
-      <c r="S26" t="str">
-        <f>VLOOKUP(A26,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>231</v>
       </c>
@@ -26036,12 +25003,8 @@
         <v>43</v>
       </c>
       <c r="R27" s="32"/>
-      <c r="S27" t="str">
-        <f>VLOOKUP(A27,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>232</v>
       </c>
@@ -26094,12 +25057,8 @@
         <v>43</v>
       </c>
       <c r="R28" s="32"/>
-      <c r="S28" t="str">
-        <f>VLOOKUP(A28,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>233</v>
       </c>
@@ -26152,12 +25111,8 @@
         <v>982</v>
       </c>
       <c r="R29" s="32"/>
-      <c r="S29" t="str">
-        <f>VLOOKUP(A29,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>234</v>
       </c>
@@ -26210,12 +25165,8 @@
         <v>983</v>
       </c>
       <c r="R30" s="32"/>
-      <c r="S30" t="str">
-        <f>VLOOKUP(A30,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>235</v>
       </c>
@@ -26268,12 +25219,8 @@
         <v>43</v>
       </c>
       <c r="R31" s="32"/>
-      <c r="S31" t="str">
-        <f>VLOOKUP(A31,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>238</v>
       </c>
@@ -26326,12 +25273,8 @@
         <v>43</v>
       </c>
       <c r="R32" s="32"/>
-      <c r="S32" t="str">
-        <f>VLOOKUP(A32,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>239</v>
       </c>
@@ -26384,12 +25327,8 @@
         <v>43</v>
       </c>
       <c r="R33" s="32"/>
-      <c r="S33" t="str">
-        <f>VLOOKUP(A33,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>240</v>
       </c>
@@ -26442,12 +25381,8 @@
         <v>982</v>
       </c>
       <c r="R34" s="32"/>
-      <c r="S34" t="str">
-        <f>VLOOKUP(A34,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>241</v>
       </c>
@@ -26500,12 +25435,8 @@
         <v>983</v>
       </c>
       <c r="R35" s="32"/>
-      <c r="S35" t="str">
-        <f>VLOOKUP(A35,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>242</v>
       </c>
@@ -26558,12 +25489,8 @@
         <v>43</v>
       </c>
       <c r="R36" s="32"/>
-      <c r="S36" t="str">
-        <f>VLOOKUP(A36,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
         <v>245</v>
       </c>
@@ -26616,12 +25543,8 @@
         <v>43</v>
       </c>
       <c r="R37" s="32"/>
-      <c r="S37" t="str">
-        <f>VLOOKUP(A37,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>246</v>
       </c>
@@ -26674,12 +25597,8 @@
         <v>43</v>
       </c>
       <c r="R38" s="32"/>
-      <c r="S38" t="str">
-        <f>VLOOKUP(A38,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>247</v>
       </c>
@@ -26732,12 +25651,8 @@
         <v>982</v>
       </c>
       <c r="R39" s="32"/>
-      <c r="S39" t="str">
-        <f>VLOOKUP(A39,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>248</v>
       </c>
@@ -26790,12 +25705,8 @@
         <v>983</v>
       </c>
       <c r="R40" s="32"/>
-      <c r="S40" t="str">
-        <f>VLOOKUP(A40,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>249</v>
       </c>
@@ -26848,12 +25759,8 @@
         <v>43</v>
       </c>
       <c r="R41" s="32"/>
-      <c r="S41" t="str">
-        <f>VLOOKUP(A41,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>252</v>
       </c>
@@ -26906,12 +25813,8 @@
         <v>43</v>
       </c>
       <c r="R42" s="32"/>
-      <c r="S42" t="str">
-        <f>VLOOKUP(A42,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
         <v>253</v>
       </c>
@@ -26964,12 +25867,8 @@
         <v>43</v>
       </c>
       <c r="R43" s="32"/>
-      <c r="S43" t="str">
-        <f>VLOOKUP(A43,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
         <v>254</v>
       </c>
@@ -27022,12 +25921,8 @@
         <v>982</v>
       </c>
       <c r="R44" s="32"/>
-      <c r="S44" t="str">
-        <f>VLOOKUP(A44,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>255</v>
       </c>
@@ -27080,12 +25975,8 @@
         <v>983</v>
       </c>
       <c r="R45" s="32"/>
-      <c r="S45" t="str">
-        <f>VLOOKUP(A45,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>256</v>
       </c>
@@ -27138,12 +26029,8 @@
         <v>43</v>
       </c>
       <c r="R46" s="32"/>
-      <c r="S46" t="str">
-        <f>VLOOKUP(A46,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
         <v>259</v>
       </c>
@@ -27196,12 +26083,8 @@
         <v>43</v>
       </c>
       <c r="R47" s="32"/>
-      <c r="S47" t="str">
-        <f>VLOOKUP(A47,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
         <v>260</v>
       </c>
@@ -27254,12 +26137,8 @@
         <v>43</v>
       </c>
       <c r="R48" s="32"/>
-      <c r="S48" t="str">
-        <f>VLOOKUP(A48,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
         <v>261</v>
       </c>
@@ -27312,12 +26191,8 @@
         <v>982</v>
       </c>
       <c r="R49" s="32"/>
-      <c r="S49" t="str">
-        <f>VLOOKUP(A49,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
         <v>262</v>
       </c>
@@ -27370,12 +26245,8 @@
         <v>983</v>
       </c>
       <c r="R50" s="32"/>
-      <c r="S50" t="str">
-        <f>VLOOKUP(A50,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
         <v>263</v>
       </c>
@@ -27428,12 +26299,8 @@
         <v>43</v>
       </c>
       <c r="R51" s="32"/>
-      <c r="S51" t="str">
-        <f>VLOOKUP(A51,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
         <v>266</v>
       </c>
@@ -27486,12 +26353,8 @@
         <v>43</v>
       </c>
       <c r="R52" s="32"/>
-      <c r="S52" t="str">
-        <f>VLOOKUP(A52,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
         <v>267</v>
       </c>
@@ -27544,12 +26407,8 @@
         <v>43</v>
       </c>
       <c r="R53" s="32"/>
-      <c r="S53" t="str">
-        <f>VLOOKUP(A53,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>268</v>
       </c>
@@ -27602,12 +26461,8 @@
         <v>982</v>
       </c>
       <c r="R54" s="32"/>
-      <c r="S54" t="str">
-        <f>VLOOKUP(A54,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
         <v>269</v>
       </c>
@@ -27660,12 +26515,8 @@
         <v>983</v>
       </c>
       <c r="R55" s="32"/>
-      <c r="S55" t="str">
-        <f>VLOOKUP(A55,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
         <v>270</v>
       </c>
@@ -27718,12 +26569,8 @@
         <v>43</v>
       </c>
       <c r="R56" s="32"/>
-      <c r="S56" t="str">
-        <f>VLOOKUP(A56,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
         <v>273</v>
       </c>
@@ -27776,12 +26623,8 @@
         <v>43</v>
       </c>
       <c r="R57" s="32"/>
-      <c r="S57" t="str">
-        <f>VLOOKUP(A57,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
         <v>274</v>
       </c>
@@ -27834,12 +26677,8 @@
         <v>43</v>
       </c>
       <c r="R58" s="32"/>
-      <c r="S58" t="str">
-        <f>VLOOKUP(A58,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
         <v>275</v>
       </c>
@@ -27892,12 +26731,8 @@
         <v>982</v>
       </c>
       <c r="R59" s="32"/>
-      <c r="S59" t="str">
-        <f>VLOOKUP(A59,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
         <v>276</v>
       </c>
@@ -27950,12 +26785,8 @@
         <v>983</v>
       </c>
       <c r="R60" s="32"/>
-      <c r="S60" t="str">
-        <f>VLOOKUP(A60,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
         <v>277</v>
       </c>
@@ -28008,12 +26839,8 @@
         <v>43</v>
       </c>
       <c r="R61" s="32"/>
-      <c r="S61" t="str">
-        <f>VLOOKUP(A61,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
         <v>280</v>
       </c>
@@ -28066,12 +26893,8 @@
         <v>43</v>
       </c>
       <c r="R62" s="32"/>
-      <c r="S62" t="str">
-        <f>VLOOKUP(A62,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="32" t="s">
         <v>281</v>
       </c>
@@ -28124,12 +26947,8 @@
         <v>43</v>
       </c>
       <c r="R63" s="32"/>
-      <c r="S63" t="str">
-        <f>VLOOKUP(A63,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
         <v>282</v>
       </c>
@@ -28182,12 +27001,8 @@
         <v>982</v>
       </c>
       <c r="R64" s="32"/>
-      <c r="S64" t="str">
-        <f>VLOOKUP(A64,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="32" t="s">
         <v>283</v>
       </c>
@@ -28240,12 +27055,8 @@
         <v>983</v>
       </c>
       <c r="R65" s="32"/>
-      <c r="S65" t="str">
-        <f>VLOOKUP(A65,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="32" t="s">
         <v>284</v>
       </c>
@@ -28298,12 +27109,8 @@
         <v>43</v>
       </c>
       <c r="R66" s="32"/>
-      <c r="S66" t="str">
-        <f>VLOOKUP(A66,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="32" t="s">
         <v>287</v>
       </c>
@@ -28356,12 +27163,8 @@
         <v>43</v>
       </c>
       <c r="R67" s="32"/>
-      <c r="S67" t="str">
-        <f>VLOOKUP(A67,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
         <v>288</v>
       </c>
@@ -28414,12 +27217,8 @@
         <v>43</v>
       </c>
       <c r="R68" s="32"/>
-      <c r="S68" t="str">
-        <f>VLOOKUP(A68,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="32" t="s">
         <v>289</v>
       </c>
@@ -28472,12 +27271,8 @@
         <v>982</v>
       </c>
       <c r="R69" s="32"/>
-      <c r="S69" t="str">
-        <f>VLOOKUP(A69,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
         <v>290</v>
       </c>
@@ -28530,12 +27325,8 @@
         <v>983</v>
       </c>
       <c r="R70" s="32"/>
-      <c r="S70" t="str">
-        <f>VLOOKUP(A70,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
         <v>291</v>
       </c>
@@ -28588,12 +27379,8 @@
         <v>43</v>
       </c>
       <c r="R71" s="32"/>
-      <c r="S71" t="str">
-        <f>VLOOKUP(A71,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="32" t="s">
         <v>294</v>
       </c>
@@ -28646,12 +27433,8 @@
         <v>43</v>
       </c>
       <c r="R72" s="32"/>
-      <c r="S72" t="str">
-        <f>VLOOKUP(A72,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="32" t="s">
         <v>295</v>
       </c>
@@ -28704,12 +27487,8 @@
         <v>43</v>
       </c>
       <c r="R73" s="32"/>
-      <c r="S73" t="str">
-        <f>VLOOKUP(A73,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="32" t="s">
         <v>296</v>
       </c>
@@ -28762,12 +27541,8 @@
         <v>982</v>
       </c>
       <c r="R74" s="32"/>
-      <c r="S74" t="str">
-        <f>VLOOKUP(A74,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="32" t="s">
         <v>297</v>
       </c>
@@ -28820,12 +27595,8 @@
         <v>983</v>
       </c>
       <c r="R75" s="32"/>
-      <c r="S75" t="str">
-        <f>VLOOKUP(A75,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="32" t="s">
         <v>298</v>
       </c>
@@ -28878,12 +27649,8 @@
         <v>43</v>
       </c>
       <c r="R76" s="32"/>
-      <c r="S76" t="str">
-        <f>VLOOKUP(A76,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="32" t="s">
         <v>301</v>
       </c>
@@ -28936,12 +27703,8 @@
         <v>43</v>
       </c>
       <c r="R77" s="32"/>
-      <c r="S77" t="str">
-        <f>VLOOKUP(A77,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="32" t="s">
         <v>302</v>
       </c>
@@ -28994,12 +27757,8 @@
         <v>43</v>
       </c>
       <c r="R78" s="32"/>
-      <c r="S78" t="str">
-        <f>VLOOKUP(A78,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="32" t="s">
         <v>303</v>
       </c>
@@ -29052,12 +27811,8 @@
         <v>982</v>
       </c>
       <c r="R79" s="32"/>
-      <c r="S79" t="str">
-        <f>VLOOKUP(A79,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
         <v>304</v>
       </c>
@@ -29110,12 +27865,8 @@
         <v>983</v>
       </c>
       <c r="R80" s="32"/>
-      <c r="S80" t="str">
-        <f>VLOOKUP(A80,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS111</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="32" t="s">
         <v>305</v>
       </c>
@@ -29168,12 +27919,8 @@
         <v>43</v>
       </c>
       <c r="R81" s="32"/>
-      <c r="S81" t="e">
-        <f>VLOOKUP(A81,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="32" t="s">
         <v>308</v>
       </c>
@@ -29226,12 +27973,8 @@
         <v>43</v>
       </c>
       <c r="R82" s="32"/>
-      <c r="S82" t="e">
-        <f>VLOOKUP(A82,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="32" t="s">
         <v>309</v>
       </c>
@@ -29284,12 +28027,8 @@
         <v>43</v>
       </c>
       <c r="R83" s="32"/>
-      <c r="S83" t="e">
-        <f>VLOOKUP(A83,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="32" t="s">
         <v>310</v>
       </c>
@@ -29342,12 +28081,8 @@
         <v>982</v>
       </c>
       <c r="R84" s="32"/>
-      <c r="S84" t="e">
-        <f>VLOOKUP(A84,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="32" t="s">
         <v>311</v>
       </c>
@@ -29400,12 +28135,8 @@
         <v>983</v>
       </c>
       <c r="R85" s="32"/>
-      <c r="S85" t="e">
-        <f>VLOOKUP(A85,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="32" t="s">
         <v>312</v>
       </c>
@@ -29458,12 +28189,8 @@
         <v>43</v>
       </c>
       <c r="R86" s="32"/>
-      <c r="S86" t="e">
-        <f>VLOOKUP(A86,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="32" t="s">
         <v>315</v>
       </c>
@@ -29516,12 +28243,8 @@
         <v>43</v>
       </c>
       <c r="R87" s="32"/>
-      <c r="S87" t="e">
-        <f>VLOOKUP(A87,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="32" t="s">
         <v>316</v>
       </c>
@@ -29574,12 +28297,8 @@
         <v>43</v>
       </c>
       <c r="R88" s="32"/>
-      <c r="S88" t="e">
-        <f>VLOOKUP(A88,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="32" t="s">
         <v>317</v>
       </c>
@@ -29632,12 +28351,8 @@
         <v>982</v>
       </c>
       <c r="R89" s="32"/>
-      <c r="S89" t="e">
-        <f>VLOOKUP(A89,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="32" t="s">
         <v>318</v>
       </c>
@@ -29690,12 +28405,8 @@
         <v>983</v>
       </c>
       <c r="R90" s="32"/>
-      <c r="S90" t="e">
-        <f>VLOOKUP(A90,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
         <v>319</v>
       </c>
@@ -29748,12 +28459,8 @@
         <v>43</v>
       </c>
       <c r="R91" s="32"/>
-      <c r="S91" t="e">
-        <f>VLOOKUP(A91,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="32" t="s">
         <v>322</v>
       </c>
@@ -29806,12 +28513,8 @@
         <v>43</v>
       </c>
       <c r="R92" s="32"/>
-      <c r="S92" t="e">
-        <f>VLOOKUP(A92,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="32" t="s">
         <v>323</v>
       </c>
@@ -29864,12 +28567,8 @@
         <v>43</v>
       </c>
       <c r="R93" s="32"/>
-      <c r="S93" t="e">
-        <f>VLOOKUP(A93,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="32" t="s">
         <v>324</v>
       </c>
@@ -29922,12 +28621,8 @@
         <v>982</v>
       </c>
       <c r="R94" s="32"/>
-      <c r="S94" t="e">
-        <f>VLOOKUP(A94,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="32" t="s">
         <v>325</v>
       </c>
@@ -29980,12 +28675,8 @@
         <v>983</v>
       </c>
       <c r="R95" s="32"/>
-      <c r="S95" t="e">
-        <f>VLOOKUP(A95,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="32" t="s">
         <v>326</v>
       </c>
@@ -30038,12 +28729,8 @@
         <v>43</v>
       </c>
       <c r="R96" s="32"/>
-      <c r="S96" t="e">
-        <f>VLOOKUP(A96,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="32" t="s">
         <v>329</v>
       </c>
@@ -30096,12 +28783,8 @@
         <v>43</v>
       </c>
       <c r="R97" s="32"/>
-      <c r="S97" t="e">
-        <f>VLOOKUP(A97,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="32" t="s">
         <v>330</v>
       </c>
@@ -30154,12 +28837,8 @@
         <v>43</v>
       </c>
       <c r="R98" s="32"/>
-      <c r="S98" t="e">
-        <f>VLOOKUP(A98,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="32" t="s">
         <v>331</v>
       </c>
@@ -30212,12 +28891,8 @@
         <v>982</v>
       </c>
       <c r="R99" s="32"/>
-      <c r="S99" t="e">
-        <f>VLOOKUP(A99,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="32" t="s">
         <v>332</v>
       </c>
@@ -30270,12 +28945,8 @@
         <v>983</v>
       </c>
       <c r="R100" s="32"/>
-      <c r="S100" t="e">
-        <f>VLOOKUP(A100,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="32" t="s">
         <v>333</v>
       </c>
@@ -30328,12 +28999,8 @@
         <v>43</v>
       </c>
       <c r="R101" s="32"/>
-      <c r="S101" t="e">
-        <f>VLOOKUP(A101,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="32" t="s">
         <v>336</v>
       </c>
@@ -30386,12 +29053,8 @@
         <v>43</v>
       </c>
       <c r="R102" s="32"/>
-      <c r="S102" t="e">
-        <f>VLOOKUP(A102,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="32" t="s">
         <v>337</v>
       </c>
@@ -30444,12 +29107,8 @@
         <v>43</v>
       </c>
       <c r="R103" s="32"/>
-      <c r="S103" t="str">
-        <f>VLOOKUP(A103,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS144</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="32" t="s">
         <v>338</v>
       </c>
@@ -30502,12 +29161,8 @@
         <v>982</v>
       </c>
       <c r="R104" s="32"/>
-      <c r="S104" t="str">
-        <f>VLOOKUP(A104,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS145</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="32" t="s">
         <v>339</v>
       </c>
@@ -30560,12 +29215,8 @@
         <v>983</v>
       </c>
       <c r="R105" s="32"/>
-      <c r="S105" t="str">
-        <f>VLOOKUP(A105,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS146</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="32" t="s">
         <v>340</v>
       </c>
@@ -30618,12 +29269,8 @@
         <v>43</v>
       </c>
       <c r="R106" s="32"/>
-      <c r="S106" t="str">
-        <f>VLOOKUP(A106,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS147</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="32" t="s">
         <v>343</v>
       </c>
@@ -30676,12 +29323,8 @@
         <v>43</v>
       </c>
       <c r="R107" s="32"/>
-      <c r="S107" t="str">
-        <f>VLOOKUP(A107,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS150</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="32" t="s">
         <v>344</v>
       </c>
@@ -30734,12 +29377,8 @@
         <v>43</v>
       </c>
       <c r="R108" s="32"/>
-      <c r="S108" t="str">
-        <f>VLOOKUP(A108,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS151</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="32" t="s">
         <v>345</v>
       </c>
@@ -30792,12 +29431,8 @@
         <v>982</v>
       </c>
       <c r="R109" s="32"/>
-      <c r="S109" t="str">
-        <f>VLOOKUP(A109,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS152</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="32" t="s">
         <v>346</v>
       </c>
@@ -30850,12 +29485,8 @@
         <v>983</v>
       </c>
       <c r="R110" s="32"/>
-      <c r="S110" t="str">
-        <f>VLOOKUP(A110,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS153</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="32" t="s">
         <v>347</v>
       </c>
@@ -30908,12 +29539,8 @@
         <v>43</v>
       </c>
       <c r="R111" s="32"/>
-      <c r="S111" t="str">
-        <f>VLOOKUP(A111,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS154</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="32" t="s">
         <v>350</v>
       </c>
@@ -30966,12 +29593,8 @@
         <v>43</v>
       </c>
       <c r="R112" s="32"/>
-      <c r="S112" t="str">
-        <f>VLOOKUP(A112,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS157</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="32" t="s">
         <v>351</v>
       </c>
@@ -31024,12 +29647,8 @@
         <v>43</v>
       </c>
       <c r="R113" s="32"/>
-      <c r="S113" t="str">
-        <f>VLOOKUP(A113,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS158</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="32" t="s">
         <v>352</v>
       </c>
@@ -31082,12 +29701,8 @@
         <v>982</v>
       </c>
       <c r="R114" s="32"/>
-      <c r="S114" t="str">
-        <f>VLOOKUP(A114,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS159</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="32" t="s">
         <v>353</v>
       </c>
@@ -31140,12 +29755,8 @@
         <v>983</v>
       </c>
       <c r="R115" s="32"/>
-      <c r="S115" t="str">
-        <f>VLOOKUP(A115,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS160</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="32" t="s">
         <v>354</v>
       </c>
@@ -31198,12 +29809,8 @@
         <v>43</v>
       </c>
       <c r="R116" s="32"/>
-      <c r="S116" t="str">
-        <f>VLOOKUP(A116,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS161</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="32" t="s">
         <v>357</v>
       </c>
@@ -31256,12 +29863,8 @@
         <v>43</v>
       </c>
       <c r="R117" s="32"/>
-      <c r="S117" t="str">
-        <f>VLOOKUP(A117,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS164</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="32" t="s">
         <v>358</v>
       </c>
@@ -31314,12 +29917,8 @@
         <v>43</v>
       </c>
       <c r="R118" s="32"/>
-      <c r="S118" t="str">
-        <f>VLOOKUP(A118,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS165</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="32" t="s">
         <v>359</v>
       </c>
@@ -31372,12 +29971,8 @@
         <v>982</v>
       </c>
       <c r="R119" s="32"/>
-      <c r="S119" t="str">
-        <f>VLOOKUP(A119,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS166</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="32" t="s">
         <v>360</v>
       </c>
@@ -31430,12 +30025,8 @@
         <v>983</v>
       </c>
       <c r="R120" s="32"/>
-      <c r="S120" t="str">
-        <f>VLOOKUP(A120,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS167</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="32" t="s">
         <v>361</v>
       </c>
@@ -31488,12 +30079,8 @@
         <v>43</v>
       </c>
       <c r="R121" s="32"/>
-      <c r="S121" t="str">
-        <f>VLOOKUP(A121,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS168</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="32" t="s">
         <v>364</v>
       </c>
@@ -31546,12 +30133,8 @@
         <v>43</v>
       </c>
       <c r="R122" s="32"/>
-      <c r="S122" t="str">
-        <f>VLOOKUP(A122,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS171</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="32" t="s">
         <v>365</v>
       </c>
@@ -31604,12 +30187,8 @@
         <v>43</v>
       </c>
       <c r="R123" s="32"/>
-      <c r="S123" t="str">
-        <f>VLOOKUP(A123,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS172</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="32" t="s">
         <v>366</v>
       </c>
@@ -31662,12 +30241,8 @@
         <v>982</v>
       </c>
       <c r="R124" s="32"/>
-      <c r="S124" t="str">
-        <f>VLOOKUP(A124,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS173</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="32" t="s">
         <v>367</v>
       </c>
@@ -31720,12 +30295,8 @@
         <v>983</v>
       </c>
       <c r="R125" s="32"/>
-      <c r="S125" t="str">
-        <f>VLOOKUP(A125,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS174</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="32" t="s">
         <v>368</v>
       </c>
@@ -31778,12 +30349,8 @@
         <v>43</v>
       </c>
       <c r="R126" s="32"/>
-      <c r="S126" t="str">
-        <f>VLOOKUP(A126,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS175</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
         <v>371</v>
       </c>
@@ -31836,12 +30403,8 @@
         <v>43</v>
       </c>
       <c r="R127" s="32"/>
-      <c r="S127" t="str">
-        <f>VLOOKUP(A127,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS178</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="32" t="s">
         <v>372</v>
       </c>
@@ -31894,12 +30457,8 @@
         <v>43</v>
       </c>
       <c r="R128" s="32"/>
-      <c r="S128" t="str">
-        <f>VLOOKUP(A128,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS179</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="32" t="s">
         <v>373</v>
       </c>
@@ -31952,12 +30511,8 @@
         <v>43</v>
       </c>
       <c r="R129" s="32"/>
-      <c r="S129" t="str">
-        <f>VLOOKUP(A129,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS180</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="32" t="s">
         <v>374</v>
       </c>
@@ -32010,12 +30565,8 @@
         <v>982</v>
       </c>
       <c r="R130" s="32"/>
-      <c r="S130" t="str">
-        <f>VLOOKUP(A130,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS181</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="32" t="s">
         <v>375</v>
       </c>
@@ -32068,12 +30619,8 @@
         <v>983</v>
       </c>
       <c r="R131" s="32"/>
-      <c r="S131" t="str">
-        <f>VLOOKUP(A131,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS182</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="32" t="s">
         <v>376</v>
       </c>
@@ -32126,12 +30673,8 @@
         <v>43</v>
       </c>
       <c r="R132" s="32"/>
-      <c r="S132" t="str">
-        <f>VLOOKUP(A132,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS183</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="32" t="s">
         <v>379</v>
       </c>
@@ -32184,12 +30727,8 @@
         <v>43</v>
       </c>
       <c r="R133" s="32"/>
-      <c r="S133" t="str">
-        <f>VLOOKUP(A133,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS186</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="32" t="s">
         <v>380</v>
       </c>
@@ -32242,12 +30781,8 @@
         <v>43</v>
       </c>
       <c r="R134" s="32"/>
-      <c r="S134" t="str">
-        <f>VLOOKUP(A134,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS187</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="32" t="s">
         <v>381</v>
       </c>
@@ -32300,12 +30835,8 @@
         <v>43</v>
       </c>
       <c r="R135" s="32"/>
-      <c r="S135" t="str">
-        <f>VLOOKUP(A135,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS188</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="32" t="s">
         <v>382</v>
       </c>
@@ -32358,12 +30889,8 @@
         <v>982</v>
       </c>
       <c r="R136" s="32"/>
-      <c r="S136" t="str">
-        <f>VLOOKUP(A136,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS189</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="32" t="s">
         <v>383</v>
       </c>
@@ -32416,12 +30943,8 @@
         <v>983</v>
       </c>
       <c r="R137" s="32"/>
-      <c r="S137" t="str">
-        <f>VLOOKUP(A137,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS190</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="32" t="s">
         <v>384</v>
       </c>
@@ -32474,12 +30997,8 @@
         <v>43</v>
       </c>
       <c r="R138" s="32"/>
-      <c r="S138" t="str">
-        <f>VLOOKUP(A138,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS191</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="32" t="s">
         <v>415</v>
       </c>
@@ -32532,12 +31051,8 @@
         <v>43</v>
       </c>
       <c r="R139" s="33"/>
-      <c r="S139" t="str">
-        <f>VLOOKUP(A139,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS194</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="32" t="s">
         <v>416</v>
       </c>
@@ -32590,12 +31105,8 @@
         <v>43</v>
       </c>
       <c r="R140" s="33"/>
-      <c r="S140" t="str">
-        <f>VLOOKUP(A140,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS195</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="32" t="s">
         <v>417</v>
       </c>
@@ -32648,12 +31159,8 @@
         <v>982</v>
       </c>
       <c r="R141" s="33"/>
-      <c r="S141" t="str">
-        <f>VLOOKUP(A141,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS196</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="32" t="s">
         <v>418</v>
       </c>
@@ -32706,12 +31213,8 @@
         <v>983</v>
       </c>
       <c r="R142" s="33"/>
-      <c r="S142" t="str">
-        <f>VLOOKUP(A142,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS197</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="32" t="s">
         <v>419</v>
       </c>
@@ -32764,12 +31267,8 @@
         <v>43</v>
       </c>
       <c r="R143" s="33"/>
-      <c r="S143" t="str">
-        <f>VLOOKUP(A143,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS198</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="32" t="s">
         <v>435</v>
       </c>
@@ -32822,12 +31321,8 @@
         <v>43</v>
       </c>
       <c r="R144" s="33"/>
-      <c r="S144" t="str">
-        <f>VLOOKUP(A144,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS201</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="32" t="s">
         <v>436</v>
       </c>
@@ -32880,12 +31375,8 @@
         <v>43</v>
       </c>
       <c r="R145" s="33"/>
-      <c r="S145" t="str">
-        <f>VLOOKUP(A145,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS202</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="32" t="s">
         <v>437</v>
       </c>
@@ -32938,12 +31429,8 @@
         <v>982</v>
       </c>
       <c r="R146" s="33"/>
-      <c r="S146" t="str">
-        <f>VLOOKUP(A146,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS203</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="32" t="s">
         <v>438</v>
       </c>
@@ -32996,12 +31483,8 @@
         <v>983</v>
       </c>
       <c r="R147" s="33"/>
-      <c r="S147" t="str">
-        <f>VLOOKUP(A147,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS204</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="32" t="s">
         <v>439</v>
       </c>
@@ -33054,12 +31537,8 @@
         <v>43</v>
       </c>
       <c r="R148" s="33"/>
-      <c r="S148" t="str">
-        <f>VLOOKUP(A148,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS205</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="32" t="s">
         <v>442</v>
       </c>
@@ -33112,12 +31591,8 @@
         <v>43</v>
       </c>
       <c r="R149" s="33"/>
-      <c r="S149" t="str">
-        <f>VLOOKUP(A149,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS208</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="32" t="s">
         <v>443</v>
       </c>
@@ -33170,12 +31645,8 @@
         <v>43</v>
       </c>
       <c r="R150" s="33"/>
-      <c r="S150" t="str">
-        <f>VLOOKUP(A150,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS209</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="32" t="s">
         <v>444</v>
       </c>
@@ -33228,12 +31699,8 @@
         <v>982</v>
       </c>
       <c r="R151" s="33"/>
-      <c r="S151" t="str">
-        <f>VLOOKUP(A151,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS210</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="32" t="s">
         <v>445</v>
       </c>
@@ -33286,12 +31753,8 @@
         <v>983</v>
       </c>
       <c r="R152" s="33"/>
-      <c r="S152" t="str">
-        <f>VLOOKUP(A152,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS211</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="32" t="s">
         <v>446</v>
       </c>
@@ -33344,12 +31807,8 @@
         <v>43</v>
       </c>
       <c r="R153" s="33"/>
-      <c r="S153" t="str">
-        <f>VLOOKUP(A153,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS212</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="32" t="s">
         <v>449</v>
       </c>
@@ -33402,12 +31861,8 @@
         <v>43</v>
       </c>
       <c r="R154" s="33"/>
-      <c r="S154" t="str">
-        <f>VLOOKUP(A154,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS215</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="32" t="s">
         <v>450</v>
       </c>
@@ -33460,12 +31915,8 @@
         <v>43</v>
       </c>
       <c r="R155" s="33"/>
-      <c r="S155" t="str">
-        <f>VLOOKUP(A155,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS216</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="32" t="s">
         <v>451</v>
       </c>
@@ -33518,12 +31969,8 @@
         <v>982</v>
       </c>
       <c r="R156" s="33"/>
-      <c r="S156" t="str">
-        <f>VLOOKUP(A156,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS217</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="32" t="s">
         <v>452</v>
       </c>
@@ -33576,12 +32023,8 @@
         <v>983</v>
       </c>
       <c r="R157" s="33"/>
-      <c r="S157" t="str">
-        <f>VLOOKUP(A157,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS218</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="32" t="s">
         <v>453</v>
       </c>
@@ -33634,12 +32077,8 @@
         <v>43</v>
       </c>
       <c r="R158" s="33"/>
-      <c r="S158" t="str">
-        <f>VLOOKUP(A158,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS219</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="32" t="s">
         <v>456</v>
       </c>
@@ -33692,12 +32131,8 @@
         <v>43</v>
       </c>
       <c r="R159" s="33"/>
-      <c r="S159" t="str">
-        <f>VLOOKUP(A159,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS222</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="32" t="s">
         <v>457</v>
       </c>
@@ -33750,12 +32185,8 @@
         <v>43</v>
       </c>
       <c r="R160" s="33"/>
-      <c r="S160" t="str">
-        <f>VLOOKUP(A160,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS223</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
         <v>458</v>
       </c>
@@ -33808,12 +32239,8 @@
         <v>982</v>
       </c>
       <c r="R161" s="33"/>
-      <c r="S161" t="str">
-        <f>VLOOKUP(A161,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS224</v>
-      </c>
-    </row>
-    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="32" t="s">
         <v>459</v>
       </c>
@@ -33866,12 +32293,8 @@
         <v>983</v>
       </c>
       <c r="R162" s="33"/>
-      <c r="S162" t="str">
-        <f>VLOOKUP(A162,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS225</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="32" t="s">
         <v>460</v>
       </c>
@@ -33924,12 +32347,8 @@
         <v>43</v>
       </c>
       <c r="R163" s="33"/>
-      <c r="S163" t="str">
-        <f>VLOOKUP(A163,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS226</v>
-      </c>
-    </row>
-    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="32" t="s">
         <v>463</v>
       </c>
@@ -33982,12 +32401,8 @@
         <v>43</v>
       </c>
       <c r="R164" s="33"/>
-      <c r="S164" t="str">
-        <f>VLOOKUP(A164,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS229</v>
-      </c>
-    </row>
-    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="32" t="s">
         <v>464</v>
       </c>
@@ -34040,12 +32455,8 @@
         <v>43</v>
       </c>
       <c r="R165" s="33"/>
-      <c r="S165" t="str">
-        <f>VLOOKUP(A165,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS230</v>
-      </c>
-    </row>
-    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="32" t="s">
         <v>465</v>
       </c>
@@ -34098,12 +32509,8 @@
         <v>982</v>
       </c>
       <c r="R166" s="33"/>
-      <c r="S166" t="str">
-        <f>VLOOKUP(A166,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS231</v>
-      </c>
-    </row>
-    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="32" t="s">
         <v>466</v>
       </c>
@@ -34156,12 +32563,8 @@
         <v>983</v>
       </c>
       <c r="R167" s="33"/>
-      <c r="S167" t="str">
-        <f>VLOOKUP(A167,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS232</v>
-      </c>
-    </row>
-    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="32" t="s">
         <v>467</v>
       </c>
@@ -34214,12 +32617,8 @@
         <v>43</v>
       </c>
       <c r="R168" s="33"/>
-      <c r="S168" t="str">
-        <f>VLOOKUP(A168,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS233</v>
-      </c>
-    </row>
-    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="32" t="s">
         <v>470</v>
       </c>
@@ -34272,12 +32671,8 @@
         <v>43</v>
       </c>
       <c r="R169" s="33"/>
-      <c r="S169" t="str">
-        <f>VLOOKUP(A169,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS236</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="32" t="s">
         <v>471</v>
       </c>
@@ -34330,12 +32725,8 @@
         <v>43</v>
       </c>
       <c r="R170" s="33"/>
-      <c r="S170" t="str">
-        <f>VLOOKUP(A170,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS237</v>
-      </c>
-    </row>
-    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="32" t="s">
         <v>472</v>
       </c>
@@ -34388,12 +32779,8 @@
         <v>982</v>
       </c>
       <c r="R171" s="33"/>
-      <c r="S171" t="str">
-        <f>VLOOKUP(A171,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS238</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="32" t="s">
         <v>473</v>
       </c>
@@ -34446,12 +32833,8 @@
         <v>983</v>
       </c>
       <c r="R172" s="33"/>
-      <c r="S172" t="str">
-        <f>VLOOKUP(A172,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS239</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="32" t="s">
         <v>474</v>
       </c>
@@ -34504,12 +32887,8 @@
         <v>43</v>
       </c>
       <c r="R173" s="33"/>
-      <c r="S173" t="str">
-        <f>VLOOKUP(A173,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS240</v>
-      </c>
-    </row>
-    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="32" t="s">
         <v>477</v>
       </c>
@@ -34562,12 +32941,8 @@
         <v>43</v>
       </c>
       <c r="R174" s="33"/>
-      <c r="S174" t="str">
-        <f>VLOOKUP(A174,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS243</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="32" t="s">
         <v>478</v>
       </c>
@@ -34620,12 +32995,8 @@
         <v>43</v>
       </c>
       <c r="R175" s="33"/>
-      <c r="S175" t="str">
-        <f>VLOOKUP(A175,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS244</v>
-      </c>
-    </row>
-    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="32" t="s">
         <v>479</v>
       </c>
@@ -34678,12 +33049,8 @@
         <v>982</v>
       </c>
       <c r="R176" s="33"/>
-      <c r="S176" t="str">
-        <f>VLOOKUP(A176,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS245</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="32" t="s">
         <v>480</v>
       </c>
@@ -34736,12 +33103,8 @@
         <v>983</v>
       </c>
       <c r="R177" s="33"/>
-      <c r="S177" t="str">
-        <f>VLOOKUP(A177,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS246</v>
-      </c>
-    </row>
-    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="32" t="s">
         <v>481</v>
       </c>
@@ -34794,12 +33157,8 @@
         <v>43</v>
       </c>
       <c r="R178" s="33"/>
-      <c r="S178" t="str">
-        <f>VLOOKUP(A178,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS247</v>
-      </c>
-    </row>
-    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="32" t="s">
         <v>484</v>
       </c>
@@ -34852,12 +33211,8 @@
         <v>43</v>
       </c>
       <c r="R179" s="33"/>
-      <c r="S179" t="str">
-        <f>VLOOKUP(A179,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS250</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="32" t="s">
         <v>485</v>
       </c>
@@ -34910,12 +33265,8 @@
         <v>43</v>
       </c>
       <c r="R180" s="33"/>
-      <c r="S180" t="str">
-        <f>VLOOKUP(A180,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS251</v>
-      </c>
-    </row>
-    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="32" t="s">
         <v>486</v>
       </c>
@@ -34968,12 +33319,8 @@
         <v>982</v>
       </c>
       <c r="R181" s="33"/>
-      <c r="S181" t="str">
-        <f>VLOOKUP(A181,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS252</v>
-      </c>
-    </row>
-    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="32" t="s">
         <v>487</v>
       </c>
@@ -35026,12 +33373,8 @@
         <v>983</v>
       </c>
       <c r="R182" s="33"/>
-      <c r="S182" t="str">
-        <f>VLOOKUP(A182,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS253</v>
-      </c>
-    </row>
-    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="32" t="s">
         <v>488</v>
       </c>
@@ -35084,12 +33427,8 @@
         <v>43</v>
       </c>
       <c r="R183" s="33"/>
-      <c r="S183" t="str">
-        <f>VLOOKUP(A183,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS254</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="32" t="s">
         <v>491</v>
       </c>
@@ -35142,12 +33481,8 @@
         <v>43</v>
       </c>
       <c r="R184" s="33"/>
-      <c r="S184" t="str">
-        <f>VLOOKUP(A184,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS257</v>
-      </c>
-    </row>
-    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="32" t="s">
         <v>492</v>
       </c>
@@ -35200,12 +33535,8 @@
         <v>43</v>
       </c>
       <c r="R185" s="33"/>
-      <c r="S185" t="str">
-        <f>VLOOKUP(A185,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS258</v>
-      </c>
-    </row>
-    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="32" t="s">
         <v>493</v>
       </c>
@@ -35258,12 +33589,8 @@
         <v>982</v>
       </c>
       <c r="R186" s="33"/>
-      <c r="S186" t="str">
-        <f>VLOOKUP(A186,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS259</v>
-      </c>
-    </row>
-    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="32" t="s">
         <v>494</v>
       </c>
@@ -35316,12 +33643,8 @@
         <v>983</v>
       </c>
       <c r="R187" s="33"/>
-      <c r="S187" t="str">
-        <f>VLOOKUP(A187,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS260</v>
-      </c>
-    </row>
-    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="32" t="s">
         <v>495</v>
       </c>
@@ -35374,12 +33697,8 @@
         <v>43</v>
       </c>
       <c r="R188" s="33"/>
-      <c r="S188" t="str">
-        <f>VLOOKUP(A188,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS261</v>
-      </c>
-    </row>
-    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="32" t="s">
         <v>498</v>
       </c>
@@ -35432,12 +33751,8 @@
         <v>43</v>
       </c>
       <c r="R189" s="33"/>
-      <c r="S189" t="str">
-        <f>VLOOKUP(A189,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS264</v>
-      </c>
-    </row>
-    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="32" t="s">
         <v>499</v>
       </c>
@@ -35490,12 +33805,8 @@
         <v>43</v>
       </c>
       <c r="R190" s="33"/>
-      <c r="S190" t="str">
-        <f>VLOOKUP(A190,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS265</v>
-      </c>
-    </row>
-    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="32" t="s">
         <v>500</v>
       </c>
@@ -35548,12 +33859,8 @@
         <v>982</v>
       </c>
       <c r="R191" s="33"/>
-      <c r="S191" t="str">
-        <f>VLOOKUP(A191,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS266</v>
-      </c>
-    </row>
-    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="32" t="s">
         <v>501</v>
       </c>
@@ -35606,12 +33913,8 @@
         <v>983</v>
       </c>
       <c r="R192" s="33"/>
-      <c r="S192" t="str">
-        <f>VLOOKUP(A192,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS267</v>
-      </c>
-    </row>
-    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="32" t="s">
         <v>502</v>
       </c>
@@ -35664,12 +33967,8 @@
         <v>43</v>
       </c>
       <c r="R193" s="33"/>
-      <c r="S193" t="str">
-        <f>VLOOKUP(A193,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS268</v>
-      </c>
-    </row>
-    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="32" t="s">
         <v>796</v>
       </c>
@@ -35722,12 +34021,8 @@
         <v>43</v>
       </c>
       <c r="R194" s="33"/>
-      <c r="S194" t="str">
-        <f>VLOOKUP(A194,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS270</v>
-      </c>
-    </row>
-    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="32" t="s">
         <v>797</v>
       </c>
@@ -35780,12 +34075,8 @@
         <v>43</v>
       </c>
       <c r="R195" s="33"/>
-      <c r="S195" t="str">
-        <f>VLOOKUP(A195,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS271</v>
-      </c>
-    </row>
-    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="32" t="s">
         <v>798</v>
       </c>
@@ -35838,12 +34129,8 @@
         <v>43</v>
       </c>
       <c r="R196" s="33"/>
-      <c r="S196" t="str">
-        <f>VLOOKUP(A196,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS272</v>
-      </c>
-    </row>
-    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="32" t="s">
         <v>801</v>
       </c>
@@ -35896,12 +34183,8 @@
         <v>43</v>
       </c>
       <c r="R197" s="33"/>
-      <c r="S197" t="str">
-        <f>VLOOKUP(A197,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS275</v>
-      </c>
-    </row>
-    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="32" t="s">
         <v>802</v>
       </c>
@@ -35954,12 +34237,8 @@
         <v>43</v>
       </c>
       <c r="R198" s="33"/>
-      <c r="S198" t="str">
-        <f>VLOOKUP(A198,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS276</v>
-      </c>
-    </row>
-    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="32" t="s">
         <v>803</v>
       </c>
@@ -36012,12 +34291,8 @@
         <v>982</v>
       </c>
       <c r="R199" s="33"/>
-      <c r="S199" t="str">
-        <f>VLOOKUP(A199,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS277</v>
-      </c>
-    </row>
-    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="32" t="s">
         <v>804</v>
       </c>
@@ -36070,12 +34345,8 @@
         <v>983</v>
       </c>
       <c r="R200" s="33"/>
-      <c r="S200" t="str">
-        <f>VLOOKUP(A200,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS278</v>
-      </c>
-    </row>
-    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="32" t="s">
         <v>805</v>
       </c>
@@ -36128,12 +34399,8 @@
         <v>43</v>
       </c>
       <c r="R201" s="33"/>
-      <c r="S201" t="str">
-        <f>VLOOKUP(A201,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS279</v>
-      </c>
-    </row>
-    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="32" t="s">
         <v>848</v>
       </c>
@@ -36186,12 +34453,8 @@
         <v>43</v>
       </c>
       <c r="R202" s="33"/>
-      <c r="S202" t="str">
-        <f>VLOOKUP(A202,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>MS281</v>
-      </c>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="32" t="s">
         <v>849</v>
       </c>
@@ -36244,12 +34507,8 @@
         <v>43</v>
       </c>
       <c r="R203" s="33"/>
-      <c r="S203" t="e">
-        <f>VLOOKUP(A203,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="32" t="s">
         <v>850</v>
       </c>
@@ -36302,12 +34561,8 @@
         <v>43</v>
       </c>
       <c r="R204" s="33"/>
-      <c r="S204" t="e">
-        <f>VLOOKUP(A204,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="32" t="s">
         <v>853</v>
       </c>
@@ -36360,12 +34615,8 @@
         <v>43</v>
       </c>
       <c r="R205" s="33"/>
-      <c r="S205" t="e">
-        <f>VLOOKUP(A205,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="32" t="s">
         <v>854</v>
       </c>
@@ -36418,12 +34669,8 @@
         <v>43</v>
       </c>
       <c r="R206" s="33"/>
-      <c r="S206" t="e">
-        <f>VLOOKUP(A206,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="32" t="s">
         <v>855</v>
       </c>
@@ -36476,12 +34723,8 @@
         <v>982</v>
       </c>
       <c r="R207" s="33"/>
-      <c r="S207" t="e">
-        <f>VLOOKUP(A207,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="32" t="s">
         <v>856</v>
       </c>
@@ -36534,12 +34777,8 @@
         <v>983</v>
       </c>
       <c r="R208" s="33"/>
-      <c r="S208" t="e">
-        <f>VLOOKUP(A208,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="32" t="s">
         <v>857</v>
       </c>
@@ -36592,12 +34831,8 @@
         <v>43</v>
       </c>
       <c r="R209" s="33"/>
-      <c r="S209" t="e">
-        <f>VLOOKUP(A209,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="32" t="s">
         <v>859</v>
       </c>
@@ -36650,12 +34885,8 @@
         <v>43</v>
       </c>
       <c r="R210" s="33"/>
-      <c r="S210" t="e">
-        <f>VLOOKUP(A210,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="32" t="s">
         <v>860</v>
       </c>
@@ -36708,12 +34939,8 @@
         <v>43</v>
       </c>
       <c r="R211" s="33"/>
-      <c r="S211" t="e">
-        <f>VLOOKUP(A211,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="32" t="s">
         <v>861</v>
       </c>
@@ -36766,12 +34993,8 @@
         <v>43</v>
       </c>
       <c r="R212" s="32"/>
-      <c r="S212" t="e">
-        <f>VLOOKUP(A212,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="32" t="s">
         <v>862</v>
       </c>
@@ -36824,12 +35047,8 @@
         <v>43</v>
       </c>
       <c r="R213" s="33"/>
-      <c r="S213" t="e">
-        <f>VLOOKUP(A213,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="32" t="s">
         <v>865</v>
       </c>
@@ -36882,12 +35101,8 @@
         <v>43</v>
       </c>
       <c r="R214" s="33"/>
-      <c r="S214" t="e">
-        <f>VLOOKUP(A214,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="32" t="s">
         <v>866</v>
       </c>
@@ -36940,12 +35155,8 @@
         <v>43</v>
       </c>
       <c r="R215" s="33"/>
-      <c r="S215" t="e">
-        <f>VLOOKUP(A215,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="32" t="s">
         <v>867</v>
       </c>
@@ -36998,12 +35209,8 @@
         <v>982</v>
       </c>
       <c r="R216" s="33"/>
-      <c r="S216" t="e">
-        <f>VLOOKUP(A216,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="32" t="s">
         <v>868</v>
       </c>
@@ -37056,12 +35263,8 @@
         <v>983</v>
       </c>
       <c r="R217" s="33"/>
-      <c r="S217" t="e">
-        <f>VLOOKUP(A217,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="32" t="s">
         <v>869</v>
       </c>
@@ -37114,12 +35317,8 @@
         <v>43</v>
       </c>
       <c r="R218" s="33"/>
-      <c r="S218" t="e">
-        <f>VLOOKUP(A218,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="32" t="s">
         <v>870</v>
       </c>
@@ -37172,12 +35371,8 @@
         <v>43</v>
       </c>
       <c r="R219" s="32"/>
-      <c r="S219" t="e">
-        <f>VLOOKUP(A219,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="32" t="s">
         <v>932</v>
       </c>
@@ -37230,12 +35425,8 @@
         <v>43</v>
       </c>
       <c r="R220" s="32"/>
-      <c r="S220" t="e">
-        <f>VLOOKUP(A220,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="32" t="s">
         <v>933</v>
       </c>
@@ -37288,12 +35479,8 @@
         <v>43</v>
       </c>
       <c r="R221" s="32"/>
-      <c r="S221" t="e">
-        <f>VLOOKUP(A221,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="32" t="s">
         <v>934</v>
       </c>
@@ -37346,12 +35533,8 @@
         <v>43</v>
       </c>
       <c r="R222" s="32"/>
-      <c r="S222" t="e">
-        <f>VLOOKUP(A222,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="32" t="s">
         <v>937</v>
       </c>
@@ -37404,12 +35587,8 @@
         <v>43</v>
       </c>
       <c r="R223" s="32"/>
-      <c r="S223" t="e">
-        <f>VLOOKUP(A223,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="32" t="s">
         <v>938</v>
       </c>
@@ -37462,12 +35641,8 @@
         <v>43</v>
       </c>
       <c r="R224" s="32"/>
-      <c r="S224" t="e">
-        <f>VLOOKUP(A224,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="32" t="s">
         <v>939</v>
       </c>
@@ -37520,12 +35695,8 @@
         <v>982</v>
       </c>
       <c r="R225" s="32"/>
-      <c r="S225" t="e">
-        <f>VLOOKUP(A225,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="32" t="s">
         <v>940</v>
       </c>
@@ -37578,12 +35749,8 @@
         <v>983</v>
       </c>
       <c r="R226" s="32"/>
-      <c r="S226" t="e">
-        <f>VLOOKUP(A226,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="32" t="s">
         <v>941</v>
       </c>
@@ -37636,12 +35803,8 @@
         <v>43</v>
       </c>
       <c r="R227" s="32"/>
-      <c r="S227" t="e">
-        <f>VLOOKUP(A227,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="32" t="s">
         <v>944</v>
       </c>
@@ -37694,12 +35857,8 @@
         <v>43</v>
       </c>
       <c r="R228" s="33"/>
-      <c r="S228" t="e">
-        <f>VLOOKUP(A228,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="32" t="s">
         <v>945</v>
       </c>
@@ -37752,12 +35911,8 @@
         <v>43</v>
       </c>
       <c r="R229" s="33"/>
-      <c r="S229" t="e">
-        <f>VLOOKUP(A229,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" s="32" t="s">
         <v>946</v>
       </c>
@@ -37810,12 +35965,8 @@
         <v>982</v>
       </c>
       <c r="R230" s="33"/>
-      <c r="S230" t="e">
-        <f>VLOOKUP(A230,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" s="32" t="s">
         <v>947</v>
       </c>
@@ -37868,12 +36019,8 @@
         <v>983</v>
       </c>
       <c r="R231" s="33"/>
-      <c r="S231" t="e">
-        <f>VLOOKUP(A231,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" s="32" t="s">
         <v>948</v>
       </c>
@@ -37926,12 +36073,8 @@
         <v>43</v>
       </c>
       <c r="R232" s="33"/>
-      <c r="S232" t="e">
-        <f>VLOOKUP(A232,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" s="32" t="s">
         <v>973</v>
       </c>
@@ -37984,12 +36127,8 @@
         <v>43</v>
       </c>
       <c r="R233" s="32"/>
-      <c r="S233" t="e">
-        <f>VLOOKUP(A233,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" s="32" t="s">
         <v>974</v>
       </c>
@@ -38042,12 +36181,8 @@
         <v>43</v>
       </c>
       <c r="R234" s="32"/>
-      <c r="S234" t="e">
-        <f>VLOOKUP(A234,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" s="32" t="s">
         <v>975</v>
       </c>
@@ -38100,12 +36235,8 @@
         <v>982</v>
       </c>
       <c r="R235" s="32"/>
-      <c r="S235" t="e">
-        <f>VLOOKUP(A235,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" s="32" t="s">
         <v>976</v>
       </c>
@@ -38158,12 +36289,8 @@
         <v>983</v>
       </c>
       <c r="R236" s="32"/>
-      <c r="S236" t="e">
-        <f>VLOOKUP(A236,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" s="32" t="s">
         <v>977</v>
       </c>
@@ -38216,12 +36343,8 @@
         <v>43</v>
       </c>
       <c r="R237" s="32"/>
-      <c r="S237" t="e">
-        <f>VLOOKUP(A237,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" s="32" t="s">
         <v>1006</v>
       </c>
@@ -38273,12 +36396,8 @@
       <c r="Q238" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="S238" t="e">
-        <f>VLOOKUP(A238,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" s="32" t="s">
         <v>1007</v>
       </c>
@@ -38330,12 +36449,8 @@
       <c r="Q239" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="S239" t="e">
-        <f>VLOOKUP(A239,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" s="32" t="s">
         <v>1008</v>
       </c>
@@ -38387,12 +36502,8 @@
       <c r="Q240" s="27" t="s">
         <v>982</v>
       </c>
-      <c r="S240" t="e">
-        <f>VLOOKUP(A240,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" s="32" t="s">
         <v>1009</v>
       </c>
@@ -38444,12 +36555,8 @@
       <c r="Q241" s="27" t="s">
         <v>983</v>
       </c>
-      <c r="S241" t="e">
-        <f>VLOOKUP(A241,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" s="32" t="s">
         <v>1010</v>
       </c>
@@ -38501,19 +36608,8 @@
       <c r="Q242" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="S242" t="e">
-        <f>VLOOKUP(A242,[1]PREPlanBenefitsResults!$A$2:$A$180,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S242" xr:uid="{C8A58EE3-C3E7-4BCE-95F4-8F8F3E204C34}">
-    <filterColumn colId="18">
-      <filters>
-        <filter val="#N/A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
@@ -54068,9 +52164,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -54154,31 +52250,31 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>179</v>
+        <v>958</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>56</v>
@@ -54189,50 +52285,50 @@
       <c r="L2" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="29" t="s">
-        <v>192</v>
+      <c r="M2" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P2" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q2" s="27" t="s">
-        <v>43</v>
+        <v>982</v>
       </c>
       <c r="R2" s="32"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>625</v>
+        <v>648</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>176</v>
+        <v>959</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>56</v>
@@ -54247,45 +52343,45 @@
         <v>42</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>45</v>
+        <v>981</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="P3" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>43</v>
+        <v>983</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>626</v>
+        <v>649</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>957</v>
+        <v>179</v>
       </c>
       <c r="J4" s="27" t="s">
         <v>56</v>
@@ -54303,7 +52399,7 @@
         <v>979</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P4" s="27" t="s">
         <v>184</v>
@@ -54314,31 +52410,31 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>310</v>
+        <v>484</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>88</v>
+        <v>406</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>131</v>
+        <v>405</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>89</v>
+        <v>431</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>166</v>
+        <v>430</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>627</v>
+        <v>989</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>958</v>
+        <v>176</v>
       </c>
       <c r="J5" s="27" t="s">
         <v>56</v>
@@ -54350,48 +52446,48 @@
         <v>41</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>980</v>
+        <v>45</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="P5" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>982</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>311</v>
+        <v>485</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>88</v>
+        <v>406</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>131</v>
+        <v>405</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>89</v>
+        <v>431</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>166</v>
+        <v>430</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>628</v>
+        <v>990</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J6" s="27" t="s">
         <v>56</v>
@@ -54403,48 +52499,48 @@
         <v>41</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="O6" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P6" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q6" s="27" t="s">
-        <v>983</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>312</v>
+        <v>486</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>88</v>
+        <v>406</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>131</v>
+        <v>405</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>89</v>
+        <v>431</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>166</v>
+        <v>430</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>629</v>
+        <v>991</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>179</v>
+        <v>958</v>
       </c>
       <c r="J7" s="27" t="s">
         <v>56</v>
@@ -54456,48 +52552,48 @@
         <v>41</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P7" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q7" s="27" t="s">
-        <v>43</v>
+        <v>982</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>315</v>
+        <v>487</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>90</v>
+        <v>406</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>132</v>
+        <v>405</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>90</v>
+        <v>431</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>167</v>
+        <v>430</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>632</v>
+        <v>992</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>176</v>
+        <v>959</v>
       </c>
       <c r="J8" s="27" t="s">
         <v>56</v>
@@ -54509,48 +52605,48 @@
         <v>41</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>45</v>
+        <v>981</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="P8" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q8" s="27" t="s">
-        <v>43</v>
+        <v>983</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>316</v>
+        <v>488</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>90</v>
+        <v>406</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>132</v>
+        <v>405</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>90</v>
+        <v>431</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>167</v>
+        <v>430</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>633</v>
+        <v>758</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>957</v>
+        <v>179</v>
       </c>
       <c r="J9" s="27" t="s">
         <v>56</v>
@@ -54562,13 +52658,13 @@
         <v>41</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N9" s="27" t="s">
         <v>979</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P9" s="27" t="s">
         <v>184</v>
@@ -54579,261 +52675,261 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>317</v>
+        <v>491</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>90</v>
+        <v>408</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>132</v>
+        <v>407</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>90</v>
+        <v>432</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>167</v>
+        <v>509</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>634</v>
+        <v>762</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>958</v>
+        <v>176</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>56</v>
+        <v>774</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>57</v>
+        <v>774</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>41</v>
+        <v>774</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>42</v>
+        <v>774</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>980</v>
+        <v>45</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="P10" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q10" s="27" t="s">
-        <v>982</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>318</v>
+        <v>492</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>90</v>
+        <v>408</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>132</v>
+        <v>407</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>90</v>
+        <v>432</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>167</v>
+        <v>509</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>635</v>
+        <v>763</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>56</v>
+        <v>774</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>57</v>
+        <v>774</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>41</v>
+        <v>774</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>42</v>
+        <v>774</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P11" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q11" s="27" t="s">
-        <v>983</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>319</v>
+        <v>493</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>90</v>
+        <v>408</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>132</v>
+        <v>407</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>90</v>
+        <v>432</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>167</v>
+        <v>509</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>636</v>
+        <v>764</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>179</v>
+        <v>958</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>56</v>
+        <v>774</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>57</v>
+        <v>774</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>41</v>
+        <v>774</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>42</v>
+        <v>774</v>
       </c>
       <c r="N12" s="27" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P12" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q12" s="27" t="s">
-        <v>43</v>
+        <v>982</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>322</v>
+        <v>494</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>91</v>
+        <v>408</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>133</v>
+        <v>407</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>92</v>
+        <v>432</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>168</v>
+        <v>509</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>639</v>
+        <v>765</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>176</v>
+        <v>959</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>56</v>
+        <v>774</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>57</v>
+        <v>774</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>41</v>
+        <v>774</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>42</v>
+        <v>774</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>45</v>
+        <v>981</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="P13" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q13" s="27" t="s">
-        <v>43</v>
+        <v>983</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>323</v>
+        <v>495</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>91</v>
+        <v>408</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>133</v>
+        <v>407</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>92</v>
+        <v>432</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>168</v>
+        <v>509</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>640</v>
+        <v>766</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>957</v>
+        <v>179</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>56</v>
+        <v>774</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>57</v>
+        <v>774</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>41</v>
+        <v>774</v>
       </c>
       <c r="M14" s="27" t="s">
-        <v>42</v>
+        <v>774</v>
       </c>
       <c r="N14" s="27" t="s">
         <v>979</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P14" s="27" t="s">
         <v>184</v>
@@ -54844,31 +52940,31 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>324</v>
+        <v>498</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>91</v>
+        <v>410</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>133</v>
+        <v>409</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>92</v>
+        <v>433</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>168</v>
+        <v>510</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>641</v>
+        <v>993</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>958</v>
+        <v>176</v>
       </c>
       <c r="J15" s="27" t="s">
         <v>56</v>
@@ -54883,45 +52979,45 @@
         <v>42</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>980</v>
+        <v>45</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="P15" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q15" s="27" t="s">
-        <v>982</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>325</v>
+        <v>499</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>91</v>
+        <v>410</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>133</v>
+        <v>409</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>92</v>
+        <v>433</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>168</v>
+        <v>510</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>518</v>
+        <v>994</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J16" s="27" t="s">
         <v>56</v>
@@ -54936,45 +53032,45 @@
         <v>42</v>
       </c>
       <c r="N16" s="27" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P16" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q16" s="27" t="s">
-        <v>983</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>326</v>
+        <v>500</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>91</v>
+        <v>410</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>133</v>
+        <v>409</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>92</v>
+        <v>433</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>168</v>
+        <v>510</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>642</v>
+        <v>995</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>179</v>
+        <v>958</v>
       </c>
       <c r="J17" s="27" t="s">
         <v>56</v>
@@ -54989,45 +53085,45 @@
         <v>42</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P17" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q17" s="27" t="s">
-        <v>43</v>
+        <v>982</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>329</v>
+        <v>501</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>93</v>
+        <v>410</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>135</v>
+        <v>409</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>94</v>
+        <v>433</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>169</v>
+        <v>510</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>645</v>
+        <v>996</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>176</v>
+        <v>959</v>
       </c>
       <c r="J18" s="27" t="s">
         <v>56</v>
@@ -55042,45 +53138,45 @@
         <v>42</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>45</v>
+        <v>981</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="P18" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q18" s="27" t="s">
-        <v>43</v>
+        <v>983</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>330</v>
+        <v>502</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>93</v>
+        <v>410</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>135</v>
+        <v>409</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>94</v>
+        <v>433</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>169</v>
+        <v>510</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>646</v>
+        <v>997</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>957</v>
+        <v>179</v>
       </c>
       <c r="J19" s="27" t="s">
         <v>56</v>
@@ -55098,7 +53194,7 @@
         <v>979</v>
       </c>
       <c r="O19" s="27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P19" s="27" t="s">
         <v>184</v>
@@ -55109,149 +53205,149 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>331</v>
+        <v>796</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>9</v>
+        <v>783</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>94</v>
+        <v>150</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>780</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>779</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>781</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>169</v>
+        <v>817</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>647</v>
+        <v>809</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>958</v>
+        <v>176</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K20" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L20" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N20" s="27" t="s">
-        <v>980</v>
+        <v>45</v>
       </c>
       <c r="O20" s="27" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="P20" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q20" s="27" t="s">
-        <v>982</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>332</v>
+        <v>797</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>10</v>
+        <v>784</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>94</v>
+        <v>151</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>780</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>779</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>781</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>169</v>
+        <v>817</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>648</v>
+        <v>807</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P21" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q21" s="27" t="s">
-        <v>983</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>333</v>
+        <v>798</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>11</v>
+        <v>785</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>94</v>
+      <c r="D22" s="29" t="s">
+        <v>780</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>779</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>781</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>169</v>
+        <v>817</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>649</v>
+        <v>811</v>
       </c>
       <c r="I22" s="28" t="s">
         <v>179</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L22" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M22" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N22" s="27" t="s">
         <v>979</v>
@@ -55268,28 +53364,28 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>336</v>
+        <v>801</v>
       </c>
       <c r="B23" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>96</v>
+        <v>786</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>780</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>779</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>781</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>170</v>
+        <v>817</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>652</v>
+        <v>808</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>176</v>
@@ -55321,43 +53417,43 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>849</v>
+        <v>802</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>784</v>
+        <v>8</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>151</v>
+        <v>787</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>820</v>
+        <v>780</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>819</v>
+        <v>779</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>821</v>
+        <v>781</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>999</v>
+        <v>806</v>
       </c>
       <c r="I24" s="28" t="s">
         <v>957</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L24" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N24" s="27" t="s">
         <v>979</v>
@@ -55374,84 +53470,84 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>850</v>
+        <v>803</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>785</v>
+        <v>9</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>144</v>
+        <v>790</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>820</v>
+        <v>780</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>819</v>
+        <v>779</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>821</v>
+        <v>781</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>1000</v>
+        <v>812</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>179</v>
+        <v>958</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L25" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M25" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P25" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q25" s="27" t="s">
-        <v>43</v>
+        <v>982</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>853</v>
+        <v>804</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>820</v>
+        <v>780</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>819</v>
+        <v>779</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>821</v>
+        <v>781</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>176</v>
+        <v>959</v>
       </c>
       <c r="J26" s="27" t="s">
         <v>56</v>
@@ -55466,45 +53562,45 @@
         <v>42</v>
       </c>
       <c r="N26" s="27" t="s">
-        <v>45</v>
+        <v>981</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="P26" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q26" s="27" t="s">
-        <v>43</v>
+        <v>983</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>854</v>
+        <v>805</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>820</v>
+        <v>780</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>819</v>
+        <v>779</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>821</v>
+        <v>781</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>957</v>
+        <v>179</v>
       </c>
       <c r="J27" s="27" t="s">
         <v>56</v>
@@ -55522,7 +53618,7 @@
         <v>979</v>
       </c>
       <c r="O27" s="27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P27" s="27" t="s">
         <v>184</v>
@@ -55533,13 +53629,13 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>9</v>
+        <v>783</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>790</v>
+        <v>150</v>
       </c>
       <c r="D28" s="29" t="s">
         <v>820</v>
@@ -55554,45 +53650,45 @@
         <v>818</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>828</v>
+        <v>998</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>958</v>
+        <v>176</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L28" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M28" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N28" s="27" t="s">
-        <v>980</v>
+        <v>45</v>
       </c>
       <c r="O28" s="27" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="P28" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q28" s="27" t="s">
-        <v>982</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>10</v>
+        <v>784</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>791</v>
+        <v>151</v>
       </c>
       <c r="D29" s="29" t="s">
         <v>820</v>
@@ -55607,45 +53703,45 @@
         <v>818</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>829</v>
+        <v>999</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J29" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L29" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N29" s="27" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="O29" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P29" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q29" s="27" t="s">
-        <v>983</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>11</v>
+        <v>785</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>788</v>
+        <v>144</v>
       </c>
       <c r="D30" s="29" t="s">
         <v>820</v>
@@ -55660,22 +53756,22 @@
         <v>818</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>830</v>
+        <v>1000</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>179</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L30" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M30" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N30" s="27" t="s">
         <v>979</v>
@@ -55692,43 +53788,43 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>783</v>
+        <v>7</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>150</v>
+        <v>786</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="I31" s="28" t="s">
         <v>176</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L31" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N31" s="27" t="s">
         <v>45</v>
@@ -55745,43 +53841,43 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>784</v>
+        <v>8</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>151</v>
+        <v>787</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="I32" s="28" t="s">
         <v>957</v>
       </c>
       <c r="J32" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L32" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N32" s="27" t="s">
         <v>979</v>
@@ -55798,137 +53894,137 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>845</v>
+        <v>9</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>147</v>
+        <v>790</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>846</v>
+        <v>828</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>4</v>
+        <v>958</v>
       </c>
       <c r="J33" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M33" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N33" s="27" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O33" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P33" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q33" s="27" t="s">
-        <v>43</v>
+        <v>982</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>785</v>
+        <v>10</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>144</v>
+        <v>791</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>179</v>
+        <v>959</v>
       </c>
       <c r="J34" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L34" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M34" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N34" s="27" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="O34" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P34" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q34" s="27" t="s">
-        <v>43</v>
+        <v>983</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>672</v>
+        <v>830</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J35" s="27" t="s">
         <v>56</v>
@@ -55943,10 +54039,10 @@
         <v>42</v>
       </c>
       <c r="N35" s="27" t="s">
-        <v>45</v>
+        <v>979</v>
       </c>
       <c r="O35" s="27" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="P35" s="27" t="s">
         <v>184</v>
@@ -55957,13 +54053,13 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>8</v>
+        <v>783</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>787</v>
+        <v>150</v>
       </c>
       <c r="D36" s="29" t="s">
         <v>834</v>
@@ -55978,28 +54074,28 @@
         <v>833</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>957</v>
+        <v>176</v>
       </c>
       <c r="J36" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K36" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L36" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M36" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N36" s="27" t="s">
-        <v>979</v>
+        <v>45</v>
       </c>
       <c r="O36" s="27" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="P36" s="27" t="s">
         <v>184</v>
@@ -56010,13 +54106,13 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>9</v>
+        <v>784</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>790</v>
+        <v>151</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>834</v>
@@ -56031,45 +54127,45 @@
         <v>833</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K37" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L37" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M37" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N37" s="27" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O37" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P37" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q37" s="27" t="s">
-        <v>982</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>10</v>
+        <v>845</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>791</v>
+        <v>147</v>
       </c>
       <c r="D38" s="29" t="s">
         <v>834</v>
@@ -56084,45 +54180,45 @@
         <v>833</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>959</v>
+        <v>4</v>
       </c>
       <c r="J38" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L38" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M38" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N38" s="27" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="O38" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P38" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q38" s="27" t="s">
-        <v>983</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>11</v>
+        <v>785</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>788</v>
+        <v>144</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>834</v>
@@ -56137,22 +54233,22 @@
         <v>833</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="I39" s="28" t="s">
         <v>179</v>
       </c>
       <c r="J39" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K39" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L39" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M39" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N39" s="27" t="s">
         <v>979</v>
@@ -56169,13 +54265,13 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>843</v>
+        <v>786</v>
       </c>
       <c r="D40" s="29" t="s">
         <v>834</v>
@@ -56190,10 +54286,10 @@
         <v>833</v>
       </c>
       <c r="H40" s="27" t="s">
-        <v>844</v>
+        <v>672</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="J40" s="27" t="s">
         <v>56</v>
@@ -56208,10 +54304,10 @@
         <v>42</v>
       </c>
       <c r="N40" s="27" t="s">
-        <v>979</v>
+        <v>45</v>
       </c>
       <c r="O40" s="27" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="P40" s="27" t="s">
         <v>184</v>
@@ -56222,31 +54318,31 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
-        <v>932</v>
+        <v>866</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>875</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>872</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>873</v>
+        <v>787</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>874</v>
+        <v>833</v>
       </c>
       <c r="H41" s="27" t="s">
-        <v>877</v>
+        <v>839</v>
       </c>
       <c r="I41" s="28" t="s">
-        <v>176</v>
+        <v>957</v>
       </c>
       <c r="J41" s="27" t="s">
         <v>56</v>
@@ -56261,10 +54357,10 @@
         <v>42</v>
       </c>
       <c r="N41" s="27" t="s">
-        <v>45</v>
+        <v>979</v>
       </c>
       <c r="O41" s="27" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="P41" s="27" t="s">
         <v>184</v>
@@ -56275,31 +54371,31 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
-        <v>933</v>
+        <v>867</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>875</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>872</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>873</v>
+        <v>790</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>874</v>
+        <v>833</v>
       </c>
       <c r="H42" s="27" t="s">
-        <v>878</v>
+        <v>840</v>
       </c>
       <c r="I42" s="28" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="J42" s="27" t="s">
         <v>56</v>
@@ -56314,45 +54410,45 @@
         <v>42</v>
       </c>
       <c r="N42" s="27" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O42" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P42" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q42" s="27" t="s">
-        <v>43</v>
+        <v>982</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
-        <v>934</v>
+        <v>868</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="27" t="s">
-        <v>875</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>872</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>873</v>
+        <v>791</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>874</v>
+        <v>833</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>879</v>
+        <v>841</v>
       </c>
       <c r="I43" s="28" t="s">
-        <v>179</v>
+        <v>959</v>
       </c>
       <c r="J43" s="27" t="s">
         <v>56</v>
@@ -56367,45 +54463,45 @@
         <v>42</v>
       </c>
       <c r="N43" s="27" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="O43" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P43" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q43" s="27" t="s">
-        <v>43</v>
+        <v>983</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="32" t="s">
-        <v>937</v>
+        <v>869</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>883</v>
-      </c>
-      <c r="E44" s="27" t="s">
-        <v>880</v>
-      </c>
-      <c r="F44" s="27" t="s">
-        <v>882</v>
+        <v>788</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>881</v>
+        <v>833</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>886</v>
+        <v>842</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J44" s="27" t="s">
         <v>56</v>
@@ -56417,13 +54513,13 @@
         <v>41</v>
       </c>
       <c r="M44" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N44" s="27" t="s">
-        <v>45</v>
+        <v>979</v>
       </c>
       <c r="O44" s="27" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="P44" s="27" t="s">
         <v>184</v>
@@ -56434,31 +54530,31 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
-        <v>938</v>
+        <v>870</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>883</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>880</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>882</v>
+        <v>843</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F45" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>881</v>
+        <v>833</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>887</v>
+        <v>844</v>
       </c>
       <c r="I45" s="28" t="s">
-        <v>957</v>
+        <v>4</v>
       </c>
       <c r="J45" s="27" t="s">
         <v>56</v>
@@ -56470,7 +54566,7 @@
         <v>41</v>
       </c>
       <c r="M45" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N45" s="27" t="s">
         <v>979</v>
@@ -56487,31 +54583,31 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="I46" s="28" t="s">
-        <v>958</v>
+        <v>176</v>
       </c>
       <c r="J46" s="27" t="s">
         <v>56</v>
@@ -56523,48 +54619,48 @@
         <v>41</v>
       </c>
       <c r="M46" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N46" s="27" t="s">
-        <v>980</v>
+        <v>45</v>
       </c>
       <c r="O46" s="27" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="P46" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q46" s="27" t="s">
-        <v>982</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="I47" s="28" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J47" s="27" t="s">
         <v>56</v>
@@ -56576,24 +54672,24 @@
         <v>41</v>
       </c>
       <c r="M47" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N47" s="27" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="O47" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P47" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q47" s="27" t="s">
-        <v>983</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="32" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="B48" s="26" t="s">
         <v>11</v>
@@ -56602,19 +54698,19 @@
         <v>144</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="H48" s="27" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="I48" s="28" t="s">
         <v>179</v>
@@ -56629,7 +54725,7 @@
         <v>41</v>
       </c>
       <c r="M48" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N48" s="27" t="s">
         <v>979</v>
@@ -56646,7 +54742,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="B49" s="26" t="s">
         <v>7</v>
@@ -56655,31 +54751,31 @@
         <v>150</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>708</v>
+        <v>886</v>
       </c>
       <c r="I49" s="28" t="s">
         <v>176</v>
       </c>
       <c r="J49" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K49" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L49" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M49" s="27" t="s">
         <v>192</v>
@@ -56699,7 +54795,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="B50" s="26" t="s">
         <v>8</v>
@@ -56708,31 +54804,31 @@
         <v>151</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>709</v>
+        <v>887</v>
       </c>
       <c r="I50" s="28" t="s">
         <v>957</v>
       </c>
       <c r="J50" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K50" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L50" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M50" s="27" t="s">
         <v>192</v>
@@ -56752,7 +54848,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="32" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="B51" s="26" t="s">
         <v>9</v>
@@ -56761,31 +54857,31 @@
         <v>148</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="F51" s="27" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>710</v>
+        <v>888</v>
       </c>
       <c r="I51" s="28" t="s">
         <v>958</v>
       </c>
       <c r="J51" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K51" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L51" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M51" s="27" t="s">
         <v>192</v>
@@ -56805,7 +54901,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="B52" s="26" t="s">
         <v>10</v>
@@ -56814,31 +54910,31 @@
         <v>149</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>711</v>
+        <v>889</v>
       </c>
       <c r="I52" s="28" t="s">
         <v>959</v>
       </c>
       <c r="J52" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K52" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L52" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M52" s="27" t="s">
         <v>192</v>
@@ -56858,7 +54954,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="B53" s="26" t="s">
         <v>11</v>
@@ -56867,31 +54963,31 @@
         <v>144</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>712</v>
+        <v>890</v>
       </c>
       <c r="I53" s="28" t="s">
         <v>179</v>
       </c>
       <c r="J53" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L53" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M53" s="27" t="s">
         <v>192</v>
@@ -56911,7 +55007,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
-        <v>973</v>
+        <v>944</v>
       </c>
       <c r="B54" s="26" t="s">
         <v>7</v>
@@ -56920,34 +55016,34 @@
         <v>150</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>963</v>
+        <v>892</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>961</v>
+        <v>891</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>960</v>
+        <v>892</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>962</v>
+        <v>893</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>966</v>
+        <v>708</v>
       </c>
       <c r="I54" s="28" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="J54" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K54" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L54" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M54" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N54" s="27" t="s">
         <v>45</v>
@@ -56964,7 +55060,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="32" t="s">
-        <v>974</v>
+        <v>945</v>
       </c>
       <c r="B55" s="26" t="s">
         <v>8</v>
@@ -56973,34 +55069,34 @@
         <v>151</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>963</v>
+        <v>892</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>961</v>
+        <v>891</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>960</v>
+        <v>892</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>962</v>
+        <v>893</v>
       </c>
       <c r="H55" s="27" t="s">
-        <v>967</v>
+        <v>709</v>
       </c>
       <c r="I55" s="28" t="s">
         <v>957</v>
       </c>
       <c r="J55" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K55" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L55" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M55" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N55" s="27" t="s">
         <v>979</v>
@@ -57017,7 +55113,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="32" t="s">
-        <v>975</v>
+        <v>946</v>
       </c>
       <c r="B56" s="26" t="s">
         <v>9</v>
@@ -57026,34 +55122,34 @@
         <v>148</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>963</v>
+        <v>892</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>961</v>
+        <v>891</v>
       </c>
       <c r="F56" s="27" t="s">
-        <v>960</v>
+        <v>892</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>962</v>
+        <v>893</v>
       </c>
       <c r="H56" s="27" t="s">
-        <v>968</v>
+        <v>710</v>
       </c>
       <c r="I56" s="28" t="s">
         <v>958</v>
       </c>
       <c r="J56" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K56" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L56" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M56" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N56" s="27" t="s">
         <v>980</v>
@@ -57070,7 +55166,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
-        <v>976</v>
+        <v>947</v>
       </c>
       <c r="B57" s="26" t="s">
         <v>10</v>
@@ -57079,34 +55175,34 @@
         <v>149</v>
       </c>
       <c r="D57" s="27" t="s">
-        <v>963</v>
+        <v>892</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>961</v>
+        <v>891</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>960</v>
+        <v>892</v>
       </c>
       <c r="G57" s="28" t="s">
-        <v>962</v>
+        <v>893</v>
       </c>
       <c r="H57" s="27" t="s">
-        <v>969</v>
+        <v>711</v>
       </c>
       <c r="I57" s="28" t="s">
         <v>959</v>
       </c>
       <c r="J57" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K57" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L57" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M57" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N57" s="27" t="s">
         <v>981</v>
@@ -57123,7 +55219,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
-        <v>977</v>
+        <v>948</v>
       </c>
       <c r="B58" s="26" t="s">
         <v>11</v>
@@ -57132,34 +55228,34 @@
         <v>144</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>963</v>
+        <v>892</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>961</v>
+        <v>891</v>
       </c>
       <c r="F58" s="27" t="s">
-        <v>960</v>
+        <v>892</v>
       </c>
       <c r="G58" s="28" t="s">
-        <v>962</v>
+        <v>893</v>
       </c>
       <c r="H58" s="27" t="s">
-        <v>970</v>
+        <v>712</v>
       </c>
       <c r="I58" s="28" t="s">
         <v>179</v>
       </c>
       <c r="J58" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K58" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L58" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M58" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N58" s="27" t="s">
         <v>979</v>
@@ -57176,7 +55272,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
-        <v>1006</v>
+        <v>973</v>
       </c>
       <c r="B59" s="26" t="s">
         <v>7</v>
@@ -57185,31 +55281,31 @@
         <v>150</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>1002</v>
+        <v>963</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>1003</v>
+        <v>961</v>
       </c>
       <c r="F59" s="27" t="s">
-        <v>1002</v>
+        <v>960</v>
       </c>
       <c r="G59" s="28" t="s">
-        <v>1001</v>
+        <v>962</v>
       </c>
       <c r="H59" s="27" t="s">
-        <v>1013</v>
+        <v>966</v>
       </c>
       <c r="I59" s="28" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="J59" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K59" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L59" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M59" s="27" t="s">
         <v>42</v>
@@ -57229,7 +55325,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
-        <v>1007</v>
+        <v>974</v>
       </c>
       <c r="B60" s="26" t="s">
         <v>8</v>
@@ -57238,31 +55334,31 @@
         <v>151</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>1002</v>
+        <v>963</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>1003</v>
+        <v>961</v>
       </c>
       <c r="F60" s="27" t="s">
-        <v>1002</v>
+        <v>960</v>
       </c>
       <c r="G60" s="28" t="s">
-        <v>1001</v>
+        <v>962</v>
       </c>
       <c r="H60" s="27" t="s">
-        <v>1014</v>
+        <v>967</v>
       </c>
       <c r="I60" s="28" t="s">
         <v>957</v>
       </c>
       <c r="J60" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K60" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L60" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M60" s="27" t="s">
         <v>42</v>
@@ -57282,7 +55378,7 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
-        <v>1008</v>
+        <v>975</v>
       </c>
       <c r="B61" s="26" t="s">
         <v>9</v>
@@ -57291,31 +55387,31 @@
         <v>148</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>1002</v>
+        <v>963</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>1003</v>
+        <v>961</v>
       </c>
       <c r="F61" s="27" t="s">
-        <v>1002</v>
+        <v>960</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>1001</v>
+        <v>962</v>
       </c>
       <c r="H61" s="27" t="s">
-        <v>1015</v>
+        <v>968</v>
       </c>
       <c r="I61" s="28" t="s">
         <v>958</v>
       </c>
       <c r="J61" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K61" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L61" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M61" s="27" t="s">
         <v>42</v>
@@ -57335,7 +55431,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
-        <v>1009</v>
+        <v>976</v>
       </c>
       <c r="B62" s="26" t="s">
         <v>10</v>
@@ -57344,31 +55440,31 @@
         <v>149</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>1002</v>
+        <v>963</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>1003</v>
+        <v>961</v>
       </c>
       <c r="F62" s="27" t="s">
-        <v>1002</v>
+        <v>960</v>
       </c>
       <c r="G62" s="28" t="s">
-        <v>1001</v>
+        <v>962</v>
       </c>
       <c r="H62" s="27" t="s">
-        <v>690</v>
+        <v>969</v>
       </c>
       <c r="I62" s="28" t="s">
         <v>959</v>
       </c>
       <c r="J62" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K62" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L62" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M62" s="27" t="s">
         <v>42</v>
@@ -57388,7 +55484,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="32" t="s">
-        <v>1010</v>
+        <v>977</v>
       </c>
       <c r="B63" s="26" t="s">
         <v>11</v>
@@ -57397,31 +55493,31 @@
         <v>144</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>1002</v>
+        <v>963</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>1003</v>
+        <v>961</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>1002</v>
+        <v>960</v>
       </c>
       <c r="G63" s="28" t="s">
-        <v>1001</v>
+        <v>962</v>
       </c>
       <c r="H63" s="27" t="s">
-        <v>1016</v>
+        <v>970</v>
       </c>
       <c r="I63" s="28" t="s">
         <v>179</v>
       </c>
       <c r="J63" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K63" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L63" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M63" s="27" t="s">
         <v>42</v>
@@ -57436,6 +55532,271 @@
         <v>184</v>
       </c>
       <c r="Q63" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="32" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G64" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H64" s="27" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I64" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J64" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K64" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L64" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M64" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N64" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O64" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="P64" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q64" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="32" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G65" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H65" s="27" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I65" s="28" t="s">
+        <v>957</v>
+      </c>
+      <c r="J65" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K65" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L65" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M65" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N65" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O65" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="P65" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q65" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="32" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G66" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H66" s="27" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I66" s="28" t="s">
+        <v>958</v>
+      </c>
+      <c r="J66" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K66" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L66" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M66" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N66" s="27" t="s">
+        <v>980</v>
+      </c>
+      <c r="O66" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P66" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q66" s="27" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="32" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G67" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H67" s="27" t="s">
+        <v>690</v>
+      </c>
+      <c r="I67" s="28" t="s">
+        <v>959</v>
+      </c>
+      <c r="J67" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K67" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L67" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M67" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N67" s="27" t="s">
+        <v>981</v>
+      </c>
+      <c r="O67" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P67" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q67" s="27" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="32" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E68" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G68" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H68" s="27" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I68" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J68" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K68" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L68" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M68" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N68" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="O68" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="P68" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q68" s="27" t="s">
         <v>43</v>
       </c>
     </row>

--- a/cukesatdd/src/main/resources/database/PREPlanDocs/2022_MS_PlanDetails_PRE.xlsx
+++ b/cukesatdd/src/main/resources/database/PREPlanDocs/2022_MS_PlanDetails_PRE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mratdd_New\cukesatdd\src\main\resources\database\PREPlanDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ED129C-B0C5-4EDE-B909-524326269EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0D9F4F-E9E8-408F-8D29-6A8CDC7F4506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{1C6655DC-D297-4FC5-85B1-5499EE7AB3EA}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16245" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15701" uniqueCount="1022">
   <si>
     <t>name</t>
   </si>
@@ -42111,9 +42111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B7E196-737A-4C1D-A863-84EBD325380C}">
   <dimension ref="A1:R142"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102:Q142"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49814,7 +49814,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52164,11 +52164,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB3A42-7D7A-4CAD-AF1A-BFE9B5682891}">
-  <dimension ref="A1:R68"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52250,31 +52250,31 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>331</v>
+        <v>218</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>647</v>
+        <v>536</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J2" s="27" t="s">
         <v>56</v>
@@ -52285,50 +52285,49 @@
       <c r="L2" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="27" t="s">
-        <v>42</v>
+      <c r="M2" s="29" t="s">
+        <v>192</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P2" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q2" s="27" t="s">
-        <v>982</v>
-      </c>
-      <c r="R2" s="32"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>332</v>
+        <v>857</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>94</v>
+        <v>788</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>820</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>819</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>821</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>169</v>
+        <v>818</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>648</v>
+        <v>830</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>959</v>
+        <v>179</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>56</v>
@@ -52343,63 +52342,63 @@
         <v>42</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P3" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q3" s="27" t="s">
-        <v>983</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>333</v>
+        <v>859</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>11</v>
+        <v>783</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>94</v>
+        <v>150</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>169</v>
+        <v>833</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>649</v>
+        <v>836</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>979</v>
+        <v>45</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="P4" s="27" t="s">
         <v>184</v>
@@ -52410,49 +52409,49 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>484</v>
+        <v>860</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>7</v>
+        <v>784</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>431</v>
+        <v>151</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>430</v>
+        <v>833</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>989</v>
+        <v>837</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>176</v>
+        <v>957</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M5" s="27" t="s">
         <v>192</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>45</v>
+        <v>979</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="P5" s="27" t="s">
         <v>184</v>
@@ -52463,40 +52462,40 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>485</v>
+        <v>861</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>8</v>
+        <v>845</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>431</v>
+        <v>147</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>430</v>
+        <v>833</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>990</v>
+        <v>846</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>957</v>
+        <v>4</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M6" s="27" t="s">
         <v>192</v>
@@ -52516,84 +52515,84 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>486</v>
+        <v>862</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>9</v>
+        <v>785</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>431</v>
+        <v>144</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>430</v>
+        <v>833</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>991</v>
+        <v>838</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>958</v>
+        <v>179</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L7" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M7" s="27" t="s">
         <v>192</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P7" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q7" s="27" t="s">
-        <v>982</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>487</v>
+        <v>865</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>431</v>
+        <v>786</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>430</v>
+        <v>833</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>992</v>
+        <v>672</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>959</v>
+        <v>176</v>
       </c>
       <c r="J8" s="27" t="s">
         <v>56</v>
@@ -52605,48 +52604,48 @@
         <v>41</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>981</v>
+        <v>45</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="P8" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q8" s="27" t="s">
-        <v>983</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>488</v>
+        <v>866</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>431</v>
+        <v>787</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>430</v>
+        <v>833</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>758</v>
+        <v>839</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>179</v>
+        <v>957</v>
       </c>
       <c r="J9" s="27" t="s">
         <v>56</v>
@@ -52658,13 +52657,13 @@
         <v>41</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N9" s="27" t="s">
         <v>979</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P9" s="27" t="s">
         <v>184</v>
@@ -52675,261 +52674,261 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>491</v>
+        <v>867</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>432</v>
+        <v>790</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>509</v>
+        <v>833</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>762</v>
+        <v>840</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>176</v>
+        <v>958</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>774</v>
+        <v>56</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>774</v>
+        <v>57</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>774</v>
+        <v>41</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>774</v>
+        <v>42</v>
       </c>
       <c r="N10" s="27" t="s">
-        <v>45</v>
+        <v>980</v>
       </c>
       <c r="O10" s="27" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="P10" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q10" s="27" t="s">
-        <v>43</v>
+        <v>982</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>492</v>
+        <v>868</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>432</v>
+        <v>791</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>509</v>
+        <v>833</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>763</v>
+        <v>841</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>774</v>
+        <v>56</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>774</v>
+        <v>57</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>774</v>
+        <v>41</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>774</v>
+        <v>42</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P11" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q11" s="27" t="s">
-        <v>43</v>
+        <v>983</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>493</v>
+        <v>869</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>432</v>
+        <v>788</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>509</v>
+        <v>833</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>764</v>
+        <v>842</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>958</v>
+        <v>179</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>774</v>
+        <v>56</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>774</v>
+        <v>57</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>774</v>
+        <v>41</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>774</v>
+        <v>42</v>
       </c>
       <c r="N12" s="27" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O12" s="27" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P12" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q12" s="27" t="s">
-        <v>982</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>494</v>
+        <v>870</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>432</v>
+        <v>843</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>832</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>509</v>
+        <v>833</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>765</v>
+        <v>844</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>959</v>
+        <v>4</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>774</v>
+        <v>56</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>774</v>
+        <v>57</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>774</v>
+        <v>41</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>774</v>
+        <v>42</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="O13" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P13" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q13" s="27" t="s">
-        <v>983</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
-        <v>495</v>
+        <v>932</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>408</v>
+        <v>875</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>407</v>
+        <v>872</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>432</v>
+        <v>873</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>509</v>
+        <v>874</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>766</v>
+        <v>877</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>774</v>
+        <v>56</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>774</v>
+        <v>57</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>774</v>
+        <v>41</v>
       </c>
       <c r="M14" s="27" t="s">
-        <v>774</v>
+        <v>42</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>979</v>
+        <v>45</v>
       </c>
       <c r="O14" s="27" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="P14" s="27" t="s">
         <v>184</v>
@@ -52940,31 +52939,31 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
-        <v>498</v>
+        <v>933</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>410</v>
+        <v>875</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>409</v>
+        <v>872</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>433</v>
+        <v>873</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>510</v>
+        <v>874</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>993</v>
+        <v>878</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>176</v>
+        <v>957</v>
       </c>
       <c r="J15" s="27" t="s">
         <v>56</v>
@@ -52979,10 +52978,10 @@
         <v>42</v>
       </c>
       <c r="N15" s="27" t="s">
-        <v>45</v>
+        <v>979</v>
       </c>
       <c r="O15" s="27" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="P15" s="27" t="s">
         <v>184</v>
@@ -52993,31 +52992,31 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
-        <v>499</v>
+        <v>934</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>410</v>
+        <v>875</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>409</v>
+        <v>872</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>433</v>
+        <v>873</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>510</v>
+        <v>874</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>994</v>
+        <v>879</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>957</v>
+        <v>179</v>
       </c>
       <c r="J16" s="27" t="s">
         <v>56</v>
@@ -53035,7 +53034,7 @@
         <v>979</v>
       </c>
       <c r="O16" s="27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P16" s="27" t="s">
         <v>184</v>
@@ -53046,31 +53045,31 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>500</v>
+        <v>937</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>410</v>
+        <v>883</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>409</v>
+        <v>880</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>433</v>
+        <v>882</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>510</v>
+        <v>881</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>995</v>
+        <v>886</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>958</v>
+        <v>176</v>
       </c>
       <c r="J17" s="27" t="s">
         <v>56</v>
@@ -53082,48 +53081,48 @@
         <v>41</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N17" s="27" t="s">
-        <v>980</v>
+        <v>45</v>
       </c>
       <c r="O17" s="27" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="P17" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q17" s="27" t="s">
-        <v>982</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>501</v>
+        <v>938</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>410</v>
+        <v>883</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>409</v>
+        <v>880</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>433</v>
+        <v>882</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>510</v>
+        <v>881</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>996</v>
+        <v>887</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J18" s="27" t="s">
         <v>56</v>
@@ -53135,48 +53134,48 @@
         <v>41</v>
       </c>
       <c r="M18" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N18" s="27" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P18" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q18" s="27" t="s">
-        <v>983</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
-        <v>502</v>
+        <v>939</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>410</v>
+        <v>883</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>409</v>
+        <v>880</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>433</v>
+        <v>882</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>510</v>
+        <v>881</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>997</v>
+        <v>888</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>179</v>
+        <v>958</v>
       </c>
       <c r="J19" s="27" t="s">
         <v>56</v>
@@ -53188,110 +53187,110 @@
         <v>41</v>
       </c>
       <c r="M19" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O19" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P19" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q19" s="27" t="s">
-        <v>43</v>
+        <v>982</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
-        <v>796</v>
+        <v>940</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>783</v>
+        <v>10</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>780</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>779</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>781</v>
+        <v>149</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>883</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>880</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>882</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>817</v>
+        <v>881</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>809</v>
+        <v>889</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>176</v>
+        <v>959</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K20" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L20" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M20" s="27" t="s">
         <v>192</v>
       </c>
       <c r="N20" s="27" t="s">
-        <v>45</v>
+        <v>981</v>
       </c>
       <c r="O20" s="27" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="P20" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q20" s="27" t="s">
-        <v>43</v>
+        <v>983</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
-        <v>797</v>
+        <v>941</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>784</v>
+        <v>11</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>780</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>779</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>781</v>
+        <v>144</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>883</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>880</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>882</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>817</v>
+        <v>881</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>807</v>
+        <v>890</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>957</v>
+        <v>179</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M21" s="27" t="s">
         <v>192</v>
@@ -53300,7 +53299,7 @@
         <v>979</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P21" s="27" t="s">
         <v>184</v>
@@ -53311,31 +53310,31 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>798</v>
+        <v>944</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>785</v>
+        <v>7</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>780</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>779</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>781</v>
+        <v>150</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>891</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>892</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>817</v>
+        <v>893</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>811</v>
+        <v>708</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J22" s="27" t="s">
         <v>192</v>
@@ -53350,10 +53349,10 @@
         <v>192</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>979</v>
+        <v>45</v>
       </c>
       <c r="O22" s="27" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="P22" s="27" t="s">
         <v>184</v>
@@ -53364,49 +53363,49 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>801</v>
+        <v>945</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>786</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>780</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>779</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>781</v>
+        <v>151</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>891</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>892</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>817</v>
+        <v>893</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>808</v>
+        <v>709</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>176</v>
+        <v>957</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L23" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M23" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N23" s="27" t="s">
-        <v>45</v>
+        <v>979</v>
       </c>
       <c r="O23" s="27" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="P23" s="27" t="s">
         <v>184</v>
@@ -53417,190 +53416,190 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>802</v>
+        <v>946</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>787</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>780</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>779</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>781</v>
+        <v>148</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>891</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>892</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>817</v>
+        <v>893</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>806</v>
+        <v>710</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L24" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N24" s="27" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P24" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q24" s="27" t="s">
-        <v>43</v>
+        <v>982</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>803</v>
+        <v>947</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>790</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>780</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>779</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>781</v>
+        <v>149</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>891</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>892</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>817</v>
+        <v>893</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>812</v>
+        <v>711</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L25" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M25" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P25" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q25" s="27" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>804</v>
+        <v>948</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>791</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>780</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>779</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>781</v>
+        <v>144</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>891</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>892</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>817</v>
+        <v>893</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>813</v>
+        <v>712</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>959</v>
+        <v>179</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L26" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M26" s="27" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N26" s="27" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="O26" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P26" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q26" s="27" t="s">
-        <v>983</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>805</v>
+        <v>973</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>788</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>780</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>779</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>781</v>
+        <v>150</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>963</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>961</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>960</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>817</v>
+        <v>962</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>810</v>
+        <v>966</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="J27" s="27" t="s">
         <v>56</v>
@@ -53615,10 +53614,10 @@
         <v>42</v>
       </c>
       <c r="N27" s="27" t="s">
-        <v>979</v>
+        <v>45</v>
       </c>
       <c r="O27" s="27" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="P27" s="27" t="s">
         <v>184</v>
@@ -53629,49 +53628,49 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>848</v>
+        <v>974</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>783</v>
+        <v>8</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>819</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>821</v>
+        <v>151</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>963</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>961</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>960</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>818</v>
+        <v>962</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>998</v>
+        <v>967</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>176</v>
+        <v>957</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L28" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M28" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N28" s="27" t="s">
-        <v>45</v>
+        <v>979</v>
       </c>
       <c r="O28" s="27" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="P28" s="27" t="s">
         <v>184</v>
@@ -53682,137 +53681,137 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>849</v>
+        <v>975</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>784</v>
+        <v>9</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>819</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>821</v>
+        <v>148</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>963</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>961</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>960</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>818</v>
+        <v>962</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>999</v>
+        <v>968</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="J29" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L29" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N29" s="27" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="O29" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P29" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q29" s="27" t="s">
-        <v>43</v>
+        <v>982</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
-        <v>850</v>
+        <v>976</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>785</v>
+        <v>10</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>819</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>821</v>
+        <v>149</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>963</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>961</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>960</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>818</v>
+        <v>962</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>1000</v>
+        <v>969</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>179</v>
+        <v>959</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="L30" s="27" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="M30" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N30" s="27" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="O30" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P30" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q30" s="27" t="s">
-        <v>43</v>
+        <v>983</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
-        <v>853</v>
+        <v>977</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>786</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>819</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>821</v>
+        <v>144</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>963</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>961</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>960</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>818</v>
+        <v>962</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>826</v>
+        <v>970</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J31" s="27" t="s">
         <v>56</v>
@@ -53827,10 +53826,10 @@
         <v>42</v>
       </c>
       <c r="N31" s="27" t="s">
-        <v>45</v>
+        <v>979</v>
       </c>
       <c r="O31" s="27" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="P31" s="27" t="s">
         <v>184</v>
@@ -53841,49 +53840,49 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
-        <v>854</v>
+        <v>1006</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>787</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>819</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>821</v>
+        <v>150</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>1002</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>818</v>
+        <v>1001</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>827</v>
+        <v>1013</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>957</v>
+        <v>176</v>
       </c>
       <c r="J32" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L32" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M32" s="27" t="s">
         <v>42</v>
       </c>
       <c r="N32" s="27" t="s">
-        <v>979</v>
+        <v>45</v>
       </c>
       <c r="O32" s="27" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="P32" s="27" t="s">
         <v>184</v>
@@ -53894,190 +53893,190 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
-        <v>855</v>
+        <v>1007</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>790</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>819</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>821</v>
+        <v>151</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>1002</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>818</v>
+        <v>1001</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>828</v>
+        <v>1014</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J33" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K33" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M33" s="27" t="s">
         <v>42</v>
       </c>
       <c r="N33" s="27" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O33" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P33" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q33" s="27" t="s">
-        <v>982</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
-        <v>856</v>
+        <v>1008</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>791</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>819</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>821</v>
+        <v>148</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>1002</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>818</v>
+        <v>1001</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>829</v>
+        <v>1015</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J34" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K34" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L34" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M34" s="27" t="s">
         <v>42</v>
       </c>
       <c r="N34" s="27" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="O34" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P34" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q34" s="27" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
-        <v>857</v>
+        <v>1009</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>788</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>819</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>821</v>
+        <v>149</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>1002</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>818</v>
+        <v>1001</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>830</v>
+        <v>690</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>179</v>
+        <v>959</v>
       </c>
       <c r="J35" s="27" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="K35" s="27" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="L35" s="27" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="M35" s="27" t="s">
         <v>42</v>
       </c>
       <c r="N35" s="27" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="O35" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P35" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q35" s="27" t="s">
-        <v>43</v>
+        <v>983</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
-        <v>859</v>
+        <v>1010</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>783</v>
+        <v>11</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F36" s="29" t="s">
-        <v>832</v>
+        <v>144</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>1002</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>833</v>
+        <v>1001</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>836</v>
+        <v>1016</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J36" s="27" t="s">
         <v>192</v>
@@ -54089,1714 +54088,18 @@
         <v>192</v>
       </c>
       <c r="M36" s="27" t="s">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N36" s="27" t="s">
-        <v>45</v>
+        <v>979</v>
       </c>
       <c r="O36" s="27" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="P36" s="27" t="s">
         <v>184</v>
       </c>
       <c r="Q36" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
-        <v>860</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>784</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>832</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>833</v>
-      </c>
-      <c r="H37" s="27" t="s">
-        <v>837</v>
-      </c>
-      <c r="I37" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J37" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K37" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L37" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M37" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N37" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O37" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P37" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q37" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
-        <v>861</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>845</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>832</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>833</v>
-      </c>
-      <c r="H38" s="27" t="s">
-        <v>846</v>
-      </c>
-      <c r="I38" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="J38" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K38" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L38" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M38" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N38" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O38" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P38" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q38" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
-        <v>862</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>785</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F39" s="29" t="s">
-        <v>832</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>833</v>
-      </c>
-      <c r="H39" s="27" t="s">
-        <v>838</v>
-      </c>
-      <c r="I39" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J39" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K39" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L39" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M39" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N39" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O39" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P39" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q39" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
-        <v>865</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>786</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F40" s="29" t="s">
-        <v>832</v>
-      </c>
-      <c r="G40" s="28" t="s">
-        <v>833</v>
-      </c>
-      <c r="H40" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="I40" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J40" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K40" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L40" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M40" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N40" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O40" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P40" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q40" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
-        <v>866</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>787</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F41" s="29" t="s">
-        <v>832</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>833</v>
-      </c>
-      <c r="H41" s="27" t="s">
-        <v>839</v>
-      </c>
-      <c r="I41" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J41" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K41" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L41" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M41" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N41" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O41" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P41" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q41" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="32" t="s">
-        <v>867</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>790</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>832</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>833</v>
-      </c>
-      <c r="H42" s="27" t="s">
-        <v>840</v>
-      </c>
-      <c r="I42" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="J42" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K42" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L42" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M42" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N42" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="O42" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P42" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q42" s="27" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="32" t="s">
-        <v>868</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>791</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E43" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F43" s="29" t="s">
-        <v>832</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>833</v>
-      </c>
-      <c r="H43" s="27" t="s">
-        <v>841</v>
-      </c>
-      <c r="I43" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="J43" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K43" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L43" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M43" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N43" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="O43" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P43" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q43" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="32" t="s">
-        <v>869</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>788</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E44" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>832</v>
-      </c>
-      <c r="G44" s="28" t="s">
-        <v>833</v>
-      </c>
-      <c r="H44" s="27" t="s">
-        <v>842</v>
-      </c>
-      <c r="I44" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J44" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K44" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L44" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M44" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N44" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O44" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P44" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q44" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
-        <v>870</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>843</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="E45" s="32" t="s">
-        <v>831</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>832</v>
-      </c>
-      <c r="G45" s="28" t="s">
-        <v>833</v>
-      </c>
-      <c r="H45" s="27" t="s">
-        <v>844</v>
-      </c>
-      <c r="I45" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K45" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L45" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M45" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N45" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O45" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P45" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q45" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
-        <v>932</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>875</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>872</v>
-      </c>
-      <c r="F46" s="27" t="s">
-        <v>873</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>874</v>
-      </c>
-      <c r="H46" s="27" t="s">
-        <v>877</v>
-      </c>
-      <c r="I46" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J46" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K46" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L46" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M46" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N46" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O46" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P46" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q46" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
-        <v>933</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>875</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>872</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>873</v>
-      </c>
-      <c r="G47" s="28" t="s">
-        <v>874</v>
-      </c>
-      <c r="H47" s="27" t="s">
-        <v>878</v>
-      </c>
-      <c r="I47" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J47" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K47" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L47" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M47" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N47" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O47" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P47" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q47" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="32" t="s">
-        <v>934</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>875</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>872</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>873</v>
-      </c>
-      <c r="G48" s="28" t="s">
-        <v>874</v>
-      </c>
-      <c r="H48" s="27" t="s">
-        <v>879</v>
-      </c>
-      <c r="I48" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J48" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K48" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L48" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M48" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N48" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O48" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P48" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q48" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="32" t="s">
-        <v>937</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>883</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>880</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>882</v>
-      </c>
-      <c r="G49" s="28" t="s">
-        <v>881</v>
-      </c>
-      <c r="H49" s="27" t="s">
-        <v>886</v>
-      </c>
-      <c r="I49" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J49" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K49" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L49" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M49" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N49" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O49" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P49" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q49" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
-        <v>938</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>883</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>880</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>882</v>
-      </c>
-      <c r="G50" s="28" t="s">
-        <v>881</v>
-      </c>
-      <c r="H50" s="27" t="s">
-        <v>887</v>
-      </c>
-      <c r="I50" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J50" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K50" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L50" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M50" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N50" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O50" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P50" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q50" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="32" t="s">
-        <v>939</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>883</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>880</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>882</v>
-      </c>
-      <c r="G51" s="28" t="s">
-        <v>881</v>
-      </c>
-      <c r="H51" s="27" t="s">
-        <v>888</v>
-      </c>
-      <c r="I51" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="J51" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K51" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L51" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M51" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N51" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="O51" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P51" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q51" s="27" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="32" t="s">
-        <v>940</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D52" s="27" t="s">
-        <v>883</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>880</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>882</v>
-      </c>
-      <c r="G52" s="28" t="s">
-        <v>881</v>
-      </c>
-      <c r="H52" s="27" t="s">
-        <v>889</v>
-      </c>
-      <c r="I52" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="J52" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K52" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L52" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M52" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N52" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="O52" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P52" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q52" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="32" t="s">
-        <v>941</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>883</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>880</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>882</v>
-      </c>
-      <c r="G53" s="28" t="s">
-        <v>881</v>
-      </c>
-      <c r="H53" s="27" t="s">
-        <v>890</v>
-      </c>
-      <c r="I53" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J53" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K53" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L53" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M53" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N53" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O53" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P53" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q53" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="32" t="s">
-        <v>944</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>891</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>893</v>
-      </c>
-      <c r="H54" s="27" t="s">
-        <v>708</v>
-      </c>
-      <c r="I54" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J54" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K54" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L54" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M54" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N54" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O54" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P54" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q54" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="32" t="s">
-        <v>945</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>891</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="G55" s="28" t="s">
-        <v>893</v>
-      </c>
-      <c r="H55" s="27" t="s">
-        <v>709</v>
-      </c>
-      <c r="I55" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J55" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K55" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L55" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M55" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N55" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O55" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P55" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q55" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
-        <v>946</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>891</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="G56" s="28" t="s">
-        <v>893</v>
-      </c>
-      <c r="H56" s="27" t="s">
-        <v>710</v>
-      </c>
-      <c r="I56" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="J56" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K56" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L56" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M56" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N56" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="O56" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P56" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q56" s="27" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="32" t="s">
-        <v>947</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>891</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="G57" s="28" t="s">
-        <v>893</v>
-      </c>
-      <c r="H57" s="27" t="s">
-        <v>711</v>
-      </c>
-      <c r="I57" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="J57" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K57" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L57" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M57" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N57" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="O57" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P57" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q57" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="32" t="s">
-        <v>948</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>891</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>892</v>
-      </c>
-      <c r="G58" s="28" t="s">
-        <v>893</v>
-      </c>
-      <c r="H58" s="27" t="s">
-        <v>712</v>
-      </c>
-      <c r="I58" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J58" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K58" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L58" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M58" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="N58" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O58" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P58" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q58" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="32" t="s">
-        <v>973</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>963</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>961</v>
-      </c>
-      <c r="F59" s="27" t="s">
-        <v>960</v>
-      </c>
-      <c r="G59" s="28" t="s">
-        <v>962</v>
-      </c>
-      <c r="H59" s="27" t="s">
-        <v>966</v>
-      </c>
-      <c r="I59" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="J59" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K59" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L59" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M59" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N59" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O59" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P59" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q59" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
-        <v>974</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>963</v>
-      </c>
-      <c r="E60" s="27" t="s">
-        <v>961</v>
-      </c>
-      <c r="F60" s="27" t="s">
-        <v>960</v>
-      </c>
-      <c r="G60" s="28" t="s">
-        <v>962</v>
-      </c>
-      <c r="H60" s="27" t="s">
-        <v>967</v>
-      </c>
-      <c r="I60" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J60" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K60" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L60" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M60" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N60" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O60" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P60" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q60" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
-        <v>975</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>963</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>961</v>
-      </c>
-      <c r="F61" s="27" t="s">
-        <v>960</v>
-      </c>
-      <c r="G61" s="28" t="s">
-        <v>962</v>
-      </c>
-      <c r="H61" s="27" t="s">
-        <v>968</v>
-      </c>
-      <c r="I61" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="J61" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K61" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L61" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M61" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N61" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="O61" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P61" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q61" s="27" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="32" t="s">
-        <v>976</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>963</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>961</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>960</v>
-      </c>
-      <c r="G62" s="28" t="s">
-        <v>962</v>
-      </c>
-      <c r="H62" s="27" t="s">
-        <v>969</v>
-      </c>
-      <c r="I62" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="J62" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K62" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L62" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M62" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N62" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="O62" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P62" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q62" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="32" t="s">
-        <v>977</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>963</v>
-      </c>
-      <c r="E63" s="27" t="s">
-        <v>961</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>960</v>
-      </c>
-      <c r="G63" s="28" t="s">
-        <v>962</v>
-      </c>
-      <c r="H63" s="27" t="s">
-        <v>970</v>
-      </c>
-      <c r="I63" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J63" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K63" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="L63" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M63" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N63" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O63" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P63" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q63" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="32" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E64" s="27" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F64" s="27" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G64" s="28" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H64" s="27" t="s">
-        <v>1013</v>
-      </c>
-      <c r="I64" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="J64" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K64" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L64" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M64" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N64" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="O64" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="P64" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q64" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="32" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F65" s="27" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G65" s="28" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H65" s="27" t="s">
-        <v>1014</v>
-      </c>
-      <c r="I65" s="28" t="s">
-        <v>957</v>
-      </c>
-      <c r="J65" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K65" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L65" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M65" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N65" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O65" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="P65" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q65" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="32" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E66" s="27" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F66" s="27" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G66" s="28" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H66" s="27" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I66" s="28" t="s">
-        <v>958</v>
-      </c>
-      <c r="J66" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K66" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L66" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M66" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N66" s="27" t="s">
-        <v>980</v>
-      </c>
-      <c r="O66" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P66" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q66" s="27" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="32" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F67" s="27" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G67" s="28" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H67" s="27" t="s">
-        <v>690</v>
-      </c>
-      <c r="I67" s="28" t="s">
-        <v>959</v>
-      </c>
-      <c r="J67" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K67" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L67" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M67" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N67" s="27" t="s">
-        <v>981</v>
-      </c>
-      <c r="O67" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="P67" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q67" s="27" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="32" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E68" s="27" t="s">
-        <v>1003</v>
-      </c>
-      <c r="F68" s="27" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G68" s="28" t="s">
-        <v>1001</v>
-      </c>
-      <c r="H68" s="27" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I68" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J68" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="K68" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="L68" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="M68" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="N68" s="27" t="s">
-        <v>979</v>
-      </c>
-      <c r="O68" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="P68" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q68" s="27" t="s">
         <v>43</v>
       </c>
     </row>
